--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,22 +4,40 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12480"/>
+    <workbookView windowWidth="27945" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="index" sheetId="5" r:id="rId1"/>
+    <sheet name="GIT" sheetId="7" r:id="rId2"/>
+    <sheet name="Vite" sheetId="6" r:id="rId3"/>
+    <sheet name="BootstrapTABLE" sheetId="2" r:id="rId4"/>
+    <sheet name="GittTABLE" sheetId="3" r:id="rId5"/>
+    <sheet name="script" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="73">
   <si>
     <t>Título</t>
   </si>
   <si>
-    <t>Curso de Ciberseguridad Básica - Ing. Eduardo Herrera Forero.</t>
+    <t>Ing. Eduardo Herrera Forero.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -28,13 +46,13 @@
     <t>Canonical</t>
   </si>
   <si>
-    <t>https://eduardoherreraf.github.io/curso_ de_ciberseguridad_basico.html</t>
+    <t>https://eduardoherreraf.github.io/bootstrap.html</t>
   </si>
   <si>
     <t>Descripción</t>
   </si>
   <si>
-    <t>Este es resumén del curso básico de ciberseguridad impartido en generaciontic.gov.co</t>
+    <t>Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones.</t>
   </si>
   <si>
     <t>&lt;head&gt;</t>
@@ -200,25 +218,63 @@
   </si>
   <si>
     <t>&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html</t>
+  </si>
+  <si>
+    <t>Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html</t>
+  </si>
+  <si>
+    <t>Índice de Bootstrap - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>Este es el índice en donde se encontraran todos los artículos de la Librería CSS Bootstrap que se han publicado en este sitio web.</t>
+  </si>
+  <si>
+    <t>&lt;meta name="robots" content="noindex, follow" /&gt;</t>
+  </si>
+  <si>
+    <t>Índice de Git / Github - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/git.htmll</t>
+  </si>
+  <si>
+    <t>Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web.</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;let tema = localStorage.getItem("theme") || "dark";window.onload = function () {if (tema === "dark") temaOscuro();if (tema === "light") temaClaro();};const cambiarTema = () =&gt; {const temaActual = localStorage.getItem("theme") || "dark";if (temaActual === "dark") {temaClaro();} else{temaOscuro();}};const temaOscuro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "dark");document.querySelector("#dl-icon").setAttribute("class","btn text-center d-flex bg-body-tertiary text-light");localStorage.setItem("theme", "dark");};const temaClaro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "light");document.querySelector("#dl-icon").setAttribute("class", "btn text-center d-flex bg-light text-dark");localStorage.setItem("theme", "light");};&lt;/script&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -371,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,16 +757,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,37 +772,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,82 +817,88 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,781 +1241,3913 @@
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="139.991666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="1"/>
-    <col min="16384" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="2"/>
+    <col min="16384" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="2"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="2"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="2"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="6"/>
-      <c r="XFD4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="XFD4" s="2"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <f t="shared" ref="B5:B55" si="0">A5</f>
+      <c r="B5" s="9" t="str">
+        <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="1"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="2"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="1"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="2"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="2"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="1"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="2"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="9" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
-        <v>&lt;meta name="description" content="Curso de Ciberseguridad Básica - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="1"/>
+      <c r="XFD9" s="2"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B10" s="9" t="str">
+        <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="1"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="2"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="1"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="2"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="2"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFD13" s="2"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="google" content="nositelinkssearchbox" /&gt;</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="XFD14" s="2"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f>CONCATENATE(E15,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/curso_ de_ciberseguridad_basico.html" /&gt;</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="XFD15" s="1"/>
-    </row>
-    <row r="16" spans="1:16384">
-      <c r="A16" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B15" s="9" t="str">
+        <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="1"/>
-    </row>
-    <row r="17" spans="2:16384">
-      <c r="B17" s="7" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="2"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="1"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="2"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="2"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;!-- Open Graph data --&gt;</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="2"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta property="og:type" content="website" /&gt;</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD19" s="2"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f>CONCATENATE(E20,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Curso de Ciberseguridad Básica - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="XFD20" s="1"/>
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="XFD20" s="2"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="7" t="str">
-        <f>CONCATENATE(E21,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Este es resumén del curso básico de ciberseguridad impartido en generaciontic.gov.co" /&gt;</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="XFD21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" ref="B21:B25" si="3">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="2"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="2"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD23" s="1"/>
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFD23" s="2"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="7" t="str">
-        <f>CONCATENATE(E24,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/curso_ de_ciberseguridad_basico.html" /&gt;</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="XFD24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="2"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="1"/>
-    </row>
-    <row r="26" spans="1:16384">
-      <c r="A26" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="1"/>
-    </row>
-    <row r="27" spans="2:16384">
-      <c r="B27" s="7" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="2"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="1"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="2"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" ref="B27:B29" si="4">A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="2"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;!-- Twitter cards --&gt;</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="2"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="2"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD30" s="2"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="7" t="str">
-        <f>CONCATENATE(E31,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Curso de Ciberseguridad Básica - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFD31" s="1"/>
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f>CONCATENATE(E31,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD31" s="2"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="7" t="str">
-        <f>CONCATENATE(E32,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Este es resumén del curso básico de ciberseguridad impartido en generaciontic.gov.co" /&gt;</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" ref="B32:B34" si="5">A32</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="2"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="2"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="1"/>
-    </row>
-    <row r="35" spans="1:16384">
-      <c r="A35" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="1"/>
-    </row>
-    <row r="36" spans="2:16384">
-      <c r="B36" s="7" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="2"/>
+    </row>
+    <row r="35" spans="2:16384">
+      <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="1"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="2"/>
+    </row>
+    <row r="36" spans="1:16384">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" ref="B36:B45" si="6">A36</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="2"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;!-- iconos --&gt;</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="2"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="2"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="1"/>
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="2"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="2"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="2"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="2"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="2"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="2"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="1"/>
-    </row>
-    <row r="46" spans="1:16384">
-      <c r="A46" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="1"/>
-    </row>
-    <row r="47" spans="2:16384">
-      <c r="B47" s="7" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="2"/>
+    </row>
+    <row r="46" spans="2:16384">
+      <c r="B46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="1"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="2"/>
+    </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" ref="B47:B51" si="7">A47</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="2"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;title&gt;</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="1"/>
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f>C1</f>
+        <v>Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="2"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="7" t="str">
-        <f>C1</f>
-        <v>Curso de Ciberseguridad Básica - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="1"/>
-    </row>
-    <row r="50" spans="1:16384">
-      <c r="A50" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="1"/>
-    </row>
-    <row r="51" spans="2:16384">
-      <c r="B51" s="7" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="2"/>
+    </row>
+    <row r="50" spans="2:16384">
+      <c r="B50" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="1"/>
-    </row>
-    <row r="52" spans="1:16384">
-      <c r="A52" s="1" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="2"/>
+    </row>
+    <row r="51" spans="1:16384">
+      <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="1"/>
-    </row>
-    <row r="53" spans="2:16384">
-      <c r="B53" s="7" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="2"/>
+    </row>
+    <row r="52" spans="2:16384">
+      <c r="B52" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="1"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="2"/>
+    </row>
+    <row r="53" spans="1:16384">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f>A53</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="2"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="1"/>
-    </row>
-    <row r="55" spans="1:16384">
-      <c r="A55" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B54" s="9" t="str">
+        <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD55" s="1"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="2"/>
+    </row>
+    <row r="55" spans="16384:16384">
+      <c r="XFD55" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD55"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="2"/>
+    <col min="16384" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16384">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="2"/>
+    </row>
+    <row r="2" spans="2:16384">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="2"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="2"/>
+    </row>
+    <row r="4" ht="6" customHeight="1" spans="2:16384">
+      <c r="B4" s="8"/>
+      <c r="XFD4" s="2"/>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" ref="B5:B8" si="0">A5</f>
+        <v>&lt;head&gt;</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="2"/>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;!-- Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="2"/>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta charset="utf-8" /&gt;</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="2"/>
+    </row>
+    <row r="8" spans="1:16384">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="2"/>
+    </row>
+    <row r="9" spans="1:16384">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f>CONCATENATE(E9,$C$1,F9)</f>
+        <v>&lt;meta name="description" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD9" s="2"/>
+    </row>
+    <row r="10" spans="1:16384">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" ref="B10:B13" si="1">A10</f>
+        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="2"/>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="2"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="2"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFD13" s="2"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html" /&gt;</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="XFD14" s="2"/>
+    </row>
+    <row r="15" spans="1:16384">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" ref="B15:B18" si="2">A15</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="2"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="2"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="2"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="2"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD19" s="2"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="XFD20" s="2"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" ref="B21:B25" si="3">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="2"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="2"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html" /&gt;</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFD23" s="2"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="2"/>
+    </row>
+    <row r="25" spans="1:16384">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="2"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="2"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" ref="B27:B29" si="4">A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="2"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="2"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="2"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD30" s="2"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f>CONCATENATE(E31,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD31" s="2"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" ref="B32:B34" si="5">A32</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="2"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="2"/>
+    </row>
+    <row r="34" spans="1:16384">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="2"/>
+    </row>
+    <row r="35" spans="2:16384">
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="2"/>
+    </row>
+    <row r="36" spans="1:16384">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" ref="B36:B45" si="6">A36</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="2"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="2"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="2"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="2"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="2"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="2"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="2"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="2"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="2"/>
+    </row>
+    <row r="45" spans="1:16384">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="2"/>
+    </row>
+    <row r="46" spans="2:16384">
+      <c r="B46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="2"/>
+    </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" ref="B47:B51" si="7">A47</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="2"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f>C1</f>
+        <v>Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="2"/>
+    </row>
+    <row r="49" spans="1:16384">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="2"/>
+    </row>
+    <row r="50" spans="2:16384">
+      <c r="B50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="2"/>
+    </row>
+    <row r="51" spans="1:16384">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="2"/>
+    </row>
+    <row r="52" spans="2:16384">
+      <c r="B52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="2"/>
+    </row>
+    <row r="53" spans="1:16384">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f>A53</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="2"/>
+    </row>
+    <row r="54" spans="1:16384">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f>A54</f>
+        <v>&lt;/head&gt;</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="2"/>
+    </row>
+    <row r="55" spans="16384:16384">
+      <c r="XFD55" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html" tooltip="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD55"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="2"/>
+    <col min="16384" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16384">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="2"/>
+    </row>
+    <row r="2" spans="2:16384">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="2"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="2"/>
+    </row>
+    <row r="4" ht="6" customHeight="1" spans="2:16384">
+      <c r="B4" s="8"/>
+      <c r="XFD4" s="2"/>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" ref="B5:B8" si="0">A5</f>
+        <v>&lt;head&gt;</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="2"/>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;!-- Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="2"/>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta charset="utf-8" /&gt;</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="2"/>
+    </row>
+    <row r="8" spans="1:16384">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="2"/>
+    </row>
+    <row r="9" spans="1:16384">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f>CONCATENATE(E9,$C$1,F9)</f>
+        <v>&lt;meta name="description" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD9" s="2"/>
+    </row>
+    <row r="10" spans="1:16384">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" ref="B10:B13" si="1">A10</f>
+        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="2"/>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="2"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="2"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFD13" s="2"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="XFD14" s="2"/>
+    </row>
+    <row r="15" spans="1:16384">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" ref="B15:B18" si="2">A15</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="2"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="2"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="2"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="2"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD19" s="2"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="XFD20" s="2"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" ref="B21:B25" si="3">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="2"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="2"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFD23" s="2"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="2"/>
+    </row>
+    <row r="25" spans="1:16384">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="2"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="2"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" ref="B27:B29" si="4">A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="2"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="2"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="2"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD30" s="2"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f>CONCATENATE(E31,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD31" s="2"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" ref="B32:B34" si="5">A32</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="2"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="2"/>
+    </row>
+    <row r="34" spans="1:16384">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="2"/>
+    </row>
+    <row r="35" spans="2:16384">
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="2"/>
+    </row>
+    <row r="36" spans="1:16384">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" ref="B36:B45" si="6">A36</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="2"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="2"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="2"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="2"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="2"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="2"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="2"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="2"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="2"/>
+    </row>
+    <row r="45" spans="1:16384">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="2"/>
+    </row>
+    <row r="46" spans="2:16384">
+      <c r="B46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="2"/>
+    </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" ref="B47:B51" si="7">A47</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="2"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f>C1</f>
+        <v>Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="2"/>
+    </row>
+    <row r="49" spans="1:16384">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="2"/>
+    </row>
+    <row r="50" spans="2:16384">
+      <c r="B50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="2"/>
+    </row>
+    <row r="51" spans="1:16384">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="2"/>
+    </row>
+    <row r="52" spans="2:16384">
+      <c r="B52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="2"/>
+    </row>
+    <row r="53" spans="1:16384">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f>A53</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="2"/>
+    </row>
+    <row r="54" spans="1:16384">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f>A54</f>
+        <v>&lt;/head&gt;</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="2"/>
+    </row>
+    <row r="55" spans="16384:16384">
+      <c r="XFD55" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" tooltip="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="9" tint="0.8"/>
+  </sheetPr>
+  <dimension ref="A1:XFD55"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="2"/>
+    <col min="16384" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16384">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="2"/>
+    </row>
+    <row r="2" spans="2:16384">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="2"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="2"/>
+    </row>
+    <row r="4" ht="6" customHeight="1" spans="2:16384">
+      <c r="B4" s="8"/>
+      <c r="XFD4" s="2"/>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" ref="B5:B8" si="0">A5</f>
+        <v>&lt;head&gt;</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="2"/>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;!-- Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="2"/>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta charset="utf-8" /&gt;</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="2"/>
+    </row>
+    <row r="8" spans="1:16384">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="2"/>
+    </row>
+    <row r="9" spans="1:16384">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f>CONCATENATE(E9,$C$1,F9)</f>
+        <v>&lt;meta name="description" content="Índice de Bootstrap - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD9" s="2"/>
+    </row>
+    <row r="10" spans="1:16384">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f>A10</f>
+        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="2"/>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f>A11</f>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="2"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f>A12</f>
+        <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="2"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f>A13</f>
+        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="2"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="XFD14" s="2"/>
+    </row>
+    <row r="15" spans="1:16384">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" ref="B15:B18" si="1">A15</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="2"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="2"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="2"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="2"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Índice de Bootstrap - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD19" s="2"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos de la Librería CSS Bootstrap que se han publicado en este sitio web." /&gt;</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="XFD20" s="2"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" ref="B21:B25" si="2">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="2"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="2"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFD23" s="2"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="2"/>
+    </row>
+    <row r="25" spans="1:16384">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="2"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="2"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" ref="B27:B29" si="3">A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="2"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="2"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="2"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="Índice de Bootstrap - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD30" s="2"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f>CONCATENATE(E31,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos de la Librería CSS Bootstrap que se han publicado en este sitio web." /&gt;</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD31" s="2"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" ref="B32:B34" si="4">A32</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="2"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="2"/>
+    </row>
+    <row r="34" spans="1:16384">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="2"/>
+    </row>
+    <row r="35" spans="2:16384">
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="2"/>
+    </row>
+    <row r="36" spans="1:16384">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" ref="B36:B45" si="5">A36</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="2"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="2"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="2"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="2"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="2"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="2"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="2"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="2"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="2"/>
+    </row>
+    <row r="45" spans="1:16384">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="2"/>
+    </row>
+    <row r="46" spans="2:16384">
+      <c r="B46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="2"/>
+    </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" ref="B47:B51" si="6">A47</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="2"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f>C1</f>
+        <v>Índice de Bootstrap - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="2"/>
+    </row>
+    <row r="49" spans="1:16384">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="2"/>
+    </row>
+    <row r="50" spans="2:16384">
+      <c r="B50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="2"/>
+    </row>
+    <row r="51" spans="1:16384">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="2"/>
+    </row>
+    <row r="52" spans="2:16384">
+      <c r="B52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="2"/>
+    </row>
+    <row r="53" spans="1:16384">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f>A53</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="2"/>
+    </row>
+    <row r="54" spans="1:16384">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f>A54</f>
+        <v>&lt;/head&gt;</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="2"/>
+    </row>
+    <row r="55" spans="16384:16384">
+      <c r="XFD55" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="9" tint="0.8"/>
+  </sheetPr>
+  <dimension ref="A1:XFD54"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="2"/>
+    <col min="16384" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16384">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="2"/>
+    </row>
+    <row r="2" spans="2:16384">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="2"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="2"/>
+    </row>
+    <row r="4" ht="6" customHeight="1" spans="2:16384">
+      <c r="B4" s="8"/>
+      <c r="XFD4" s="2"/>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" ref="B5:B8" si="0">A5</f>
+        <v>&lt;head&gt;</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="2"/>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;!-- Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="2"/>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta charset="utf-8" /&gt;</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="2"/>
+    </row>
+    <row r="8" spans="1:16384">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="2"/>
+    </row>
+    <row r="9" spans="1:16384">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f>CONCATENATE(E9,$C$1,F9)</f>
+        <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD9" s="2"/>
+    </row>
+    <row r="10" spans="1:16384">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" ref="B10:B13" si="1">A10</f>
+        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="2"/>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="2"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="2"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="2"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="XFD14" s="2"/>
+    </row>
+    <row r="15" spans="1:16384">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" ref="B15:B18" si="2">A15</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="2"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="2"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="2"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="2"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD19" s="2"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="XFD20" s="2"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" ref="B21:B25" si="3">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="2"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="2"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFD23" s="2"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="2"/>
+    </row>
+    <row r="25" spans="1:16384">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="2"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="2"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" ref="B27:B29" si="4">A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="2"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="2"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="2"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD30" s="2"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f>CONCATENATE(E31,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD31" s="2"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" ref="B32:B34" si="5">A32</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="2"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="2"/>
+    </row>
+    <row r="34" spans="1:16384">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="2"/>
+    </row>
+    <row r="35" spans="2:16384">
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="2"/>
+    </row>
+    <row r="36" spans="1:16384">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" ref="B36:B45" si="6">A36</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="2"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="2"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="2"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="2"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="2"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="2"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="2"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="2"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="2"/>
+    </row>
+    <row r="45" spans="1:16384">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="2"/>
+    </row>
+    <row r="46" spans="2:16384">
+      <c r="B46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="2"/>
+    </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" ref="B47:B51" si="7">A47</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="2"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f>C1</f>
+        <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="2"/>
+    </row>
+    <row r="49" spans="1:16384">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="2"/>
+    </row>
+    <row r="50" spans="2:16384">
+      <c r="B50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="2"/>
+    </row>
+    <row r="51" spans="1:16384">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="2"/>
+    </row>
+    <row r="52" spans="2:16384">
+      <c r="B52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="2"/>
+    </row>
+    <row r="53" spans="1:16384">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f>A53</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="2"/>
+    </row>
+    <row r="54" spans="1:16384">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f>A54</f>
+        <v>&lt;/head&gt;</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/git.htmll" tooltip="https://eduardoherreraf.github.io/git.htmll"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12450"/>
+    <workbookView windowWidth="27945" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
     <sheet name="GIT" sheetId="7" r:id="rId2"/>
-    <sheet name="Vite" sheetId="6" r:id="rId3"/>
-    <sheet name="BootstrapTABLE" sheetId="2" r:id="rId4"/>
-    <sheet name="GittTABLE" sheetId="3" r:id="rId5"/>
-    <sheet name="script" sheetId="8" r:id="rId6"/>
+    <sheet name="BootstrapTABLE" sheetId="2" r:id="rId3"/>
+    <sheet name="GittTABLE" sheetId="3" r:id="rId4"/>
+    <sheet name="script" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="73">
   <si>
     <t>Título</t>
   </si>
@@ -220,22 +219,22 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html</t>
-  </si>
-  <si>
-    <t>Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero.</t>
+    <t>Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero.</t>
   </si>
   <si>
     <t>https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html</t>
   </si>
   <si>
-    <t>Índice de Bootstrap - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>Este es el índice en donde se encontraran todos los artículos de la Librería CSS Bootstrap que se han publicado en este sitio web.</t>
+    <t>La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel.</t>
+  </si>
+  <si>
+    <t>Índice de javascript - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/javascript.html</t>
+  </si>
+  <si>
+    <t>Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web</t>
   </si>
   <si>
     <t>&lt;meta name="robots" content="noindex, follow" /&gt;</t>
@@ -894,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1240,8 +1239,788 @@
   <sheetPr/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="2"/>
+    <col min="16384" max="16384" width="11" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16384">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="2"/>
+    </row>
+    <row r="2" spans="2:16384">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="2"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="2"/>
+    </row>
+    <row r="4" ht="6" customHeight="1" spans="2:16384">
+      <c r="B4" s="8"/>
+      <c r="XFD4" s="2"/>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" ref="B5:B8" si="0">A5</f>
+        <v>&lt;head&gt;</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="2"/>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;!-- Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="2"/>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta charset="utf-8" /&gt;</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="2"/>
+    </row>
+    <row r="8" spans="1:16384">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="2"/>
+    </row>
+    <row r="9" spans="1:16384">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f>CONCATENATE(E9,$C$1,F9)</f>
+        <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD9" s="2"/>
+    </row>
+    <row r="10" spans="1:16384">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" ref="B10:B13" si="1">A10</f>
+        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="2"/>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="2"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="2"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFD13" s="2"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="XFD14" s="2"/>
+    </row>
+    <row r="15" spans="1:16384">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" ref="B15:B18" si="2">A15</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="2"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="2"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="2"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="2"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD19" s="2"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="XFD20" s="2"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" ref="B21:B25" si="3">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="2"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="2"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFD23" s="2"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="2"/>
+    </row>
+    <row r="25" spans="1:16384">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="2"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="2"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" ref="B27:B29" si="4">A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="2"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="2"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="2"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD30" s="2"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f>CONCATENATE(E31,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD31" s="2"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" ref="B32:B34" si="5">A32</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="2"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="2"/>
+    </row>
+    <row r="34" spans="1:16384">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="2"/>
+    </row>
+    <row r="35" spans="2:16384">
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="2"/>
+    </row>
+    <row r="36" spans="1:16384">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" ref="B36:B45" si="6">A36</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="2"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="2"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="2"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="2"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="2"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="2"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="2"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="2"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="2"/>
+    </row>
+    <row r="45" spans="1:16384">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="2"/>
+    </row>
+    <row r="46" spans="2:16384">
+      <c r="B46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="2"/>
+    </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" ref="B47:B51" si="7">A47</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="2"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f>C1</f>
+        <v>Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="2"/>
+    </row>
+    <row r="49" spans="1:16384">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="2"/>
+    </row>
+    <row r="50" spans="2:16384">
+      <c r="B50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="2"/>
+    </row>
+    <row r="51" spans="1:16384">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="2"/>
+    </row>
+    <row r="52" spans="2:16384">
+      <c r="B52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="2"/>
+    </row>
+    <row r="53" spans="1:16384">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f>A53</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="2"/>
+    </row>
+    <row r="54" spans="1:16384">
+      <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f>A54</f>
+        <v>&lt;/head&gt;</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="2"/>
+    </row>
+    <row r="55" spans="16384:16384">
+      <c r="XFD55" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD55"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1264,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1276,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1288,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1360,8 +2139,8 @@
         <v>11</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f>CONCATENATE(E9,$C$1,F9)</f>
-        <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+        <f>CONCATENATE(E9,$C$3,F9)</f>
+        <v>&lt;meta name="description" content="La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel." /&gt;</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
@@ -1440,7 +2219,7 @@
       </c>
       <c r="B14" s="9" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -1509,7 +2288,7 @@
       </c>
       <c r="B19" s="9" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta property="og:title" content="Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
@@ -1526,7 +2305,7 @@
       </c>
       <c r="B20" s="9" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+        <v>&lt;meta property="og:description" content="La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel." /&gt;</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
@@ -1571,7 +2350,7 @@
       </c>
       <c r="B23" s="9" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
@@ -1668,7 +2447,7 @@
       </c>
       <c r="B30" s="9" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta name="twitter:title" content="Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
@@ -1685,7 +2464,7 @@
       </c>
       <c r="B31" s="9" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+        <v>&lt;meta name="twitter:description" content="La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel." /&gt;</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -1918,7 +2697,7 @@
       </c>
       <c r="B48" s="9" t="str">
         <f>C1</f>
-        <v>Ing. Eduardo Herrera Forero.</v>
+        <v>Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero.</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
@@ -2007,787 +2786,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap.html"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD55"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="2"/>
-    <col min="16384" max="16384" width="11" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16384">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="2"/>
-    </row>
-    <row r="2" spans="2:16384">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="2"/>
-    </row>
-    <row r="3" spans="2:16384">
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="2"/>
-    </row>
-    <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="8"/>
-      <c r="XFD4" s="2"/>
-    </row>
-    <row r="5" spans="1:16384">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="str">
-        <f t="shared" ref="B5:B8" si="0">A5</f>
-        <v>&lt;head&gt;</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="2"/>
-    </row>
-    <row r="6" spans="1:16384">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;!-- Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="2"/>
-    </row>
-    <row r="7" spans="1:16384">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta charset="utf-8" /&gt;</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="2"/>
-    </row>
-    <row r="8" spans="1:16384">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="2"/>
-    </row>
-    <row r="9" spans="1:16384">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="str">
-        <f>CONCATENATE(E9,$C$1,F9)</f>
-        <v>&lt;meta name="description" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="XFD9" s="2"/>
-    </row>
-    <row r="10" spans="1:16384">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f t="shared" ref="B10:B13" si="1">A10</f>
-        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="2"/>
-    </row>
-    <row r="11" spans="1:16384">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="2"/>
-    </row>
-    <row r="12" spans="1:16384">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="2"/>
-    </row>
-    <row r="13" spans="1:16384">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="XFD13" s="2"/>
-    </row>
-    <row r="14" spans="1:16384">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="str">
-        <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html" /&gt;</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="XFD14" s="2"/>
-    </row>
-    <row r="15" spans="1:16384">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="str">
-        <f t="shared" ref="B15:B18" si="2">A15</f>
-        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="2"/>
-    </row>
-    <row r="16" spans="2:16384">
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="2"/>
-    </row>
-    <row r="17" spans="1:16384">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;!-- Open Graph data --&gt;</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="2"/>
-    </row>
-    <row r="18" spans="1:16384">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;meta property="og:type" content="website" /&gt;</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="2"/>
-    </row>
-    <row r="19" spans="1:16384">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="9" t="str">
-        <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="XFD19" s="2"/>
-    </row>
-    <row r="20" spans="1:16384">
-      <c r="A20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9" t="str">
-        <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="XFD20" s="2"/>
-    </row>
-    <row r="21" spans="1:16384">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="9" t="str">
-        <f t="shared" ref="B21:B25" si="3">A21</f>
-        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="2"/>
-    </row>
-    <row r="22" spans="1:16384">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="2"/>
-    </row>
-    <row r="23" spans="1:16384">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="9" t="str">
-        <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html" /&gt;</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="XFD23" s="2"/>
-    </row>
-    <row r="24" spans="1:16384">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="2"/>
-    </row>
-    <row r="25" spans="1:16384">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;!-- fin Open Graph data --&gt;</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="2"/>
-    </row>
-    <row r="26" spans="2:16384">
-      <c r="B26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="2"/>
-    </row>
-    <row r="27" spans="1:16384">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="9" t="str">
-        <f t="shared" ref="B27:B29" si="4">A27</f>
-        <v>&lt;!-- Twitter cards --&gt;</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="2"/>
-    </row>
-    <row r="28" spans="1:16384">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="2"/>
-    </row>
-    <row r="29" spans="1:16384">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="2"/>
-    </row>
-    <row r="30" spans="1:16384">
-      <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="9" t="str">
-        <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFD30" s="2"/>
-    </row>
-    <row r="31" spans="1:16384">
-      <c r="A31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="9" t="str">
-        <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD31" s="2"/>
-    </row>
-    <row r="32" spans="1:16384">
-      <c r="A32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="9" t="str">
-        <f t="shared" ref="B32:B34" si="5">A32</f>
-        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="2"/>
-    </row>
-    <row r="33" spans="1:16384">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="2"/>
-    </row>
-    <row r="34" spans="1:16384">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;!-- Fin Twitter cards --&gt;</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="2"/>
-    </row>
-    <row r="35" spans="2:16384">
-      <c r="B35" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="2"/>
-    </row>
-    <row r="36" spans="1:16384">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="9" t="str">
-        <f t="shared" ref="B36:B45" si="6">A36</f>
-        <v>&lt;!-- iconos --&gt;</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="2"/>
-    </row>
-    <row r="37" spans="1:16384">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="2"/>
-    </row>
-    <row r="38" spans="1:16384">
-      <c r="A38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="2"/>
-    </row>
-    <row r="39" spans="1:16384">
-      <c r="A39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="2"/>
-    </row>
-    <row r="40" spans="1:16384">
-      <c r="A40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="2"/>
-    </row>
-    <row r="41" spans="1:16384">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="2"/>
-    </row>
-    <row r="42" spans="1:16384">
-      <c r="A42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="2"/>
-    </row>
-    <row r="43" spans="1:16384">
-      <c r="A43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="2"/>
-    </row>
-    <row r="44" spans="1:16384">
-      <c r="A44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="2"/>
-    </row>
-    <row r="45" spans="1:16384">
-      <c r="A45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;!-- fin iconos --&gt;</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="2"/>
-    </row>
-    <row r="46" spans="2:16384">
-      <c r="B46" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="2"/>
-    </row>
-    <row r="47" spans="1:16384">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="9" t="str">
-        <f t="shared" ref="B47:B51" si="7">A47</f>
-        <v>&lt;title&gt;</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="2"/>
-    </row>
-    <row r="48" spans="1:16384">
-      <c r="A48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="9" t="str">
-        <f>C1</f>
-        <v>Como Eliminar el Último Commit de GIT - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="2"/>
-    </row>
-    <row r="49" spans="1:16384">
-      <c r="A49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;/title&gt;</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="2"/>
-    </row>
-    <row r="50" spans="2:16384">
-      <c r="B50" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="2"/>
-    </row>
-    <row r="51" spans="1:16384">
-      <c r="A51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="2"/>
-    </row>
-    <row r="52" spans="2:16384">
-      <c r="B52" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="2"/>
-    </row>
-    <row r="53" spans="1:16384">
-      <c r="A53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="9" t="str">
-        <f>A53</f>
-        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="2"/>
-    </row>
-    <row r="54" spans="1:16384">
-      <c r="A54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="9" t="str">
-        <f>A54</f>
-        <v>&lt;/head&gt;</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="2"/>
-    </row>
-    <row r="55" spans="16384:16384">
-      <c r="XFD55" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html" tooltip="https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" tooltip="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2797,7 +2796,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.8"/>
+  </sheetPr>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -2823,8 +2824,8 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>64</v>
+      <c r="C1" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2836,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -2847,8 +2848,8 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>64</v>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -2920,8 +2921,8 @@
         <v>11</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f>CONCATENATE(E9,$C$1,F9)</f>
-        <v>&lt;meta name="description" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <f>CONCATENATE(E9,$C$3,F9)</f>
+        <v>&lt;meta name="description" content="Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web" /&gt;</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
@@ -2940,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="str">
-        <f t="shared" ref="B10:B13" si="1">A10</f>
+        <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
       <c r="C10" s="9"/>
@@ -2954,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
       <c r="C11" s="9"/>
@@ -2965,11 +2966,11 @@
     </row>
     <row r="12" spans="1:16384">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
+        <f>A12</f>
+        <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
@@ -2982,15 +2983,12 @@
         <v>17</v>
       </c>
       <c r="B13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="XFD13" s="2"/>
     </row>
@@ -3000,7 +2998,7 @@
       </c>
       <c r="B14" s="9" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/javascript.html" /&gt;</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -3016,7 +3014,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="9" t="str">
-        <f t="shared" ref="B15:B18" si="2">A15</f>
+        <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
       <c r="C15" s="9"/>
@@ -3040,7 +3038,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
       <c r="C17" s="9"/>
@@ -3054,7 +3052,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
       <c r="C18" s="9"/>
@@ -3069,7 +3067,7 @@
       </c>
       <c r="B19" s="9" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta property="og:title" content="Índice de javascript - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
@@ -3086,7 +3084,7 @@
       </c>
       <c r="B20" s="9" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta property="og:description" content="Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web" /&gt;</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
@@ -3102,7 +3100,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f t="shared" ref="B21:B25" si="3">A21</f>
+        <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
       <c r="C21" s="9"/>
@@ -3116,7 +3114,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
       <c r="C22" s="9"/>
@@ -3131,7 +3129,7 @@
       </c>
       <c r="B23" s="9" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/javascript.html" /&gt;</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
@@ -3147,7 +3145,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
       <c r="C24" s="9"/>
@@ -3161,7 +3159,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
       <c r="C25" s="9"/>
@@ -3185,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="9" t="str">
-        <f t="shared" ref="B27:B29" si="4">A27</f>
+        <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
       <c r="C27" s="9"/>
@@ -3199,7 +3197,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
       <c r="C28" s="9"/>
@@ -3213,7 +3211,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
       <c r="C29" s="9"/>
@@ -3228,7 +3226,7 @@
       </c>
       <c r="B30" s="9" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta name="twitter:title" content="Índice de javascript - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
@@ -3245,7 +3243,7 @@
       </c>
       <c r="B31" s="9" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta name="twitter:description" content="Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web" /&gt;</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -3261,7 +3259,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="9" t="str">
-        <f t="shared" ref="B32:B34" si="5">A32</f>
+        <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
       <c r="C32" s="9"/>
@@ -3275,7 +3273,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
       <c r="C33" s="9"/>
@@ -3289,7 +3287,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
       <c r="C34" s="9"/>
@@ -3313,7 +3311,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="9" t="str">
-        <f t="shared" ref="B36:B45" si="6">A36</f>
+        <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
       <c r="C36" s="9"/>
@@ -3327,7 +3325,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
       <c r="C37" s="9"/>
@@ -3341,7 +3339,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
       <c r="C38" s="9"/>
@@ -3355,7 +3353,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
       <c r="C39" s="9"/>
@@ -3369,7 +3367,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
       <c r="C40" s="9"/>
@@ -3383,7 +3381,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
       <c r="C41" s="9"/>
@@ -3397,7 +3395,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
       <c r="C42" s="9"/>
@@ -3411,7 +3409,7 @@
         <v>53</v>
       </c>
       <c r="B43" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
       <c r="C43" s="9"/>
@@ -3425,7 +3423,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
       <c r="C44" s="9"/>
@@ -3439,7 +3437,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
       <c r="C45" s="9"/>
@@ -3463,7 +3461,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="9" t="str">
-        <f t="shared" ref="B47:B51" si="7">A47</f>
+        <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
       <c r="C47" s="9"/>
@@ -3478,7 +3476,7 @@
       </c>
       <c r="B48" s="9" t="str">
         <f>C1</f>
-        <v>Instalación de Bootstrap V5 con VITE y PARCEL - Ing. Eduardo Herrera Forero.</v>
+        <v>Índice de javascript - Ing. Eduardo Herrera Forero.</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
@@ -3491,7 +3489,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
       <c r="C49" s="9"/>
@@ -3515,7 +3513,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
       <c r="C51" s="9"/>
@@ -3567,7 +3565,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" tooltip="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/javascript.html" tooltip="https://eduardoherreraf.github.io/javascript.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3580,7 +3578,7 @@
   <sheetPr>
     <tabColor theme="9" tint="0.8"/>
   </sheetPr>
-  <dimension ref="A1:XFD55"/>
+  <dimension ref="A1:XFD54"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -3606,785 +3604,6 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="2"/>
-    </row>
-    <row r="2" spans="2:16384">
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="2"/>
-    </row>
-    <row r="3" spans="2:16384">
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="2"/>
-    </row>
-    <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="8"/>
-      <c r="XFD4" s="2"/>
-    </row>
-    <row r="5" spans="1:16384">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="str">
-        <f t="shared" ref="B5:B8" si="0">A5</f>
-        <v>&lt;head&gt;</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="2"/>
-    </row>
-    <row r="6" spans="1:16384">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;!-- Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="2"/>
-    </row>
-    <row r="7" spans="1:16384">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta charset="utf-8" /&gt;</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="2"/>
-    </row>
-    <row r="8" spans="1:16384">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="2"/>
-    </row>
-    <row r="9" spans="1:16384">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="str">
-        <f>CONCATENATE(E9,$C$1,F9)</f>
-        <v>&lt;meta name="description" content="Índice de Bootstrap - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="XFD9" s="2"/>
-    </row>
-    <row r="10" spans="1:16384">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f>A10</f>
-        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="2"/>
-    </row>
-    <row r="11" spans="1:16384">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="str">
-        <f>A11</f>
-        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="2"/>
-    </row>
-    <row r="12" spans="1:16384">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="9" t="str">
-        <f>A12</f>
-        <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="2"/>
-    </row>
-    <row r="13" spans="1:16384">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <f>A13</f>
-        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="2"/>
-    </row>
-    <row r="14" spans="1:16384">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="str">
-        <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="XFD14" s="2"/>
-    </row>
-    <row r="15" spans="1:16384">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="str">
-        <f t="shared" ref="B15:B18" si="1">A15</f>
-        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="2"/>
-    </row>
-    <row r="16" spans="2:16384">
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="2"/>
-    </row>
-    <row r="17" spans="1:16384">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;!-- Open Graph data --&gt;</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="2"/>
-    </row>
-    <row r="18" spans="1:16384">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta property="og:type" content="website" /&gt;</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="2"/>
-    </row>
-    <row r="19" spans="1:16384">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="9" t="str">
-        <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Índice de Bootstrap - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="XFD19" s="2"/>
-    </row>
-    <row r="20" spans="1:16384">
-      <c r="A20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9" t="str">
-        <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos de la Librería CSS Bootstrap que se han publicado en este sitio web." /&gt;</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="XFD20" s="2"/>
-    </row>
-    <row r="21" spans="1:16384">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="9" t="str">
-        <f t="shared" ref="B21:B25" si="2">A21</f>
-        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="2"/>
-    </row>
-    <row r="22" spans="1:16384">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="2"/>
-    </row>
-    <row r="23" spans="1:16384">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="9" t="str">
-        <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="XFD23" s="2"/>
-    </row>
-    <row r="24" spans="1:16384">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="2"/>
-    </row>
-    <row r="25" spans="1:16384">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;!-- fin Open Graph data --&gt;</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="2"/>
-    </row>
-    <row r="26" spans="2:16384">
-      <c r="B26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="2"/>
-    </row>
-    <row r="27" spans="1:16384">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="9" t="str">
-        <f t="shared" ref="B27:B29" si="3">A27</f>
-        <v>&lt;!-- Twitter cards --&gt;</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="2"/>
-    </row>
-    <row r="28" spans="1:16384">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="2"/>
-    </row>
-    <row r="29" spans="1:16384">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="2"/>
-    </row>
-    <row r="30" spans="1:16384">
-      <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="9" t="str">
-        <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Índice de Bootstrap - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFD30" s="2"/>
-    </row>
-    <row r="31" spans="1:16384">
-      <c r="A31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="9" t="str">
-        <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos de la Librería CSS Bootstrap que se han publicado en este sitio web." /&gt;</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD31" s="2"/>
-    </row>
-    <row r="32" spans="1:16384">
-      <c r="A32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="9" t="str">
-        <f t="shared" ref="B32:B34" si="4">A32</f>
-        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="2"/>
-    </row>
-    <row r="33" spans="1:16384">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="2"/>
-    </row>
-    <row r="34" spans="1:16384">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;!-- Fin Twitter cards --&gt;</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="2"/>
-    </row>
-    <row r="35" spans="2:16384">
-      <c r="B35" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="2"/>
-    </row>
-    <row r="36" spans="1:16384">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="9" t="str">
-        <f t="shared" ref="B36:B45" si="5">A36</f>
-        <v>&lt;!-- iconos --&gt;</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="2"/>
-    </row>
-    <row r="37" spans="1:16384">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="2"/>
-    </row>
-    <row r="38" spans="1:16384">
-      <c r="A38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="2"/>
-    </row>
-    <row r="39" spans="1:16384">
-      <c r="A39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="2"/>
-    </row>
-    <row r="40" spans="1:16384">
-      <c r="A40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="2"/>
-    </row>
-    <row r="41" spans="1:16384">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="2"/>
-    </row>
-    <row r="42" spans="1:16384">
-      <c r="A42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="2"/>
-    </row>
-    <row r="43" spans="1:16384">
-      <c r="A43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="2"/>
-    </row>
-    <row r="44" spans="1:16384">
-      <c r="A44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="2"/>
-    </row>
-    <row r="45" spans="1:16384">
-      <c r="A45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;!-- fin iconos --&gt;</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="2"/>
-    </row>
-    <row r="46" spans="2:16384">
-      <c r="B46" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="2"/>
-    </row>
-    <row r="47" spans="1:16384">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="9" t="str">
-        <f t="shared" ref="B47:B51" si="6">A47</f>
-        <v>&lt;title&gt;</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="2"/>
-    </row>
-    <row r="48" spans="1:16384">
-      <c r="A48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="9" t="str">
-        <f>C1</f>
-        <v>Índice de Bootstrap - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="2"/>
-    </row>
-    <row r="49" spans="1:16384">
-      <c r="A49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;/title&gt;</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="2"/>
-    </row>
-    <row r="50" spans="2:16384">
-      <c r="B50" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="2"/>
-    </row>
-    <row r="51" spans="1:16384">
-      <c r="A51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="2"/>
-    </row>
-    <row r="52" spans="2:16384">
-      <c r="B52" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="2"/>
-    </row>
-    <row r="53" spans="1:16384">
-      <c r="A53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="9" t="str">
-        <f>A53</f>
-        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="2"/>
-    </row>
-    <row r="54" spans="1:16384">
-      <c r="A54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="9" t="str">
-        <f>A54</f>
-        <v>&lt;/head&gt;</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="2"/>
-    </row>
-    <row r="55" spans="16384:16384">
-      <c r="XFD55" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap.html"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="9" tint="0.8"/>
-  </sheetPr>
-  <dimension ref="A1:XFD54"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="2"/>
-    <col min="16384" max="16384" width="11" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16384">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5130,12 +4349,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12450" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -12,7 +12,11 @@
     <sheet name="BootstrapTABLE" sheetId="2" r:id="rId3"/>
     <sheet name="GittTABLE" sheetId="3" r:id="rId4"/>
     <sheet name="script" sheetId="8" r:id="rId5"/>
+    <sheet name="plantilla" sheetId="9" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="Comillas">plantilla!$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="113">
   <si>
     <t>Título</t>
   </si>
@@ -219,22 +223,22 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html</t>
-  </si>
-  <si>
-    <t>La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel.</t>
-  </si>
-  <si>
-    <t>Índice de javascript - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/javascript.html</t>
-  </si>
-  <si>
-    <t>Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web</t>
+    <t>Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html</t>
+  </si>
+  <si>
+    <t>Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop.</t>
+  </si>
+  <si>
+    <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop.html</t>
+  </si>
+  <si>
+    <t>Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop</t>
   </si>
   <si>
     <t>&lt;meta name="robots" content="noindex, follow" /&gt;</t>
@@ -250,6 +254,178 @@
   </si>
   <si>
     <t>&lt;script&gt;let tema = localStorage.getItem("theme") || "dark";window.onload = function () {if (tema === "dark") temaOscuro();if (tema === "light") temaClaro();};const cambiarTema = () =&gt; {const temaActual = localStorage.getItem("theme") || "dark";if (temaActual === "dark") {temaClaro();} else{temaOscuro();}};const temaOscuro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "dark");document.querySelector("#dl-icon").setAttribute("class","btn text-center d-flex bg-body-tertiary text-light");localStorage.setItem("theme", "dark");};const temaClaro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "light");document.querySelector("#dl-icon").setAttribute("class", "btn text-center d-flex bg-light text-dark");localStorage.setItem("theme", "light");};&lt;/script&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Comillas</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Plantilla Cuerpo</t>
+  </si>
+  <si>
+    <t>Plantilla Aside</t>
+  </si>
+  <si>
+    <t>&lt;main class="col-lg-8 col"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- Principal  --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;article class="row pb-3" id="principal"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="mb-n5"&gt;</t>
+  </si>
+  <si>
+    <t>titulo 1</t>
+  </si>
+  <si>
+    <t>Ajuste de lienzo y resolución</t>
+  </si>
+  <si>
+    <t>Parrafo 1</t>
+  </si>
+  <si>
+    <t>En Photoshop, el ajuste de lienzo y resolución son dos aspectos fundamentales para trabajar con imágenes y proyectos gráficos. . A continuación, se detalla cada uno de ellos:</t>
+  </si>
+  <si>
+    <t>Parrafo 2</t>
+  </si>
+  <si>
+    <t>&lt;ul class="list-unstyled px-3"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;</t>
+  </si>
+  <si>
+    <t>Area de trabajo 1</t>
+  </si>
+  <si>
+    <t>Cambiar la Resolución</t>
+  </si>
+  <si>
+    <t>    class="mt-5 pt-5"&gt;</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo1</t>
+  </si>
+  <si>
+    <t>cambiarResolución</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Area de trabajo 2</t>
+  </si>
+  <si>
+    <t>Cambiar Tamaño de Imagen</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo2</t>
+  </si>
+  <si>
+    <t>cambiarTamañoImagen</t>
+  </si>
+  <si>
+    <t>Area de trabajo 3</t>
+  </si>
+  <si>
+    <t>class="mt-5 pt-5 mb-n5"&gt;</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo3</t>
+  </si>
+  <si>
+    <t>cambiarResolución2</t>
+  </si>
+  <si>
+    <t>&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Area de trabajo 4</t>
+  </si>
+  <si>
+    <t>Expandir el Lienzo</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo4</t>
+  </si>
+  <si>
+    <t>expandirLienzo</t>
+  </si>
+  <si>
+    <t>Area de trabajo 5</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;!-- fin Principal  --&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -262,7 +438,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,7 +447,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -425,13 +627,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -448,12 +680,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,12 +794,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,148 +976,173 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,6 +1195,18 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1240,769 +1497,769 @@
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="2"/>
-    <col min="16384" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13"/>
+    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11" style="13"/>
+    <col min="5" max="5" width="35" style="13" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="13"/>
+    <col min="16384" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="13"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="2"/>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="13"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="2"/>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="13"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="8"/>
-      <c r="XFD4" s="2"/>
+      <c r="B4" s="19"/>
+      <c r="XFD4" s="13"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="20" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="2"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="13"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="2"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="13"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="2"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="13"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="2"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="13"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="20" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="2"/>
+      <c r="XFD9" s="13"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="20" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="2"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="13"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="2"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="13"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="2"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="13"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="2"/>
+      <c r="XFD13" s="13"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="20" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="2"/>
+      <c r="XFD14" s="13"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="20" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="2"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="13"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="2"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="13"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="2"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="13"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="2"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="13"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="20" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="2"/>
+      <c r="XFD19" s="13"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="20" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="2"/>
+      <c r="XFD20" s="13"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="13"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="2"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="13"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="20" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="2"/>
+      <c r="XFD23" s="13"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9" t="str">
+      <c r="B24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="13"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="13"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="13"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="20" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="2"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="13"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="2"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="13"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="2"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="13"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="20" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="2"/>
+      <c r="XFD30" s="13"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="9" t="str">
+      <c r="B31" s="20" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="2"/>
+      <c r="XFD31" s="13"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="9" t="str">
+      <c r="B32" s="20" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="2"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="13"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9" t="str">
+      <c r="B33" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="13"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B34" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="13"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="2"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="13"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="9" t="str">
+      <c r="B36" s="20" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="2"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="13"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B37" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="2"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="13"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="9" t="str">
+      <c r="B38" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="2"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="13"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="2"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="13"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="2"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="13"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B41" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="2"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="13"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="9" t="str">
+      <c r="B42" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="2"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="13"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="2"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="13"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="2"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="13"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B45" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="2"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="13"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="2"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="13"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="9" t="str">
+      <c r="B47" s="20" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="2"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="13"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="9" t="str">
+      <c r="B48" s="20" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="2"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="13"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="9" t="str">
+      <c r="B49" s="20" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="2"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="13"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="2"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="13"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9" t="str">
+      <c r="B51" s="20" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="2"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="13"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="2"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="13"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9" t="str">
+      <c r="B53" s="20" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="2"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="13"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="9" t="str">
+      <c r="B54" s="20" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="2"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="13"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="2"/>
+      <c r="XFD55" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2019,774 +2276,774 @@
   <sheetPr/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="2"/>
-    <col min="16384" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13"/>
+    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11" style="13"/>
+    <col min="5" max="5" width="35" style="13" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="13"/>
+    <col min="16384" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="13"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="2"/>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="13"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="2"/>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="13"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="8"/>
-      <c r="XFD4" s="2"/>
+      <c r="B4" s="19"/>
+      <c r="XFD4" s="13"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="20" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="2"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="13"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="2"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="13"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="2"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="13"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="2"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="13"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="20" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel." /&gt;</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>&lt;meta name="description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="2"/>
+      <c r="XFD9" s="13"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="20" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="2"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="13"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="2"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="13"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="2"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="13"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="2"/>
+      <c r="XFD13" s="13"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="20" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="2"/>
+      <c r="XFD14" s="13"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="20" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="2"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="13"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="2"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="13"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="2"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="13"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="2"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="13"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="20" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>&lt;meta property="og:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="2"/>
+      <c r="XFD19" s="13"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="20" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel." /&gt;</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>&lt;meta property="og:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="2"/>
+      <c r="XFD20" s="13"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="13"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="2"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="13"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="20" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" /&gt;</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="2"/>
+      <c r="XFD23" s="13"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9" t="str">
+      <c r="B24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="13"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="13"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="13"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="20" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="2"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="13"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="2"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="13"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="2"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="13"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="20" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>&lt;meta name="twitter:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="2"/>
+      <c r="XFD30" s="13"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="9" t="str">
+      <c r="B31" s="20" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="La guía oficial sobre cómo incluir y empaquetar el CSS y JavaScript de Bootstrap en un proyecto utilizando Parcel." /&gt;</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
+        <v>&lt;meta name="twitter:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="2"/>
+      <c r="XFD31" s="13"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="9" t="str">
+      <c r="B32" s="20" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="2"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="13"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9" t="str">
+      <c r="B33" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="13"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B34" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="13"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="2"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="13"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="9" t="str">
+      <c r="B36" s="20" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="2"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="13"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B37" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="2"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="13"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="9" t="str">
+      <c r="B38" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="2"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="13"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="2"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="13"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="2"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="13"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B41" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="2"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="13"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="9" t="str">
+      <c r="B42" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="2"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="13"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="2"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="13"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="2"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="13"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B45" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="2"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="13"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="2"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="13"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="9" t="str">
+      <c r="B47" s="20" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="2"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="13"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="9" t="str">
+      <c r="B48" s="20" t="str">
         <f>C1</f>
-        <v>Instalación de Bootstrap V5, NPM y PARCEL - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="2"/>
+        <v>Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="13"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="9" t="str">
+      <c r="B49" s="20" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="2"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="13"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="2"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="13"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9" t="str">
+      <c r="B51" s="20" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="2"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="13"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="2"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="13"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9" t="str">
+      <c r="B53" s="20" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="2"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="13"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="9" t="str">
+      <c r="B54" s="20" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="2"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="13"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="2"/>
+      <c r="XFD55" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html" tooltip="https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" tooltip="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2802,7 +3059,7 @@
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2811,761 +3068,761 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="2"/>
-    <col min="16384" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13"/>
+    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11" style="13"/>
+    <col min="5" max="5" width="35" style="13" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="13"/>
+    <col min="16384" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="13"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="2"/>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="13"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="2"/>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="13"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="8"/>
-      <c r="XFD4" s="2"/>
+      <c r="B4" s="19"/>
+      <c r="XFD4" s="13"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="20" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="2"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="13"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="2"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="13"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="2"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="13"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="2"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="13"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="20" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web" /&gt;</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="2"/>
+      <c r="XFD9" s="13"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="20" t="str">
         <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="2"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="13"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="20" t="str">
         <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="2"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="13"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="20" t="str">
         <f>A12</f>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="2"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="13"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="20" t="str">
         <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="2"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="13"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="20" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/javascript.html" /&gt;</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="2"/>
+      <c r="XFD14" s="13"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="20" t="str">
         <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="2"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="13"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="2"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="13"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="2"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="13"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="2"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="13"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="20" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Índice de javascript - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="2"/>
+      <c r="XFD19" s="13"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="20" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web" /&gt;</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="2"/>
+      <c r="XFD20" s="13"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="13"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="2"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="13"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="20" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/javascript.html" /&gt;</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="2"/>
+      <c r="XFD23" s="13"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9" t="str">
+      <c r="B24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="13"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="13"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="13"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="20" t="str">
         <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="2"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="13"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="2"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="13"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="2"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="13"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="20" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Índice de javascript - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="2"/>
+      <c r="XFD30" s="13"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="9" t="str">
+      <c r="B31" s="20" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Índice que enumera todos los artículos del lenguaje de programación Javascript publicados en este sitio web" /&gt;</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
+        <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="2"/>
+      <c r="XFD31" s="13"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="9" t="str">
+      <c r="B32" s="20" t="str">
         <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="2"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="13"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9" t="str">
+      <c r="B33" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="13"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B34" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="13"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="2"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="13"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="9" t="str">
+      <c r="B36" s="20" t="str">
         <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="2"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="13"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B37" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="2"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="13"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="9" t="str">
+      <c r="B38" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="2"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="13"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="2"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="13"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="2"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="13"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B41" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="2"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="13"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="9" t="str">
+      <c r="B42" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="2"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="13"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="2"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="13"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="2"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="13"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B45" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="2"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="13"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="2"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="13"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="9" t="str">
+      <c r="B47" s="20" t="str">
         <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="2"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="13"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="9" t="str">
+      <c r="B48" s="20" t="str">
         <f>C1</f>
-        <v>Índice de javascript - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="2"/>
+        <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="13"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="9" t="str">
+      <c r="B49" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="2"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="13"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="2"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="13"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9" t="str">
+      <c r="B51" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="2"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="13"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="2"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="13"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9" t="str">
+      <c r="B53" s="20" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="2"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="13"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="9" t="str">
+      <c r="B54" s="20" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="2"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="13"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="2"/>
+      <c r="XFD55" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/javascript.html" tooltip="https://eduardoherreraf.github.io/javascript.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop.html" tooltip="https://eduardoherreraf.github.io/photoshop.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3590,754 +3847,754 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="139.991666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="2"/>
-    <col min="16384" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13"/>
+    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11" style="13"/>
+    <col min="5" max="5" width="35" style="13" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="13"/>
+    <col min="16384" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="13"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="2"/>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="13"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="2"/>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="13"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="8"/>
-      <c r="XFD4" s="2"/>
+      <c r="B4" s="19"/>
+      <c r="XFD4" s="13"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="20" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="2"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="13"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="2"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="13"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="2"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="13"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="2"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="13"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="20" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="2"/>
+      <c r="XFD9" s="13"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="20" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="2"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="13"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="2"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="13"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="2"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="13"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="2"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="13"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="20" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="2"/>
+      <c r="XFD14" s="13"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="20" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="2"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="13"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="2"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="13"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="2"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="13"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9" t="str">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="2"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="13"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="20" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="2"/>
+      <c r="XFD19" s="13"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="20" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="2"/>
+      <c r="XFD20" s="13"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="2"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="13"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="2"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="13"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="20" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="2"/>
+      <c r="XFD23" s="13"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9" t="str">
+      <c r="B24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="2"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="13"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="13"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="2"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="13"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="20" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="2"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="13"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="2"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="13"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="20" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="2"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="13"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="20" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="2"/>
+      <c r="XFD30" s="13"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="9" t="str">
+      <c r="B31" s="20" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="2"/>
+      <c r="XFD31" s="13"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="9" t="str">
+      <c r="B32" s="20" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="2"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="13"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9" t="str">
+      <c r="B33" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="2"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="13"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B34" s="20" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="2"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="13"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="2"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="13"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="9" t="str">
+      <c r="B36" s="20" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="2"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="13"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B37" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="2"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="13"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="9" t="str">
+      <c r="B38" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="2"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="13"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="2"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="13"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="2"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="13"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B41" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="2"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="13"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="9" t="str">
+      <c r="B42" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="2"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="13"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="2"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="13"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="2"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="13"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B45" s="20" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="2"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="13"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="2"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="13"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="9" t="str">
+      <c r="B47" s="20" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="2"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="13"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="9" t="str">
+      <c r="B48" s="20" t="str">
         <f>C1</f>
         <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="2"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="13"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="9" t="str">
+      <c r="B49" s="20" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="2"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="13"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="2"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="13"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="9" t="str">
+      <c r="B51" s="20" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="2"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="13"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="2"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="13"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9" t="str">
+      <c r="B53" s="20" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="2"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="13"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="9" t="str">
+      <c r="B54" s="20" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="2"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4354,14 +4611,14 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4369,4 +4626,482 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.325" style="1" customWidth="1"/>
+    <col min="5" max="5" width="94.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",B11,"&lt;/h1&gt;")</f>
+        <v>&lt;h1&gt;Ajuste de lienzo y resolución&lt;/h1&gt;</v>
+      </c>
+    </row>
+    <row r="11" ht="23.25" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>CONCATENATE("&lt;p&gt;",B12,"&lt;/p&gt;")</f>
+        <v>&lt;p&gt;En Photoshop, el ajuste de lienzo y resolución son dos aspectos fundamentales para trabajar con imágenes y proyectos gráficos. . A continuación, se detalla cada uno de ellos:&lt;/p&gt;</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>IF(B13&lt;&gt;"",CONCATENATE("&lt;p&gt;",B13,"&lt;/p&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="str">
+        <f>CONCATENATE("&lt;!-- ",B15," --&gt;")</f>
+        <v>&lt;!-- Cambiar la Resolución --&gt;</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1"/>
+      <c r="C14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>CONCATENATE("id=",Comillas,B17,Comillas)</f>
+        <v>id="cambiarResolución"</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>CONCATENATE("&lt;a href=",Comillas,"#",B17,Comillas,"&gt;",B15,"&lt;/a&gt;")</f>
+        <v>&lt;a href="#cambiarResolución"&gt;Cambiar la Resolución&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>IF($B$15&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B15,"&lt;/h2&gt;")</f>
+        <v>&lt;h2 class="mt-1"&gt;Cambiar la Resolución&lt;/h2&gt;</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="str">
+        <f>IF(B$21&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1"/>
+      <c r="C18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f>IF(B$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B23,Comillas,"&gt;",B21,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#cambiarTamañoImagen"&gt;Cambiar Tamaño de Imagen&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="str">
+        <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;!-- ",B21," --&gt;"),"")</f>
+        <v>&lt;!-- Cambiar Tamaño de Imagen --&gt;</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>IF($B$21&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1"/>
+      <c r="C20" s="9" t="str">
+        <f>IF(B21&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>IF($B$27&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IF(B21&lt;&gt;"",CONCATENATE("id=",Comillas,B23,Comillas),"")</f>
+        <v>id="cambiarTamañoImagen"</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>IF($B$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B29,Comillas,"&gt;",B27,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#cambiarResolución2"&gt;Cambiar la Resolución&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1"/>
+      <c r="C22" s="4" t="str">
+        <f>IF(B21&lt;&gt;"",D27,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>IF($B$27&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B21,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Cambiar Tamaño de Imagen&lt;/h2&gt;</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f>IF($B$33&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1"/>
+      <c r="C24" s="9" t="str">
+        <f>IF(B21&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>IF($B$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B35,Comillas,"&gt;",B33,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#expandirLienzo"&gt;Expandir el Lienzo&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4" t="str">
+        <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;!-- ",B27," --&gt;"),"")</f>
+        <v>&lt;!-- Cambiar la Resolución --&gt;</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>IF($B$33&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1"/>
+      <c r="C26" s="9" t="str">
+        <f>IF(B27&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f>IF($B$39&lt;&gt;"","&lt;li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IF(B27&lt;&gt;"",CONCATENATE("id=",Comillas,B29,Comillas),"")</f>
+        <v>id="cambiarResolución2"</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f>IF($B$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B41,Comillas,"&gt;",B39,"&lt;/a&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="str">
+        <f>IF(B27&lt;&gt;"",D33,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f>IF($B$39&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B27,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Cambiar la Resolución&lt;/h2&gt;</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="9" t="str">
+        <f>IF(B27&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4" t="str">
+        <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;!-- ",B33," --&gt;"),"")</f>
+        <v>&lt;!-- Expandir el Lienzo --&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1"/>
+      <c r="C32" s="9" t="str">
+        <f>IF(B33&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>IF(B33&lt;&gt;"",CONCATENATE("id=",Comillas,B35,Comillas),"")</f>
+        <v>id="expandirLienzo"</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4" t="str">
+        <f>IF(B33&lt;&gt;"",D39,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B33,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Expandir el Lienzo&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="9" t="str">
+        <f>IF(B33&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="4" t="str">
+        <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;!-- ",B39," --&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="9" t="str">
+        <f>IF(B39&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4" t="str">
+        <f>IF(B39&lt;&gt;"",CONCATENATE("id=",Comillas,B41,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="4" t="str">
+        <f>IF(B39&lt;&gt;"",D46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="str">
+        <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B39,"&lt;/h2&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="9" t="str">
+        <f>IF(B39&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="plantilla" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Comillas">plantilla!$D$1</definedName>
+    <definedName name="Comillas">plantilla!$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="116">
   <si>
     <t>Título</t>
   </si>
@@ -283,7 +283,10 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t>Ajuste de lienzo y resolución</t>
+    <t>Trabajo con capas</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Parrafo 1</t>
@@ -295,6 +298,12 @@
     <t>Parrafo 2</t>
   </si>
   <si>
+    <t>Area de trabajo 1</t>
+  </si>
+  <si>
+    <t>Conceptos Básicos de Capas</t>
+  </si>
+  <si>
     <t>&lt;ul class="list-unstyled px-3"&gt;</t>
   </si>
   <si>
@@ -304,92 +313,86 @@
     <t>&lt;li&gt;</t>
   </si>
   <si>
-    <t>Area de trabajo 1</t>
-  </si>
-  <si>
-    <t>Cambiar la Resolución</t>
+    <t>areaDeTrabajo1</t>
+  </si>
+  <si>
+    <t>conceptosBasicosDeCapas</t>
   </si>
   <si>
     <t>    class="mt-5 pt-5"&gt;</t>
   </si>
   <si>
-    <t>areaDeTrabajo1</t>
-  </si>
-  <si>
-    <t>cambiarResolución</t>
-  </si>
-  <si>
     <t>&lt;/div&gt;</t>
   </si>
   <si>
     <t>Area de trabajo 2</t>
   </si>
   <si>
-    <t>Cambiar Tamaño de Imagen</t>
+    <t>Edición de Capas</t>
   </si>
   <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>cambiarTamañoImagen</t>
+    <t>edicionDeCapas</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
   </si>
   <si>
+    <t>Agregar una Imagen a un Diseño de Capas</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo3</t>
+  </si>
+  <si>
+    <t>agregarUnaImagenaUnDisenoDeCapas</t>
+  </si>
+  <si>
     <t>class="mt-5 pt-5 mb-n5"&gt;</t>
   </si>
   <si>
-    <t>areaDeTrabajo3</t>
-  </si>
-  <si>
-    <t>cambiarResolución2</t>
-  </si>
-  <si>
     <t>&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Area de trabajo 4</t>
   </si>
   <si>
-    <t>Expandir el Lienzo</t>
-  </si>
-  <si>
     <t>areaDeTrabajo4</t>
   </si>
   <si>
-    <t>expandirLienzo</t>
+    <t>agregarUnaImagenaUnDisenoDeCapas2</t>
   </si>
   <si>
     <t>Area de trabajo 5</t>
   </si>
   <si>
+    <t>Desbloquear Capas</t>
+  </si>
+  <si>
     <t>areaDeTrabajo5</t>
   </si>
   <si>
+    <t>desbloquearCapas</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
+        <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
       <t>article</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
+        <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
       <t>&gt;</t>
@@ -400,28 +403,22 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
+        <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
       <t>main</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
+        <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
       <t>&gt;</t>
@@ -432,11 +429,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -447,33 +445,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="12"/>
       <color rgb="FF808080"/>
-      <name val="Consolas"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -628,18 +624,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="12"/>
       <color rgb="FF569CD6"/>
-      <name val="Consolas"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -649,7 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +984,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,16 +1008,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1024,125 +1026,128 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,760 +1511,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11" style="13"/>
-    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11" style="13"/>
-    <col min="5" max="5" width="35" style="13" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="13"/>
-    <col min="16384" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14"/>
+    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11" style="14"/>
+    <col min="5" max="5" width="35" style="14" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="14"/>
+    <col min="16384" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="14"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="14"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="14"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="19"/>
-      <c r="XFD4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="XFD4" s="14"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="21" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="14"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="13"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="14"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="str">
+      <c r="B7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="14"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="str">
+      <c r="B8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="14"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20" t="str">
+      <c r="B9" s="21" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="13"/>
+      <c r="XFD9" s="14"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="str">
+      <c r="B10" s="21" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="13"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="14"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="13"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="14"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="13"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="14"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="13"/>
+      <c r="XFD13" s="14"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="20" t="str">
+      <c r="B14" s="21" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="13"/>
+      <c r="XFD14" s="14"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="14"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="14"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="14"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="14"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="20" t="str">
+      <c r="B19" s="21" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="13"/>
+      <c r="XFD19" s="14"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="21" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="13"/>
+      <c r="XFD20" s="14"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="21" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="14"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="14"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B23" s="21" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="13"/>
+      <c r="XFD23" s="14"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="20" t="str">
+      <c r="B24" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="14"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="20" t="str">
+      <c r="B25" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="14"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="13"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="14"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="20" t="str">
+      <c r="B27" s="21" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="14"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="20" t="str">
+      <c r="B28" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="13"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="14"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="20" t="str">
+      <c r="B29" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="14"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="20" t="str">
+      <c r="B30" s="21" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="13"/>
+      <c r="XFD30" s="14"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="20" t="str">
+      <c r="B31" s="21" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="13"/>
+      <c r="XFD31" s="14"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="20" t="str">
+      <c r="B32" s="21" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="13"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="14"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="20" t="str">
+      <c r="B33" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="14"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="20" t="str">
+      <c r="B34" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="13"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="14"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="14"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="20" t="str">
+      <c r="B36" s="21" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="13"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="14"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="20" t="str">
+      <c r="B37" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="14"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="20" t="str">
+      <c r="B38" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="13"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="14"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="20" t="str">
+      <c r="B39" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="14"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="20" t="str">
+      <c r="B40" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="13"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="14"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="20" t="str">
+      <c r="B41" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="14"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="20" t="str">
+      <c r="B42" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="13"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="14"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="20" t="str">
+      <c r="B43" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="14"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="20" t="str">
+      <c r="B44" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="13"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="14"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="20" t="str">
+      <c r="B45" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="13"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="14"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="13"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="14"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="20" t="str">
+      <c r="B47" s="21" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="13"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="14"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="20" t="str">
+      <c r="B48" s="21" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="13"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="14"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="20" t="str">
+      <c r="B49" s="21" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="13"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="14"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="13"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="14"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="20" t="str">
+      <c r="B51" s="21" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="13"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="14"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="13"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="14"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="20" t="str">
+      <c r="B53" s="21" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="13"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="14"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="20" t="str">
+      <c r="B54" s="21" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="13"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="14"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="13"/>
+      <c r="XFD55" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2276,770 +2281,770 @@
   <sheetPr/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11" style="13"/>
-    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11" style="13"/>
-    <col min="5" max="5" width="35" style="13" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="13"/>
-    <col min="16384" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14"/>
+    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11" style="14"/>
+    <col min="5" max="5" width="35" style="14" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="14"/>
+    <col min="16384" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="14"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="14"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="14"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="19"/>
-      <c r="XFD4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="XFD4" s="14"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="21" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="14"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="13"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="14"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="str">
+      <c r="B7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="14"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="str">
+      <c r="B8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="14"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20" t="str">
+      <c r="B9" s="21" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="13"/>
+      <c r="XFD9" s="14"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="str">
+      <c r="B10" s="21" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="13"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="14"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="13"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="14"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="13"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="14"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="13"/>
+      <c r="XFD13" s="14"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="20" t="str">
+      <c r="B14" s="21" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="13"/>
+      <c r="XFD14" s="14"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="14"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="14"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="14"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="14"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="20" t="str">
+      <c r="B19" s="21" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="13"/>
+      <c r="XFD19" s="14"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="21" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="13"/>
+      <c r="XFD20" s="14"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="21" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="14"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="14"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B23" s="21" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="13"/>
+      <c r="XFD23" s="14"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="20" t="str">
+      <c r="B24" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="14"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="20" t="str">
+      <c r="B25" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="14"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="13"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="14"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="20" t="str">
+      <c r="B27" s="21" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="14"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="20" t="str">
+      <c r="B28" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="13"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="14"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="20" t="str">
+      <c r="B29" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="14"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="20" t="str">
+      <c r="B30" s="21" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="13"/>
+      <c r="XFD30" s="14"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="20" t="str">
+      <c r="B31" s="21" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="13"/>
+      <c r="XFD31" s="14"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="20" t="str">
+      <c r="B32" s="21" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="13"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="14"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="20" t="str">
+      <c r="B33" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="14"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="20" t="str">
+      <c r="B34" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="13"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="14"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="14"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="20" t="str">
+      <c r="B36" s="21" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="13"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="14"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="20" t="str">
+      <c r="B37" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="14"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="20" t="str">
+      <c r="B38" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="13"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="14"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="20" t="str">
+      <c r="B39" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="14"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="20" t="str">
+      <c r="B40" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="13"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="14"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="20" t="str">
+      <c r="B41" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="14"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="20" t="str">
+      <c r="B42" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="13"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="14"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="20" t="str">
+      <c r="B43" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="14"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="20" t="str">
+      <c r="B44" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="13"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="14"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="20" t="str">
+      <c r="B45" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="13"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="14"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="13"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="14"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="20" t="str">
+      <c r="B47" s="21" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="13"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="14"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="20" t="str">
+      <c r="B48" s="21" t="str">
         <f>C1</f>
         <v>Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="13"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="14"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="20" t="str">
+      <c r="B49" s="21" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="13"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="14"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="13"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="14"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="20" t="str">
+      <c r="B51" s="21" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="13"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="14"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="13"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="14"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="20" t="str">
+      <c r="B53" s="21" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="13"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="14"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="20" t="str">
+      <c r="B54" s="21" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="13"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="14"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="13"/>
+      <c r="XFD55" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3068,757 +3073,757 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11" style="13"/>
-    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11" style="13"/>
-    <col min="5" max="5" width="35" style="13" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="13"/>
-    <col min="16384" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14"/>
+    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11" style="14"/>
+    <col min="5" max="5" width="35" style="14" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="14"/>
+    <col min="16384" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="14"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="14"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="14"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="19"/>
-      <c r="XFD4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="XFD4" s="14"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="21" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="14"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="13"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="14"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="str">
+      <c r="B7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="14"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="str">
+      <c r="B8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="14"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20" t="str">
+      <c r="B9" s="21" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="13"/>
+      <c r="XFD9" s="14"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="str">
+      <c r="B10" s="21" t="str">
         <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="13"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="14"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="21" t="str">
         <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="13"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="14"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="21" t="str">
         <f>A12</f>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="13"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="14"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20" t="str">
+      <c r="B13" s="21" t="str">
         <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="14"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="20" t="str">
+      <c r="B14" s="21" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="13"/>
+      <c r="XFD14" s="14"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="14"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="14"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="14"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="14"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="20" t="str">
+      <c r="B19" s="21" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="13"/>
+      <c r="XFD19" s="14"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="21" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="13"/>
+      <c r="XFD20" s="14"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="21" t="str">
         <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="14"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="14"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B23" s="21" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="13"/>
+      <c r="XFD23" s="14"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="20" t="str">
+      <c r="B24" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="14"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="20" t="str">
+      <c r="B25" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="14"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="13"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="14"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="20" t="str">
+      <c r="B27" s="21" t="str">
         <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="14"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="20" t="str">
+      <c r="B28" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="13"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="14"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="20" t="str">
+      <c r="B29" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="14"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="20" t="str">
+      <c r="B30" s="21" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="13"/>
+      <c r="XFD30" s="14"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="20" t="str">
+      <c r="B31" s="21" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="13"/>
+      <c r="XFD31" s="14"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="20" t="str">
+      <c r="B32" s="21" t="str">
         <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="13"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="14"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="20" t="str">
+      <c r="B33" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="14"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="20" t="str">
+      <c r="B34" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="13"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="14"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="14"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="20" t="str">
+      <c r="B36" s="21" t="str">
         <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="13"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="14"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="20" t="str">
+      <c r="B37" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="14"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="20" t="str">
+      <c r="B38" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="13"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="14"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="20" t="str">
+      <c r="B39" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="14"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="20" t="str">
+      <c r="B40" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="13"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="14"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="20" t="str">
+      <c r="B41" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="14"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="20" t="str">
+      <c r="B42" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="13"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="14"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="20" t="str">
+      <c r="B43" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="14"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="20" t="str">
+      <c r="B44" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="13"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="14"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="20" t="str">
+      <c r="B45" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="13"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="14"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="13"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="14"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="20" t="str">
+      <c r="B47" s="21" t="str">
         <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="13"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="14"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="20" t="str">
+      <c r="B48" s="21" t="str">
         <f>C1</f>
         <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="13"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="14"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="20" t="str">
+      <c r="B49" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="13"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="14"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="13"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="14"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="20" t="str">
+      <c r="B51" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="13"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="14"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="13"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="14"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="20" t="str">
+      <c r="B53" s="21" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="13"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="14"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="20" t="str">
+      <c r="B54" s="21" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="13"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="14"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="13"/>
+      <c r="XFD55" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3847,754 +3852,754 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11" style="13"/>
-    <col min="3" max="3" width="139.991666666667" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11" style="13"/>
-    <col min="5" max="5" width="35" style="13" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="13"/>
-    <col min="16384" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14"/>
+    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11" style="14"/>
+    <col min="5" max="5" width="35" style="14" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="14"/>
+    <col min="16384" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="14"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="14"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="14"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="19"/>
-      <c r="XFD4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="XFD4" s="14"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="21" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="14"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="13"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="14"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="str">
+      <c r="B7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="14"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="str">
+      <c r="B8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="14"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20" t="str">
+      <c r="B9" s="21" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="13"/>
+      <c r="XFD9" s="14"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="str">
+      <c r="B10" s="21" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="13"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="14"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="13"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="14"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="13"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="14"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="14"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="20" t="str">
+      <c r="B14" s="21" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="13"/>
+      <c r="XFD14" s="14"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="13"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="14"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="14"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="14"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="14"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="20" t="str">
+      <c r="B19" s="21" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="13"/>
+      <c r="XFD19" s="14"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="21" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="13"/>
+      <c r="XFD20" s="14"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="21" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="13"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="14"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="13"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="14"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B23" s="21" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="13"/>
+      <c r="XFD23" s="14"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="20" t="str">
+      <c r="B24" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="14"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="20" t="str">
+      <c r="B25" s="21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="13"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="14"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="13"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="14"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="20" t="str">
+      <c r="B27" s="21" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="13"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="14"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="20" t="str">
+      <c r="B28" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="13"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="14"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="20" t="str">
+      <c r="B29" s="21" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="13"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="14"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="20" t="str">
+      <c r="B30" s="21" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="13"/>
+      <c r="XFD30" s="14"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="20" t="str">
+      <c r="B31" s="21" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="13"/>
+      <c r="XFD31" s="14"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="20" t="str">
+      <c r="B32" s="21" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="13"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="14"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="20" t="str">
+      <c r="B33" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="14"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="20" t="str">
+      <c r="B34" s="21" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="13"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="14"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="14"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="20" t="str">
+      <c r="B36" s="21" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="13"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="14"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="20" t="str">
+      <c r="B37" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="14"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="20" t="str">
+      <c r="B38" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="13"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="14"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="20" t="str">
+      <c r="B39" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="14"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="20" t="str">
+      <c r="B40" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="13"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="14"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="20" t="str">
+      <c r="B41" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="13"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="14"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="20" t="str">
+      <c r="B42" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="13"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="14"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="20" t="str">
+      <c r="B43" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="14"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="20" t="str">
+      <c r="B44" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="13"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="14"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="20" t="str">
+      <c r="B45" s="21" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="13"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="14"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="13"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="14"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="20" t="str">
+      <c r="B47" s="21" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="13"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="14"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="20" t="str">
+      <c r="B48" s="21" t="str">
         <f>C1</f>
         <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="13"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="14"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="20" t="str">
+      <c r="B49" s="21" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="13"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="14"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="13"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="14"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="20" t="str">
+      <c r="B51" s="21" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="13"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="14"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="13"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="14"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="20" t="str">
+      <c r="B53" s="21" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="13"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="14"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="20" t="str">
+      <c r="B54" s="21" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="13"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4618,7 +4623,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4631,474 +4636,530 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.325" style="1" customWidth="1"/>
-    <col min="5" max="5" width="94.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="0.325" style="1" customWidth="1"/>
+    <col min="6" max="6" width="94.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="3"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:4">
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:4">
       <c r="B8" s="1"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:4">
       <c r="B9" s="1"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:4">
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="str">
         <f>CONCATENATE("&lt;h1&gt;",B11,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Ajuste de lienzo y resolución&lt;/h1&gt;</v>
-      </c>
-    </row>
-    <row r="11" ht="23.25" spans="1:4">
+        <v>&lt;h1&gt;Trabajo con capas&lt;/h1&gt;</v>
+      </c>
+    </row>
+    <row r="11" ht="75" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="str">
         <f>CONCATENATE("&lt;p&gt;",B12,"&lt;/p&gt;")</f>
         <v>&lt;p&gt;En Photoshop, el ajuste de lienzo y resolución son dos aspectos fundamentales para trabajar con imágenes y proyectos gráficos. . A continuación, se detalla cada uno de ellos:&lt;/p&gt;</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="8" t="str">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3" t="str">
         <f>IF(B13&lt;&gt;"",CONCATENATE("&lt;p&gt;",B13,"&lt;/p&gt;"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="str">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="str">
         <f>CONCATENATE("&lt;!-- ",B15," --&gt;")</f>
-        <v>&lt;!-- Cambiar la Resolución --&gt;</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="1"/>
-      <c r="C14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+        <v>&lt;!-- Conceptos Básicos de Capas --&gt;</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="4" t="str">
+      <c r="F16" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3" t="str">
         <f>CONCATENATE("id=",Comillas,B17,Comillas)</f>
-        <v>id="cambiarResolución"</v>
-      </c>
-      <c r="E15" s="4" t="str">
+        <v>id="conceptosBasicosDeCapas"</v>
+      </c>
+      <c r="F17" s="6" t="str">
         <f>CONCATENATE("&lt;a href=",Comillas,"#",B17,Comillas,"&gt;",B15,"&lt;/a&gt;")</f>
-        <v>&lt;a href="#cambiarResolución"&gt;Cambiar la Resolución&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="4" t="str">
+        <v>&lt;a href="#conceptosBasicosDeCapas"&gt;Conceptos Básicos de Capas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="6" t="str">
         <f>IF($B$15&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="4" t="str">
+    <row r="19" ht="30" spans="2:6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3" t="str">
         <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B15,"&lt;/h2&gt;")</f>
-        <v>&lt;h2 class="mt-1"&gt;Cambiar la Resolución&lt;/h2&gt;</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="str">
+        <v>&lt;h2 class="mt-1"&gt;Conceptos Básicos de Capas&lt;/h2&gt;</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="str">
         <f>IF(B$21&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1"/>
-      <c r="C18" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="4" t="str">
+    <row r="20" spans="2:6">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="6" t="str">
         <f>IF(B$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B23,Comillas,"&gt;",B21,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#cambiarTamañoImagen"&gt;Cambiar Tamaño de Imagen&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4" t="str">
+        <v>&lt;a href="#edicionDeCapas"&gt;Edición de Capas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;!-- ",B21," --&gt;"),"")</f>
-        <v>&lt;!-- Cambiar Tamaño de Imagen --&gt;</v>
-      </c>
-      <c r="E19" s="4" t="str">
+        <v>&lt;!-- Edición de Capas --&gt;</v>
+      </c>
+      <c r="F21" s="6" t="str">
         <f>IF($B$21&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1"/>
-      <c r="C20" s="9" t="str">
+    <row r="22" spans="2:6">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="7" t="str">
         <f>IF(B21&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="F22" s="6" t="str">
         <f>IF($B$27&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="4" t="str">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE("id=",Comillas,B23,Comillas),"")</f>
-        <v>id="cambiarTamañoImagen"</v>
-      </c>
-      <c r="E21" s="4" t="str">
+        <v>id="edicionDeCapas"</v>
+      </c>
+      <c r="F23" s="6" t="str">
         <f>IF($B$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B29,Comillas,"&gt;",B27,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#cambiarResolución2"&gt;Cambiar la Resolución&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4" t="str">
-        <f>IF(B21&lt;&gt;"",D27,"")</f>
+        <v>&lt;a href="#agregarUnaImagenaUnDisenoDeCapas"&gt;Agregar una Imagen a un Diseño de Capas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3" t="str">
+        <f>IF(B21&lt;&gt;"",E29,"")</f>
         <v>class="mt-5 pt-5 mb-n5"&gt;</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="F24" s="6" t="str">
         <f>IF($B$27&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="4" t="str">
+    <row r="25" spans="2:6">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B21,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Cambiar Tamaño de Imagen&lt;/h2&gt;</v>
-      </c>
-      <c r="E23" s="4" t="str">
+        <v>&lt;h2 class="mt-1"&gt;Edición de Capas&lt;/h2&gt;</v>
+      </c>
+      <c r="F25" s="6" t="str">
         <f>IF($B$33&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="1"/>
-      <c r="C24" s="9" t="str">
+    <row r="26" spans="2:6">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="7" t="str">
         <f>IF(B21&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="F26" s="6" t="str">
         <f>IF($B$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B35,Comillas,"&gt;",B33,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#expandirLienzo"&gt;Expandir el Lienzo&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4" t="str">
+        <v>&lt;a href="#agregarUnaImagenaUnDisenoDeCapas2"&gt;Agregar una Imagen a un Diseño de Capas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="27" ht="30" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;!-- ",B27," --&gt;"),"")</f>
-        <v>&lt;!-- Cambiar la Resolución --&gt;</v>
-      </c>
-      <c r="E25" s="4" t="str">
+        <v>&lt;!-- Agregar una Imagen a un Diseño de Capas --&gt;</v>
+      </c>
+      <c r="F27" s="6" t="str">
         <f>IF($B$33&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="1"/>
-      <c r="C26" s="9" t="str">
+    <row r="28" spans="2:6">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="7" t="str">
         <f>IF(B27&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="F28" s="6" t="str">
         <f>IF($B$39&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="4" t="str">
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE("id=",Comillas,B29,Comillas),"")</f>
-        <v>id="cambiarResolución2"</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="str">
+        <v>id="agregarUnaImagenaUnDisenoDeCapas"</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="6" t="str">
         <f>IF($B$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B41,Comillas,"&gt;",B39,"&lt;/a&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="1"/>
-      <c r="C28" s="4" t="str">
-        <f>IF(B27&lt;&gt;"",D33,"")</f>
+        <v>&lt;a href="#desbloquearCapas"&gt;Desbloquear Capas&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3" t="str">
+        <f>IF(B27&lt;&gt;"",E35,"")</f>
         <v>class="mt-5 pt-5 mb-n5"&gt;</v>
       </c>
-      <c r="E28" s="4" t="str">
+      <c r="F30" s="6" t="str">
         <f>IF($B$39&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="4" t="str">
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="31" ht="30" spans="2:6">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B27,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Cambiar la Resolución&lt;/h2&gt;</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="9" t="str">
+        <v>&lt;h2 class="mt-1"&gt;Agregar una Imagen a un Diseño de Capas&lt;/h2&gt;</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="7" t="str">
         <f>IF(B27&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="4" t="str">
+    <row r="33" ht="30" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;!-- ",B33," --&gt;"),"")</f>
-        <v>&lt;!-- Expandir el Lienzo --&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="1"/>
-      <c r="C32" s="9" t="str">
+        <v>&lt;!-- Agregar una Imagen a un Diseño de Capas --&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="7" t="str">
         <f>IF(B33&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3" t="str">
+        <f>IF(B33&lt;&gt;"",CONCATENATE("id=",Comillas,B35,Comillas),"")</f>
+        <v>id="agregarUnaImagenaUnDisenoDeCapas2"</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="4" t="str">
-        <f>IF(B33&lt;&gt;"",CONCATENATE("id=",Comillas,B35,Comillas),"")</f>
-        <v>id="expandirLienzo"</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="4" t="str">
-        <f>IF(B33&lt;&gt;"",D39,"")</f>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3" t="str">
+        <f>IF(B33&lt;&gt;"",E41,"")</f>
         <v>class="mt-5 pt-5 mb-n5"&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="4" t="str">
+    <row r="37" ht="30" spans="2:4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B33,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Expandir el Lienzo&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="9" t="str">
+        <v>&lt;h2 class="mt-1"&gt;Agregar una Imagen a un Diseño de Capas&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="7" t="str">
         <f>IF(B33&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="4" t="str">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;!-- ",B39," --&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="9" t="str">
+        <v>&lt;!-- Desbloquear Capas --&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="7" t="str">
         <f>IF(B39&lt;&gt;"","&lt;div","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4" t="str">
+        <v>&lt;div</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE("id=",Comillas,B41,Comillas),"")</f>
-        <v/>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="4" t="str">
-        <f>IF(B39&lt;&gt;"",D46,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="str">
+        <v>id="desbloquearCapas"</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="3" t="str">
+        <f>IF(B39&lt;&gt;"",E48,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="3" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B39,"&lt;/h2&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="9" t="str">
+        <v>&lt;h2 class="mt-1"&gt;Desbloquear Capas&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="7" t="str">
         <f>IF(B39&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="1" t="s">
+        <v>&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6">
+      <c r="D48" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B$1:C$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="116">
   <si>
     <t>Título</t>
   </si>
@@ -283,7 +283,7 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t>Trabajo con capas</t>
+    <t xml:space="preserve">Ajuste de Tono, Brillo y Saturación </t>
   </si>
   <si>
     <t/>
@@ -292,16 +292,13 @@
     <t>Parrafo 1</t>
   </si>
   <si>
-    <t>En Photoshop, el ajuste de lienzo y resolución son dos aspectos fundamentales para trabajar con imágenes y proyectos gráficos. . A continuación, se detalla cada uno de ellos:</t>
-  </si>
-  <si>
     <t>Parrafo 2</t>
   </si>
   <si>
     <t>Area de trabajo 1</t>
   </si>
   <si>
-    <t>Conceptos Básicos de Capas</t>
+    <t>Conceptos Básicos</t>
   </si>
   <si>
     <t>&lt;ul class="list-unstyled px-3"&gt;</t>
@@ -316,7 +313,7 @@
     <t>areaDeTrabajo1</t>
   </si>
   <si>
-    <t>conceptosBasicosDeCapas</t>
+    <t>conceptosBasicos</t>
   </si>
   <si>
     <t>    class="mt-5 pt-5"&gt;</t>
@@ -328,25 +325,25 @@
     <t>Area de trabajo 2</t>
   </si>
   <si>
-    <t>Edición de Capas</t>
+    <t>Ajustar Brillo y Contraste</t>
   </si>
   <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>edicionDeCapas</t>
+    <t>ajustarBrilloyContraste</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
   </si>
   <si>
-    <t>Agregar una Imagen a un Diseño de Capas</t>
+    <t>Ajuste de Vibrancia o Intensidad</t>
   </si>
   <si>
     <t>areaDeTrabajo3</t>
   </si>
   <si>
-    <t>agregarUnaImagenaUnDisenoDeCapas</t>
+    <t>ajusteVibranciaIntensidad</t>
   </si>
   <si>
     <t>class="mt-5 pt-5 mb-n5"&gt;</t>
@@ -358,25 +355,34 @@
     <t>Area de trabajo 4</t>
   </si>
   <si>
+    <t>Ajuste Tono y Saturación</t>
+  </si>
+  <si>
     <t>areaDeTrabajo4</t>
   </si>
   <si>
-    <t>agregarUnaImagenaUnDisenoDeCapas2</t>
+    <t>ajusteTonoSaturacion</t>
   </si>
   <si>
     <t>Area de trabajo 5</t>
   </si>
   <si>
-    <t>Desbloquear Capas</t>
+    <t>Capas de Ajuste</t>
   </si>
   <si>
     <t>areaDeTrabajo5</t>
   </si>
   <si>
-    <t>desbloquearCapas</t>
+    <t>capasAjuste</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -403,6 +409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -1108,7 +1120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1124,6 +1136,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1511,760 +1524,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11" style="14"/>
-    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11" style="14"/>
-    <col min="5" max="5" width="35" style="14" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="14"/>
-    <col min="16384" max="16384" width="11" style="15"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="20"/>
-      <c r="XFD4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="14"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="14"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="22" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="14"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="14"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="14"/>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="14"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="14"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="14"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="14"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="14"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="14"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="14"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="14"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="14"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="14"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="14"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="14"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="21" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="14"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="21" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="14"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="21" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="14"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="21" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="14"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="21" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="14"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="21" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="14"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="21" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="14"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="21" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="14"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="21" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="14"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="14"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="21" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="14"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="21" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="14"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="21" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="14"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="14"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="21" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="14"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="14"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="21" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="14"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="21" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="14"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="14"/>
+      <c r="XFD55" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2291,760 +2304,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11" style="14"/>
-    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11" style="14"/>
-    <col min="5" max="5" width="35" style="14" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="14"/>
-    <col min="16384" max="16384" width="11" style="15"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="20"/>
-      <c r="XFD4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="14"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="14"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="22" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="14"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="14"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="14"/>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="14"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="14"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="14"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="14"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="14"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="14"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="14"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="14"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="14"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="14"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="14"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="14"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="21" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="14"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="21" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="14"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="21" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="14"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="21" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="14"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="21" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="14"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="21" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="14"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="21" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="14"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="21" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="14"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="21" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="14"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="14"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="21" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="14"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="21" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
         <v>Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="14"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="21" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="14"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="14"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="21" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="14"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="14"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="21" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="14"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="21" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="14"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="14"/>
+      <c r="XFD55" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3073,757 +3086,757 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11" style="14"/>
-    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11" style="14"/>
-    <col min="5" max="5" width="35" style="14" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="14"/>
-    <col min="16384" max="16384" width="11" style="15"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="20"/>
-      <c r="XFD4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="14"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="14"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="22" t="str">
         <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="22" t="str">
         <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="14"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="22" t="str">
         <f>A12</f>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="14"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="22" t="str">
         <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="14"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="14"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="14"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="14"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="14"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="14"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="14"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="14"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="14"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="14"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="14"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="14"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="14"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="21" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="14"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="21" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="14"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="21" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="14"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="21" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="14"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="21" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="14"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="21" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="14"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="21" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="14"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="21" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="14"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="21" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="14"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="14"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="21" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="14"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="21" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
         <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="14"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="21" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="14"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="14"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="21" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="14"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="14"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="21" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="14"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="21" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="14"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="14"/>
+      <c r="XFD55" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3852,754 +3865,754 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11" style="14"/>
-    <col min="3" max="3" width="139.991666666667" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11" style="14"/>
-    <col min="5" max="5" width="35" style="14" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="14"/>
-    <col min="16384" max="16384" width="11" style="15"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="20"/>
-      <c r="XFD4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="14"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="14"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="22" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="14"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="14"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="14"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="14"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="14"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="14"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="14"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="14"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="14"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="14"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="14"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="14"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="14"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="14"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="14"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="21" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="14"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="21" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="14"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="21" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="14"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="21" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="14"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="21" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="14"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="21" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="14"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="21" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="14"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="21" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="14"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="21" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="14"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="14"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="21" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="14"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="21" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
         <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="14"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="21" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="14"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="14"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="21" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="14"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="14"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="21" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="14"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="21" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="14"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4623,7 +4636,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4638,8 +4651,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -4718,23 +4731,20 @@
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="str">
         <f>CONCATENATE("&lt;h1&gt;",B11,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Trabajo con capas&lt;/h1&gt;</v>
-      </c>
-    </row>
-    <row r="11" ht="75" spans="1:5">
+        <v>&lt;h1&gt;Ajuste de Tono, Brillo y Saturación &lt;/h1&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="3" t="str">
-        <f>CONCATENATE("&lt;p&gt;",B12,"&lt;/p&gt;")</f>
-        <v>&lt;p&gt;En Photoshop, el ajuste de lienzo y resolución son dos aspectos fundamentales para trabajar con imágenes y proyectos gráficos. . A continuación, se detalla cada uno de ellos:&lt;/p&gt;</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4743,19 +4753,17 @@
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4769,52 +4777,52 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="str">
         <f>CONCATENATE("&lt;!-- ",B15," --&gt;")</f>
-        <v>&lt;!-- Conceptos Básicos de Capas --&gt;</v>
+        <v>&lt;!-- Conceptos Básicos --&gt;</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="str">
         <f>CONCATENATE("id=",Comillas,B17,Comillas)</f>
-        <v>id="conceptosBasicosDeCapas"</v>
+        <v>id="conceptosBasicos"</v>
       </c>
       <c r="F17" s="6" t="str">
         <f>CONCATENATE("&lt;a href=",Comillas,"#",B17,Comillas,"&gt;",B15,"&lt;/a&gt;")</f>
-        <v>&lt;a href="#conceptosBasicosDeCapas"&gt;Conceptos Básicos de Capas&lt;/a&gt;</v>
+        <v>&lt;a href="#conceptosBasicos"&gt;Conceptos Básicos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="6" t="str">
         <f>IF($B$15&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -4826,7 +4834,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="str">
         <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B15,"&lt;/h2&gt;")</f>
-        <v>&lt;h2 class="mt-1"&gt;Conceptos Básicos de Capas&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Conceptos Básicos&lt;/h2&gt;</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="str">
@@ -4838,24 +4846,24 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6" t="str">
         <f>IF(B$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B23,Comillas,"&gt;",B21,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#edicionDeCapas"&gt;Edición de Capas&lt;/a&gt;</v>
+        <v>&lt;a href="#ajustarBrilloyContraste"&gt;Ajustar Brillo y Contraste&lt;/a&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="3" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;!-- ",B21," --&gt;"),"")</f>
-        <v>&lt;!-- Edición de Capas --&gt;</v>
+        <v>&lt;!-- Ajustar Brillo y Contraste --&gt;</v>
       </c>
       <c r="F21" s="6" t="str">
         <f>IF($B$21&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -4874,21 +4882,21 @@
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" ht="30" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE("id=",Comillas,B23,Comillas),"")</f>
-        <v>id="edicionDeCapas"</v>
+        <v>id="ajustarBrilloyContraste"</v>
       </c>
       <c r="F23" s="6" t="str">
         <f>IF($B$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B29,Comillas,"&gt;",B27,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#agregarUnaImagenaUnDisenoDeCapas"&gt;Agregar una Imagen a un Diseño de Capas&lt;/a&gt;</v>
+        <v>&lt;a href="#ajusteVibranciaIntensidad"&gt;Ajuste de Vibrancia o Intensidad&lt;/a&gt;</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -4908,14 +4916,14 @@
       <c r="C25" s="1"/>
       <c r="D25" s="3" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B21,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Edición de Capas&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Ajustar Brillo y Contraste&lt;/h2&gt;</v>
       </c>
       <c r="F25" s="6" t="str">
         <f>IF($B$33&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" ht="30" spans="2:6">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="7" t="str">
@@ -4924,20 +4932,20 @@
       </c>
       <c r="F26" s="6" t="str">
         <f>IF($B$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B35,Comillas,"&gt;",B33,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#agregarUnaImagenaUnDisenoDeCapas2"&gt;Agregar una Imagen a un Diseño de Capas&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="27" ht="30" spans="1:6">
+        <v>&lt;a href="#ajusteTonoSaturacion"&gt;Ajuste Tono y Saturación&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="3" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;!-- ",B27," --&gt;"),"")</f>
-        <v>&lt;!-- Agregar una Imagen a un Diseño de Capas --&gt;</v>
+        <v>&lt;!-- Ajuste de Vibrancia o Intensidad --&gt;</v>
       </c>
       <c r="F27" s="6" t="str">
         <f>IF($B$33&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -4958,22 +4966,22 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="3" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE("id=",Comillas,B29,Comillas),"")</f>
-        <v>id="agregarUnaImagenaUnDisenoDeCapas"</v>
+        <v>id="ajusteVibranciaIntensidad"</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="6" t="str">
         <f>IF($B$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B41,Comillas,"&gt;",B39,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#desbloquearCapas"&gt;Desbloquear Capas&lt;/a&gt;</v>
+        <v>&lt;a href="#capasAjuste"&gt;Capas de Ajuste&lt;/a&gt;</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -4993,10 +5001,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="3" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B27,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Agregar una Imagen a un Diseño de Capas&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Ajuste de Vibrancia o Intensidad&lt;/h2&gt;</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -5007,17 +5015,17 @@
         <v>&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="33" ht="30" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="9" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;!-- ",B33," --&gt;"),"")</f>
-        <v>&lt;!-- Agregar una Imagen a un Diseño de Capas --&gt;</v>
+        <v>&lt;!-- Ajuste Tono y Saturación --&gt;</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -5041,10 +5049,10 @@
       <c r="C35" s="5"/>
       <c r="D35" s="3" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE("id=",Comillas,B35,Comillas),"")</f>
-        <v>id="agregarUnaImagenaUnDisenoDeCapas2"</v>
+        <v>id="ajusteTonoSaturacion"</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>2</v>
@@ -5058,12 +5066,12 @@
         <v>class="mt-5 pt-5 mb-n5"&gt;</v>
       </c>
     </row>
-    <row r="37" ht="30" spans="2:4">
+    <row r="37" spans="2:4">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="3" t="str">
+      <c r="D37" s="9" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B33,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Agregar una Imagen a un Diseño de Capas&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Ajuste Tono y Saturación&lt;/h2&gt;</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -5084,7 +5092,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="3" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;!-- ",B39," --&gt;"),"")</f>
-        <v>&lt;!-- Desbloquear Capas --&gt;</v>
+        <v>&lt;!-- Capas de Ajuste --&gt;</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -5105,10 +5113,10 @@
       <c r="C41" s="5"/>
       <c r="D41" s="3" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE("id=",Comillas,B41,Comillas),"")</f>
-        <v>id="desbloquearCapas"</v>
+        <v>id="capasAjuste"</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2</v>
@@ -5123,7 +5131,7 @@
     <row r="43" spans="4:4">
       <c r="D43" s="3" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B39,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Desbloquear Capas&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Capas de Ajuste&lt;/h2&gt;</v>
       </c>
     </row>
     <row r="44" spans="4:4">
@@ -5133,26 +5141,26 @@
       </c>
     </row>
     <row r="45" spans="4:4">
-      <c r="D45" s="9" t="s">
-        <v>95</v>
+      <c r="D45" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="4:6">
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>2</v>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -15,7 +15,7 @@
     <sheet name="plantilla" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Comillas">plantilla!$E$1</definedName>
+    <definedName name="Comillas">plantilla!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="115">
   <si>
     <t>Título</t>
   </si>
@@ -223,13 +223,13 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html</t>
-  </si>
-  <si>
-    <t>Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop.</t>
+    <t>Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html</t>
+  </si>
+  <si>
+    <t>Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico.</t>
   </si>
   <si>
     <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
@@ -283,7 +283,7 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajuste de Tono, Brillo y Saturación </t>
+    <t>Agregar y quitar objetos</t>
   </si>
   <si>
     <t/>
@@ -292,13 +292,16 @@
     <t>Parrafo 1</t>
   </si>
   <si>
+    <t>Agregar y quitar objetos en Photoshop se refiere al proceso de modificar una imagen digital añadiendo nuevos elementos o eliminando elementos existentes. Es una técnica esencial en el diseño gráfico, la fotografía y el diseño web.</t>
+  </si>
+  <si>
     <t>Parrafo 2</t>
   </si>
   <si>
     <t>Area de trabajo 1</t>
   </si>
   <si>
-    <t>Conceptos Básicos</t>
+    <t>Agregar Objetos Mediante Clonación</t>
   </si>
   <si>
     <t>&lt;ul class="list-unstyled px-3"&gt;</t>
@@ -313,7 +316,7 @@
     <t>areaDeTrabajo1</t>
   </si>
   <si>
-    <t>conceptosBasicos</t>
+    <t>agregarObjetosMedianteClonacion</t>
   </si>
   <si>
     <t>    class="mt-5 pt-5"&gt;</t>
@@ -325,25 +328,25 @@
     <t>Area de trabajo 2</t>
   </si>
   <si>
-    <t>Ajustar Brillo y Contraste</t>
+    <t>Eliminar Objetos Peqeños</t>
   </si>
   <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>ajustarBrilloyContraste</t>
+    <t>eliminarObjetosPeqeños</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
   </si>
   <si>
-    <t>Ajuste de Vibrancia o Intensidad</t>
+    <t>Quitar Objetos</t>
   </si>
   <si>
     <t>areaDeTrabajo3</t>
   </si>
   <si>
-    <t>ajusteVibranciaIntensidad</t>
+    <t>quitarObjetos</t>
   </si>
   <si>
     <t>class="mt-5 pt-5 mb-n5"&gt;</t>
@@ -355,25 +358,19 @@
     <t>Area de trabajo 4</t>
   </si>
   <si>
-    <t>Ajuste Tono y Saturación</t>
+    <t>Herramienta Parche (Patch Tool)</t>
   </si>
   <si>
     <t>areaDeTrabajo4</t>
   </si>
   <si>
-    <t>ajusteTonoSaturacion</t>
+    <t>MejorasOpcionesSeleccion</t>
   </si>
   <si>
     <t>Area de trabajo 5</t>
   </si>
   <si>
-    <t>Capas de Ajuste</t>
-  </si>
-  <si>
     <t>areaDeTrabajo5</t>
-  </si>
-  <si>
-    <t>capasAjuste</t>
   </si>
   <si>
     <r>
@@ -1120,14 +1117,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1135,8 +1135,6 @@
     <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1158,8 +1156,12 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1524,760 +1526,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="15"/>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="15"/>
+      <c r="XFD55" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2295,773 +2297,773 @@
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
-    </row>
-    <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="2:16384">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+        <v>&lt;meta name="description" content="Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico." /&gt;</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="15"/>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" /&gt;</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+        <v>&lt;meta property="og:title" content="Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+        <v>&lt;meta property="og:description" content="Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico." /&gt;</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" /&gt;</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" /&gt;</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+        <v>&lt;meta name="twitter:title" content="Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Se explica cómo son la interfaz y el área de trabajo en Adobe Photoshop." /&gt;</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+        <v>&lt;meta name="twitter:description" content="Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico." /&gt;</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
-        <v>Interfaz y Área de Trabajo en  Photoshop - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+        <v>Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="15"/>
+      <c r="XFD55" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html" tooltip="https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" tooltip="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3086,757 +3088,757 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f>A12</f>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="15"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
         <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="15"/>
+      <c r="XFD55" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3865,754 +3867,754 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="15"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
         <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4636,7 +4638,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4649,527 +4651,711 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="0.325" style="1" customWidth="1"/>
-    <col min="6" max="6" width="94.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="0.158333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="0.325" style="2" customWidth="1"/>
+    <col min="7" max="7" width="94.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+    <row r="2" spans="3:4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+    <row r="4" spans="3:4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="3:5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3" t="str">
-        <f>CONCATENATE("&lt;h1&gt;",B11,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Ajuste de Tono, Brillo y Saturación &lt;/h1&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="3:5">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",C11,"&lt;/h1&gt;")</f>
+        <v>&lt;h1&gt;Agregar y quitar objetos&lt;/h1&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="25" t="s">
+      <c r="E12" s="7" t="str">
+        <f>IF(C12&lt;&gt;"",C12,"")</f>
+        <v>Agregar y quitar objetos en Photoshop se refiere al proceso de modificar una imagen digital añadiendo nuevos elementos o eliminando elementos existentes. Es una técnica esencial en el diseño gráfico, la fotografía y el diseño web.</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="str">
-        <f>IF(B13&lt;&gt;"",CONCATENATE("&lt;p&gt;",B13,"&lt;/p&gt;"),"")</f>
+      <c r="E13" s="4" t="str">
+        <f>IF(C13&lt;&gt;"",C13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4" t="str">
+        <f>IF(C13&lt;&gt;"",CONCATENATE("&lt;p&gt;",C13,"&lt;/p&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="str">
-        <f>CONCATENATE("&lt;!-- ",B15," --&gt;")</f>
-        <v>&lt;!-- Conceptos Básicos --&gt;</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="7" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="4" t="str">
+        <f>CONCATENATE("&lt;!-- ",C15," --&gt;")</f>
+        <v>&lt;!-- Agregar Objetos Mediante Clonación --&gt;</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="6" t="s">
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3" t="str">
-        <f>CONCATENATE("id=",Comillas,B17,Comillas)</f>
-        <v>id="conceptosBasicos"</v>
-      </c>
-      <c r="F17" s="6" t="str">
-        <f>CONCATENATE("&lt;a href=",Comillas,"#",B17,Comillas,"&gt;",B15,"&lt;/a&gt;")</f>
-        <v>&lt;a href="#conceptosBasicos"&gt;Conceptos Básicos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="6" t="str">
-        <f>IF($B$15&lt;&gt;"","&lt;/li&gt;","")</f>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4" t="str">
+        <f>CONCATENATE("id=",Comillas,C17,Comillas)</f>
+        <v>id="agregarObjetosMedianteClonacion"</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>CONCATENATE("&lt;a href=",Comillas,"#",C17,Comillas,"&gt;",C15,"&lt;/a&gt;")</f>
+        <v>&lt;a href="#agregarObjetosMedianteClonacion"&gt;Agregar Objetos Mediante Clonación&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f>IF($C$15&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="2:6">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3" t="str">
-        <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B15,"&lt;/h2&gt;")</f>
-        <v>&lt;h2 class="mt-1"&gt;Conceptos Básicos&lt;/h2&gt;</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="str">
-        <f>IF(B$21&lt;&gt;"","&lt;li&gt;","")</f>
+    <row r="19" ht="30" spans="2:7">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4" t="str">
+        <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C15,"&lt;/h2&gt;")</f>
+        <v>&lt;h2 class="mt-1"&gt;Agregar Objetos Mediante Clonación&lt;/h2&gt;</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="str">
+        <f>IF(C$21&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="6" t="str">
-        <f>IF(B$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B23,Comillas,"&gt;",B21,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#ajustarBrilloyContraste"&gt;Ajustar Brillo y Contraste&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="G20" s="9" t="str">
+        <f>IF(C$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C23,Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#eliminarObjetosPeqeños"&gt;Eliminar Objetos Peqeños&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="str">
-        <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;!-- ",B21," --&gt;"),"")</f>
-        <v>&lt;!-- Ajustar Brillo y Contraste --&gt;</v>
-      </c>
-      <c r="F21" s="6" t="str">
-        <f>IF($B$21&lt;&gt;"","&lt;/li&gt;","")</f>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;!-- ",C21," --&gt;"),"")</f>
+        <v>&lt;!-- Eliminar Objetos Peqeños --&gt;</v>
+      </c>
+      <c r="G21" s="9" t="str">
+        <f>IF($C$21&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="7" t="str">
-        <f>IF(B21&lt;&gt;"","&lt;div","")</f>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="10" t="str">
+        <f>IF(C21&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="F22" s="6" t="str">
-        <f>IF($B$27&lt;&gt;"","&lt;li&gt;","")</f>
+      <c r="G22" s="9" t="str">
+        <f>IF($C$27&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3" t="str">
-        <f>IF(B21&lt;&gt;"",CONCATENATE("id=",Comillas,B23,Comillas),"")</f>
-        <v>id="ajustarBrilloyContraste"</v>
-      </c>
-      <c r="F23" s="6" t="str">
-        <f>IF($B$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B29,Comillas,"&gt;",B27,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#ajusteVibranciaIntensidad"&gt;Ajuste de Vibrancia o Intensidad&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3" t="str">
-        <f>IF(B21&lt;&gt;"",E29,"")</f>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("id=",Comillas,C23,Comillas),"")</f>
+        <v>id="eliminarObjetosPeqeños"</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f>IF($C$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C29,Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#quitarObjetos"&gt;Quitar Objetos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",F29,"")</f>
         <v>class="mt-5 pt-5 mb-n5"&gt;</v>
       </c>
-      <c r="F24" s="6" t="str">
-        <f>IF($B$27&lt;&gt;"","&lt;/li&gt;","")</f>
+      <c r="G24" s="9" t="str">
+        <f>IF($C$27&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3" t="str">
-        <f>IF(B21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B21,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Ajustar Brillo y Contraste&lt;/h2&gt;</v>
-      </c>
-      <c r="F25" s="6" t="str">
-        <f>IF($B$33&lt;&gt;"","&lt;li&gt;","")</f>
+    <row r="25" ht="30" spans="2:7">
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C21,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Eliminar Objetos Peqeños&lt;/h2&gt;</v>
+      </c>
+      <c r="G25" s="9" t="str">
+        <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="26" ht="30" spans="2:6">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="7" t="str">
-        <f>IF(B21&lt;&gt;"","&lt;/div&gt;","")</f>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="10" t="str">
+        <f>IF(C21&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-      <c r="F26" s="6" t="str">
-        <f>IF($B$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B35,Comillas,"&gt;",B33,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#ajusteTonoSaturacion"&gt;Ajuste Tono y Saturación&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="G26" s="9" t="str">
+        <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C35,Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#MejorasOpcionesSeleccion"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3" t="str">
-        <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;!-- ",B27," --&gt;"),"")</f>
-        <v>&lt;!-- Ajuste de Vibrancia o Intensidad --&gt;</v>
-      </c>
-      <c r="F27" s="6" t="str">
-        <f>IF($B$33&lt;&gt;"","&lt;/li&gt;","")</f>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;!-- ",C27," --&gt;"),"")</f>
+        <v>&lt;!-- Quitar Objetos --&gt;</v>
+      </c>
+      <c r="G27" s="9" t="str">
+        <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="7" t="str">
-        <f>IF(B27&lt;&gt;"","&lt;div","")</f>
+    <row r="28" spans="2:7">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="10" t="str">
+        <f>IF(C27&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="F28" s="6" t="str">
-        <f>IF($B$39&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="G28" s="9" t="str">
+        <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3" t="str">
-        <f>IF(B27&lt;&gt;"",CONCATENATE("id=",Comillas,B29,Comillas),"")</f>
-        <v>id="ajusteVibranciaIntensidad"</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="6" t="str">
-        <f>IF($B$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",B41,Comillas,"&gt;",B39,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#capasAjuste"&gt;Capas de Ajuste&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3" t="str">
-        <f>IF(B27&lt;&gt;"",E35,"")</f>
+      <c r="D29" s="8"/>
+      <c r="E29" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("id=",Comillas,C29,Comillas),"")</f>
+        <v>id="quitarObjetos"</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C41,Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",F35,"")</f>
         <v>class="mt-5 pt-5 mb-n5"&gt;</v>
       </c>
-      <c r="F30" s="6" t="str">
-        <f>IF($B$39&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="31" ht="30" spans="2:6">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="3" t="str">
-        <f>IF(B27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B27,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Ajuste de Vibrancia o Intensidad&lt;/h2&gt;</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="G30" s="9" t="str">
+        <f>IF($C$39&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C27,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Quitar Objetos&lt;/h2&gt;</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="10" t="str">
+        <f>IF(C27&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;!-- ",C33," --&gt;"),"")</f>
+        <v>&lt;!-- Herramienta Parche (Patch Tool) --&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="10" t="str">
+        <f>IF(C33&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="4" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("id=",Comillas,C35,Comillas),"")</f>
+        <v>id="MejorasOpcionesSeleccion"</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="7" t="str">
-        <f>IF(B27&lt;&gt;"","&lt;/div&gt;","")</f>
+      <c r="G35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4" t="str">
+        <f>IF(C33&lt;&gt;"",F41,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="7" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C33,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Herramienta Parche (Patch Tool)&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="10" t="str">
+        <f>IF(C33&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="9" t="str">
-        <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;!-- ",B33," --&gt;"),"")</f>
-        <v>&lt;!-- Ajuste Tono y Saturación --&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="7" t="str">
-        <f>IF(B33&lt;&gt;"","&lt;div","")</f>
-        <v>&lt;div</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3" t="str">
-        <f>IF(B33&lt;&gt;"",CONCATENATE("id=",Comillas,B35,Comillas),"")</f>
-        <v>id="ajusteTonoSaturacion"</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3" t="str">
-        <f>IF(B33&lt;&gt;"",E41,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="9" t="str">
-        <f>IF(B33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B33,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Ajuste Tono y Saturación&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="7" t="str">
-        <f>IF(B33&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3" t="str">
-        <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;!-- ",B39," --&gt;"),"")</f>
-        <v>&lt;!-- Capas de Ajuste --&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="7" t="str">
-        <f>IF(B39&lt;&gt;"","&lt;div","")</f>
-        <v>&lt;div</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;!-- ",C39," --&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="10" t="str">
+        <f>IF(C39&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("id=",Comillas,C41,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",F48,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C39,"&lt;/h2&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10" t="str">
+        <f>IF(C39&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3" t="str">
-        <f>IF(B39&lt;&gt;"",CONCATENATE("id=",Comillas,B41,Comillas),"")</f>
-        <v>id="capasAjuste"</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="3" t="str">
-        <f>IF(B39&lt;&gt;"",E48,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="3" t="str">
-        <f>IF(B39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",B39,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Capas de Ajuste&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="7" t="str">
-        <f>IF(B39&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="11" t="s">
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="12" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="48" spans="4:6">
-      <c r="D48" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="F48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B$1:C$1048576">
+  <conditionalFormatting sqref="C$1:D$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" location="HerramientaMarcoRectangular" display="Agregar Objetos Mediante Clonación"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12450" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -13,9 +13,11 @@
     <sheet name="GittTABLE" sheetId="3" r:id="rId4"/>
     <sheet name="script" sheetId="8" r:id="rId5"/>
     <sheet name="plantilla" sheetId="9" r:id="rId6"/>
+    <sheet name="plantilla (2)" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Comillas">plantilla!$F$1</definedName>
+    <definedName name="Comillas" localSheetId="6">'plantilla (2)'!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="116">
   <si>
     <t>Título</t>
   </si>
@@ -223,13 +225,13 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html</t>
-  </si>
-  <si>
-    <t>Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico.</t>
+    <t>Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html</t>
+  </si>
+  <si>
+    <t>En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen.</t>
   </si>
   <si>
     <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
@@ -432,6 +434,9 @@
       </rPr>
       <t>&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>Herrmientas de Selección</t>
   </si>
 </sst>
 </file>
@@ -2296,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2417,7 +2422,7 @@
       </c>
       <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico." /&gt;</v>
+        <v>&lt;meta name="description" content="En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen." /&gt;</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
@@ -2496,7 +2501,7 @@
       </c>
       <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" /&gt;</v>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html" /&gt;</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
@@ -2565,7 +2570,7 @@
       </c>
       <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta property="og:title" content="Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
@@ -2582,7 +2587,7 @@
       </c>
       <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico." /&gt;</v>
+        <v>&lt;meta property="og:description" content="En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen." /&gt;</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23" t="s">
@@ -2627,7 +2632,7 @@
       </c>
       <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" /&gt;</v>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html" /&gt;</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23" t="s">
@@ -2724,7 +2729,7 @@
       </c>
       <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta name="twitter:title" content="Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23" t="s">
@@ -2741,7 +2746,7 @@
       </c>
       <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Aprende a trabajar con capas en Photoshop de manera eficiente. Guía paso a paso para la creación, organización y edición de capas, logrando resultados profesionales en tus proyectos de diseño gráfico." /&gt;</v>
+        <v>&lt;meta name="twitter:description" content="En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen." /&gt;</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23" t="s">
@@ -2974,7 +2979,7 @@
       </c>
       <c r="B48" s="23" t="str">
         <f>C1</f>
-        <v>Trabajo con capas en Photoshop - Ing. Eduardo Herrera Forero.</v>
+        <v>Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23" t="s">
@@ -3063,7 +3068,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" tooltip="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html" tooltip="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4653,7 +4658,7 @@
   <sheetPr/>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -5359,4 +5364,717 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="0.158333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="0.158333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="0.325" style="2" customWidth="1"/>
+    <col min="7" max="7" width="94.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="str">
+        <f>CONCATENATE("&lt;h1&gt;",C11,"&lt;/h1&gt;")</f>
+        <v>&lt;h1&gt;Herrmientas de Selección&lt;/h1&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>IF(C12&lt;&gt;"",C12,"")</f>
+        <v>Agregar y quitar objetos en Photoshop se refiere al proceso de modificar una imagen digital añadiendo nuevos elementos o eliminando elementos existentes. Es una técnica esencial en el diseño gráfico, la fotografía y el diseño web.</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>IF(C13&lt;&gt;"",C13,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4" t="str">
+        <f>IF(C13&lt;&gt;"",CONCATENATE("&lt;p&gt;",C13,"&lt;/p&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4" t="str">
+        <f>CONCATENATE("&lt;!-- ",C15," --&gt;")</f>
+        <v>&lt;!-- Agregar Objetos Mediante Clonación --&gt;</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4" t="str">
+        <f>CONCATENATE("id=",'plantilla (2)'!Comillas,C17,'plantilla (2)'!Comillas)</f>
+        <v>id="agregarObjetosMedianteClonacion"</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C17,'plantilla (2)'!Comillas,"&gt;",C15,"&lt;/a&gt;")</f>
+        <v>&lt;a href="#agregarObjetosMedianteClonacion"&gt;Agregar Objetos Mediante Clonación&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f>IF($C$15&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="2:7">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4" t="str">
+        <f>CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C15,"&lt;/h2&gt;")</f>
+        <v>&lt;h2 class="mt-1"&gt;Agregar Objetos Mediante Clonación&lt;/h2&gt;</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="str">
+        <f>IF(C$21&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="9" t="str">
+        <f>IF(C$21&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C23,'plantilla (2)'!Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#eliminarObjetosPeqeños"&gt;Eliminar Objetos Peqeños&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;!-- ",C21," --&gt;"),"")</f>
+        <v>&lt;!-- Eliminar Objetos Peqeños --&gt;</v>
+      </c>
+      <c r="G21" s="9" t="str">
+        <f>IF($C$21&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="10" t="str">
+        <f>IF(C21&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f>IF($C$27&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C23,'plantilla (2)'!Comillas),"")</f>
+        <v>id="eliminarObjetosPeqeños"</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f>IF($C$27&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C29,'plantilla (2)'!Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#quitarObjetos"&gt;Quitar Objetos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",F29,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+      <c r="G24" s="9" t="str">
+        <f>IF($C$27&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="2:7">
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C21,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Eliminar Objetos Peqeños&lt;/h2&gt;</v>
+      </c>
+      <c r="G25" s="9" t="str">
+        <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="10" t="str">
+        <f>IF(C21&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C35,'plantilla (2)'!Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#MejorasOpcionesSeleccion"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;!-- ",C27," --&gt;"),"")</f>
+        <v>&lt;!-- Quitar Objetos --&gt;</v>
+      </c>
+      <c r="G27" s="9" t="str">
+        <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="10" t="str">
+        <f>IF(C27&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
+      </c>
+      <c r="G28" s="9" t="str">
+        <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C29,'plantilla (2)'!Comillas),"")</f>
+        <v>id="quitarObjetos"</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C41,'plantilla (2)'!Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",F35,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+      <c r="G30" s="9" t="str">
+        <f>IF($C$39&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C27,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Quitar Objetos&lt;/h2&gt;</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="10" t="str">
+        <f>IF(C27&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;!-- ",C33," --&gt;"),"")</f>
+        <v>&lt;!-- Herramienta Parche (Patch Tool) --&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="10" t="str">
+        <f>IF(C33&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="4" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C35,'plantilla (2)'!Comillas),"")</f>
+        <v>id="MejorasOpcionesSeleccion"</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4" t="str">
+        <f>IF(C33&lt;&gt;"",F41,"")</f>
+        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="7" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C33,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Herramienta Parche (Patch Tool)&lt;/h2&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="10" t="str">
+        <f>IF(C33&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;!-- ",C39," --&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="10" t="str">
+        <f>IF(C39&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C41,'plantilla (2)'!Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",F48,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C39,"&lt;/h2&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10" t="str">
+        <f>IF(C39&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C$1:D$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" location="HerramientaMarcoRectangular" display="Agregar Objetos Mediante Clonación"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="27930" windowHeight="12900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -13,11 +13,10 @@
     <sheet name="GittTABLE" sheetId="3" r:id="rId4"/>
     <sheet name="script" sheetId="8" r:id="rId5"/>
     <sheet name="plantilla" sheetId="9" r:id="rId6"/>
-    <sheet name="plantilla (2)" sheetId="10" r:id="rId7"/>
+    <sheet name="Estructura tools ps" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Comillas">plantilla!$F$1</definedName>
-    <definedName name="Comillas" localSheetId="6">'plantilla (2)'!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="134">
   <si>
     <t>Título</t>
   </si>
@@ -225,13 +224,13 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html</t>
-  </si>
-  <si>
-    <t>En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen.</t>
+    <t>Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html</t>
+  </si>
+  <si>
+    <t>La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área.</t>
   </si>
   <si>
     <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
@@ -267,19 +266,78 @@
     <t>Plantilla Cuerpo</t>
   </si>
   <si>
-    <t>Plantilla Aside</t>
-  </si>
-  <si>
-    <t>&lt;main class="col-lg-8 col"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!-- Principal  --&gt;</t>
-  </si>
-  <si>
-    <t>&lt;article class="row pb-3" id="principal"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="mb-n5"&gt;</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"row col"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;main class="pt-5 col-lg-9"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;article class="row border-1 border-bottom pb-3"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;</t>
   </si>
   <si>
     <t>titulo 1</t>
@@ -306,22 +364,16 @@
     <t>Agregar Objetos Mediante Clonación</t>
   </si>
   <si>
-    <t>&lt;ul class="list-unstyled px-3"&gt;</t>
-  </si>
-  <si>
     <t>&lt;div</t>
   </si>
   <si>
-    <t>&lt;li&gt;</t>
-  </si>
-  <si>
     <t>areaDeTrabajo1</t>
   </si>
   <si>
     <t>agregarObjetosMedianteClonacion</t>
   </si>
   <si>
-    <t>    class="mt-5 pt-5"&gt;</t>
+    <t>class="mt-5 pt-5"&gt;</t>
   </si>
   <si>
     <t>&lt;/div&gt;</t>
@@ -330,13 +382,13 @@
     <t>Area de trabajo 2</t>
   </si>
   <si>
-    <t>Eliminar Objetos Peqeños</t>
+    <t>Eliminar Objetos Pequeños</t>
   </si>
   <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>eliminarObjetosPeqeños</t>
+    <t>eliminarObjetosPequeños</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
@@ -351,10 +403,7 @@
     <t>quitarObjetos</t>
   </si>
   <si>
-    <t>class="mt-5 pt-5 mb-n5"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/ul&gt;</t>
+    <t>class="mt-5 pt-5 "&gt;</t>
   </si>
   <si>
     <t>Area de trabajo 4</t>
@@ -404,9 +453,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;!-- fin Principal  --&gt;</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -436,7 +482,252 @@
     </r>
   </si>
   <si>
-    <t>Herrmientas de Selección</t>
+    <t>&lt;!-- -------------------------------- fin principal -------------------------------- --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- -------------------------------- barra lateral -------------------------------- --&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"col-lg-3 d-none d-lg-block pt-5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Índice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ul class="list-unstyled px-3"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;!-- -------------------------------- fin barra lateral -------------------------------- --&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Cómo usar la herramienta Parche:</t>
+  </si>
+  <si>
+    <t>1. Selecciona la herramienta Parche en la caja de herramientas de Photoshop.</t>
+  </si>
+  <si>
+    <t>2. Decide si quieres usar la opción "Parche" o "Parche de contenido":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Parche: Toma la selección y la reemplaza por una textura tomada de otra parte de la imagen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Parche de contenido: Analiza el contenido y la textura de la selección y la reemplaza con una sección que se ajuste mejor.</t>
+  </si>
+  <si>
+    <t>3. Dibuja un área de selección alrededor de la región que quieres reparar.</t>
+  </si>
+  <si>
+    <t>4. Arrastra la selección hacia el área que quieres usar como reemplazo. Photoshop analizará la textura y el contenido y hará una sustitución coherente.</t>
+  </si>
+  <si>
+    <t>5. Ajusta la selección según sea necesario para obtener un resultado natural.</t>
+  </si>
+  <si>
+    <t>6. Repite el proceso en otras áreas que necesiten reparación.</t>
+  </si>
+  <si>
+    <t>Consejos útiles:</t>
+  </si>
+  <si>
+    <t>- Usa la herramienta Parche de contenido para reparaciones más complejas, como reemplazar caras o elementos más estructurales.</t>
+  </si>
+  <si>
+    <t>- Aumenta o disminuye el tamaño de la herramienta para ajustarse a diferentes áreas.</t>
+  </si>
+  <si>
+    <t>- Combina la herramienta Parche con otras herramientas de edición, como el clon, para obtener mejores resultados.</t>
+  </si>
+  <si>
+    <t>- Trabaja en una capa separada para mantener la edición no destructiva.</t>
   </si>
 </sst>
 </file>
@@ -450,7 +741,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +752,12 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -477,9 +774,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10.5"/>
       <color rgb="FF6A9955"/>
-      <name val="Verdana"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -636,6 +939,24 @@
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -992,182 +1313,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2302,7 +2610,7 @@
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2422,7 +2730,7 @@
       </c>
       <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen." /&gt;</v>
+        <v>&lt;meta name="description" content="La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área." /&gt;</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
@@ -2501,7 +2809,7 @@
       </c>
       <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html" /&gt;</v>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html" /&gt;</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
@@ -2570,7 +2878,7 @@
       </c>
       <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta property="og:title" content="Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
@@ -2587,7 +2895,7 @@
       </c>
       <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen." /&gt;</v>
+        <v>&lt;meta property="og:description" content="La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área." /&gt;</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23" t="s">
@@ -2632,7 +2940,7 @@
       </c>
       <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html" /&gt;</v>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html" /&gt;</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23" t="s">
@@ -2729,7 +3037,7 @@
       </c>
       <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta name="twitter:title" content="Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23" t="s">
@@ -2746,7 +3054,7 @@
       </c>
       <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="En Photoshop, las herramientas de selección son fundamentales para editar partes específicas de una imagen." /&gt;</v>
+        <v>&lt;meta name="twitter:description" content="La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área." /&gt;</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23" t="s">
@@ -2979,7 +3287,7 @@
       </c>
       <c r="B48" s="23" t="str">
         <f>C1</f>
-        <v>Herramientas de Selección en Photoshop - Ing. Eduardo Herrera Forero.</v>
+        <v>Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23" t="s">
@@ -3068,7 +3376,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html" tooltip="https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html" tooltip="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4656,10 +4964,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4668,8 +4976,8 @@
     <col min="2" max="2" width="0.158333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="0.158333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="0.325" style="2" customWidth="1"/>
+    <col min="5" max="5" width="104.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="0.158333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="94.625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -4688,23 +4996,23 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:5">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:5">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="2"/>
@@ -4716,22 +5024,23 @@
     <row r="7" spans="3:5">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4" t="s">
-        <v>78</v>
+      <c r="E7" s="4" t="str">
+        <f>CONCATENATE("&lt;!--  ",$C$11,"  --&gt;")</f>
+        <v>&lt;!--  Agregar y quitar objetos  --&gt;</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="3:5">
@@ -4744,52 +5053,52 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="7" t="str">
+        <v>82</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f>IF(C12&lt;&gt;"",C12,"")</f>
         <v>Agregar y quitar objetos en Photoshop se refiere al proceso de modificar una imagen digital añadiendo nuevos elementos o eliminando elementos existentes. Es una técnica esencial en el diseño gráfico, la fotografía y el diseño web.</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="28" t="s">
-        <v>83</v>
+      <c r="C13" s="7"/>
+      <c r="D13" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>IF(C13&lt;&gt;"",C13,"")</f>
@@ -4810,73 +5119,59 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="4" t="str">
         <f>CONCATENATE("&lt;!-- ",C15," --&gt;")</f>
         <v>&lt;!-- Agregar Objetos Mediante Clonación --&gt;</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4" t="str">
         <f>CONCATENATE("id=",Comillas,C17,Comillas)</f>
         <v>id="agregarObjetosMedianteClonacion"</v>
       </c>
-      <c r="G17" s="9" t="str">
-        <f>CONCATENATE("&lt;a href=",Comillas,"#",C17,Comillas,"&gt;",C15,"&lt;/a&gt;")</f>
-        <v>&lt;a href="#agregarObjetosMedianteClonacion"&gt;Agregar Objetos Mediante Clonación&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="9" t="str">
-        <f>IF($C$15&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="2:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -4886,11 +5181,6 @@
         <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C15,"&lt;/h2&gt;")</f>
         <v>&lt;h2 class="mt-1"&gt;Agregar Objetos Mediante Clonación&lt;/h2&gt;</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="str">
-        <f>IF(C$21&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
-      </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
@@ -4898,32 +5188,30 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="9" t="str">
-        <f>IF(C$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C23,Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#eliminarObjetosPeqeños"&gt;Eliminar Objetos Peqeños&lt;/a&gt;</v>
+      <c r="E20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="4" t="str">
         <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;!-- ",C21," --&gt;"),"")</f>
-        <v>&lt;!-- Eliminar Objetos Peqeños --&gt;</v>
-      </c>
-      <c r="G21" s="9" t="str">
-        <f>IF($C$21&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
+        <v>&lt;!-- Eliminar Objetos Pequeños --&gt;</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -4932,33 +5220,31 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="10" t="str">
+      <c r="E22" s="8" t="str">
         <f>IF(C21&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="G22" s="9" t="str">
-        <f>IF($C$27&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="4" t="str">
         <f>IF(C21&lt;&gt;"",CONCATENATE("id=",Comillas,C23,Comillas),"")</f>
-        <v>id="eliminarObjetosPeqeños"</v>
-      </c>
-      <c r="G23" s="9" t="str">
-        <f>IF($C$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C29,Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#quitarObjetos"&gt;Quitar Objetos&lt;/a&gt;</v>
+        <v>id="eliminarObjetosPequeños"</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -4969,14 +5255,13 @@
       <c r="D24" s="2"/>
       <c r="E24" s="4" t="str">
         <f>IF(C21&lt;&gt;"",F29,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f>IF($C$27&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="25" ht="30" spans="2:7">
+        <v>class="mt-5 pt-5 "&gt;</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -4984,11 +5269,10 @@
       <c r="D25" s="2"/>
       <c r="E25" s="4" t="str">
         <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C21,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Eliminar Objetos Peqeños&lt;/h2&gt;</v>
-      </c>
-      <c r="G25" s="9" t="str">
-        <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Eliminar Objetos Pequeños&lt;/h2&gt;</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -4997,33 +5281,31 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="10" t="str">
+      <c r="E26" s="8" t="str">
         <f>IF(C21&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-      <c r="G26" s="9" t="str">
-        <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C35,Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#MejorasOpcionesSeleccion"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
+      <c r="G26" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="8"/>
+      <c r="C27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="4" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;!-- ",C27," --&gt;"),"")</f>
         <v>&lt;!-- Quitar Objetos --&gt;</v>
       </c>
-      <c r="G27" s="9" t="str">
-        <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
+      <c r="G27" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -5032,36 +5314,34 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="10" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(C27&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="G28" s="9" t="str">
-        <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
+      <c r="G28" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="4" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("id=",Comillas,C29,Comillas),"")</f>
         <v>id="quitarObjetos"</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="9" t="str">
-        <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C41,Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
-        <v/>
+      <c r="F29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -5072,11 +5352,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="str">
         <f>IF(C27&lt;&gt;"",F35,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-      <c r="G30" s="9" t="str">
-        <f>IF($C$39&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
+        <v>class="mt-5 pt-5 "&gt;</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -5089,36 +5368,42 @@
         <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C27,"&lt;/h2&gt;"),"")</f>
         <v>&lt;h2 class="mt-1"&gt;Quitar Objetos&lt;/h2&gt;</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="G31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="10" t="str">
+      <c r="E32" s="8" t="str">
         <f>IF(C27&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="str">
+      <c r="C33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4" t="str">
         <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;!-- ",C33," --&gt;"),"")</f>
         <v>&lt;!-- Herramienta Parche (Patch Tool) --&gt;</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="2" t="s">
@@ -5126,7 +5411,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="10" t="str">
+      <c r="E34" s="8" t="str">
         <f>IF(C33&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
@@ -5136,27 +5421,27 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="4" t="str">
         <f>IF(C33&lt;&gt;"",CONCATENATE("id=",Comillas,C35,Comillas),"")</f>
         <v>id="MejorasOpcionesSeleccion"</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>104</v>
+      <c r="F35" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:7">
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5164,77 +5449,101 @@
       <c r="D36" s="2"/>
       <c r="E36" s="4" t="str">
         <f>IF(C33&lt;&gt;"",F41,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+        <v>class="mt-5 pt-5 "&gt;</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="4" t="str">
         <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C33,"&lt;/h2&gt;"),"")</f>
         <v>&lt;h2 class="mt-1"&gt;Herramienta Parche (Patch Tool)&lt;/h2&gt;</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="10" t="str">
+      <c r="E38" s="8" t="str">
         <f>IF(C33&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="4" t="str">
         <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;!-- ",C39," --&gt;"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="10" t="str">
+      <c r="E40" s="8" t="str">
         <f>IF(C39&lt;&gt;"","&lt;div","")</f>
         <v/>
       </c>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="4" t="str">
         <f>IF(C39&lt;&gt;"",CONCATENATE("id=",Comillas,C41,Comillas),"")</f>
         <v/>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>104</v>
+      <c r="F41" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:7">
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
@@ -5242,8 +5551,11 @@
         <f>IF(C39&lt;&gt;"",F48,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="G42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -5251,107 +5563,252 @@
         <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C39,"&lt;/h2&gt;"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="G43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="10" t="str">
+      <c r="E44" s="8" t="str">
         <f>IF(C39&lt;&gt;"","&lt;/div&gt;","")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="G44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="E45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f>CONCATENATE("&lt;!--  ",$C$11,"  --&gt;")</f>
+        <v>&lt;!--  Agregar y quitar objetos  --&gt;</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="13" t="s">
+    <row r="52" spans="2:5">
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="F53" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="F54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="E55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="E56" s="2" t="str">
+        <f>CONCATENATE("&lt;a href=",Comillas,"#",C17,Comillas,"&gt;",C15,"&lt;/a&gt;")</f>
+        <v>&lt;a href="#agregarObjetosMedianteClonacion"&gt;Agregar Objetos Mediante Clonación&lt;/a&gt;</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
+      <c r="E57" s="2" t="str">
+        <f>IF($C$15&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
+      <c r="E58" s="2" t="str">
+        <f>IF(C$21&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f>IF(C$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C23,Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#eliminarObjetosPequeños"&gt;Eliminar Objetos Pequeños&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="2" t="str">
+        <f>IF($C$21&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="2" t="str">
+        <f>IF($C$27&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="2" t="str">
+        <f>IF($C$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C29,Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#quitarObjetos"&gt;Quitar Objetos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" s="2" t="str">
+        <f>IF($C$27&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="2" t="str">
+        <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="2" t="str">
+        <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C35,Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#MejorasOpcionesSeleccion"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="2" t="str">
+        <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="2" t="str">
+        <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="2" t="str">
+        <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C41,Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="2" t="str">
+        <f>IF($C$39&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5369,711 +5826,93 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="0.158333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="0.325" style="2" customWidth="1"/>
-    <col min="7" max="7" width="94.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="3:4">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="3:7">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4" t="str">
-        <f>CONCATENATE("&lt;h1&gt;",C11,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Herrmientas de Selección&lt;/h1&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="7" t="str">
-        <f>IF(C12&lt;&gt;"",C12,"")</f>
-        <v>Agregar y quitar objetos en Photoshop se refiere al proceso de modificar una imagen digital añadiendo nuevos elementos o eliminando elementos existentes. Es una técnica esencial en el diseño gráfico, la fotografía y el diseño web.</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f>IF(C13&lt;&gt;"",C13,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="str">
-        <f>IF(C13&lt;&gt;"",CONCATENATE("&lt;p&gt;",C13,"&lt;/p&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4" t="str">
-        <f>CONCATENATE("&lt;!-- ",C15," --&gt;")</f>
-        <v>&lt;!-- Agregar Objetos Mediante Clonación --&gt;</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4" t="str">
-        <f>CONCATENATE("id=",'plantilla (2)'!Comillas,C17,'plantilla (2)'!Comillas)</f>
-        <v>id="agregarObjetosMedianteClonacion"</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f>CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C17,'plantilla (2)'!Comillas,"&gt;",C15,"&lt;/a&gt;")</f>
-        <v>&lt;a href="#agregarObjetosMedianteClonacion"&gt;Agregar Objetos Mediante Clonación&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="9" t="str">
-        <f>IF($C$15&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="2:7">
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="str">
-        <f>CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C15,"&lt;/h2&gt;")</f>
-        <v>&lt;h2 class="mt-1"&gt;Agregar Objetos Mediante Clonación&lt;/h2&gt;</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="str">
-        <f>IF(C$21&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="9" t="str">
-        <f>IF(C$21&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C23,'plantilla (2)'!Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#eliminarObjetosPeqeños"&gt;Eliminar Objetos Peqeños&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;!-- ",C21," --&gt;"),"")</f>
-        <v>&lt;!-- Eliminar Objetos Peqeños --&gt;</v>
-      </c>
-      <c r="G21" s="9" t="str">
-        <f>IF($C$21&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="10" t="str">
-        <f>IF(C21&lt;&gt;"","&lt;div","")</f>
-        <v>&lt;div</v>
-      </c>
-      <c r="G22" s="9" t="str">
-        <f>IF($C$27&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="4" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C23,'plantilla (2)'!Comillas),"")</f>
-        <v>id="eliminarObjetosPeqeños"</v>
-      </c>
-      <c r="G23" s="9" t="str">
-        <f>IF($C$27&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C29,'plantilla (2)'!Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#quitarObjetos"&gt;Quitar Objetos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4" t="str">
-        <f>IF(C21&lt;&gt;"",F29,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f>IF($C$27&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="25" ht="30" spans="2:7">
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C21,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Eliminar Objetos Peqeños&lt;/h2&gt;</v>
-      </c>
-      <c r="G25" s="9" t="str">
-        <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="10" t="str">
-        <f>IF(C21&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
-      </c>
-      <c r="G26" s="9" t="str">
-        <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C35,'plantilla (2)'!Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#MejorasOpcionesSeleccion"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="4" t="str">
-        <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;!-- ",C27," --&gt;"),"")</f>
-        <v>&lt;!-- Quitar Objetos --&gt;</v>
-      </c>
-      <c r="G27" s="9" t="str">
-        <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="10" t="str">
-        <f>IF(C27&lt;&gt;"","&lt;div","")</f>
-        <v>&lt;div</v>
-      </c>
-      <c r="G28" s="9" t="str">
-        <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="4" t="str">
-        <f>IF(C27&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C29,'plantilla (2)'!Comillas),"")</f>
-        <v>id="quitarObjetos"</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="9" t="str">
-        <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",'plantilla (2)'!Comillas,"#",C41,'plantilla (2)'!Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4" t="str">
-        <f>IF(C27&lt;&gt;"",F35,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-      <c r="G30" s="9" t="str">
-        <f>IF($C$39&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4" t="str">
-        <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C27,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Quitar Objetos&lt;/h2&gt;</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="10" t="str">
-        <f>IF(C27&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="str">
-        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;!-- ",C33," --&gt;"),"")</f>
-        <v>&lt;!-- Herramienta Parche (Patch Tool) --&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="10" t="str">
-        <f>IF(C33&lt;&gt;"","&lt;div","")</f>
-        <v>&lt;div</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="4" t="str">
-        <f>IF(C33&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C35,'plantilla (2)'!Comillas),"")</f>
-        <v>id="MejorasOpcionesSeleccion"</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4" t="str">
-        <f>IF(C33&lt;&gt;"",F41,"")</f>
-        <v>class="mt-5 pt-5 mb-n5"&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="7" t="str">
-        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C33,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Herramienta Parche (Patch Tool)&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="10" t="str">
-        <f>IF(C33&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;!-- ",C39," --&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="10" t="str">
-        <f>IF(C39&lt;&gt;"","&lt;div","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",CONCATENATE("id=",'plantilla (2)'!Comillas,C41,'plantilla (2)'!Comillas),"")</f>
-        <v/>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",F48,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;h2 class=",'plantilla (2)'!Comillas,"mt-1",'plantilla (2)'!Comillas,"&gt;",C39,"&lt;/h2&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="10" t="str">
-        <f>IF(C39&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="2" t="s">
-        <v>2</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C$1:D$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" location="HerramientaMarcoRectangular" display="Agregar Objetos Mediante Clonación"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12900" activeTab="1"/>
+    <workbookView windowWidth="27930" windowHeight="12900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="script" sheetId="8" r:id="rId5"/>
     <sheet name="plantilla" sheetId="9" r:id="rId6"/>
     <sheet name="Estructura tools ps" sheetId="10" r:id="rId7"/>
+    <sheet name="plantilla &lt;ul&gt;" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Comillas">plantilla!$F$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="139">
   <si>
     <t>Título</t>
   </si>
@@ -224,470 +225,174 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html</t>
+    <t>Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html</t>
+  </si>
+  <si>
+    <t>El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes.</t>
+  </si>
+  <si>
+    <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop.html</t>
+  </si>
+  <si>
+    <t>Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>&lt;meta name="robots" content="noindex, follow" /&gt;</t>
+  </si>
+  <si>
+    <t>Índice de Git / Github - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/git.htmll</t>
+  </si>
+  <si>
+    <t>Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web.</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;let tema = localStorage.getItem("theme") || "dark";window.onload = function () {if (tema === "dark") temaOscuro();if (tema === "light") temaClaro();};const cambiarTema = () =&gt; {const temaActual = localStorage.getItem("theme") || "dark";if (temaActual === "dark") {temaClaro();} else{temaOscuro();}};const temaOscuro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "dark");document.querySelector("#dl-icon").setAttribute("class","btn text-center d-flex bg-body-tertiary text-light");localStorage.setItem("theme", "dark");};const temaClaro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "light");document.querySelector("#dl-icon").setAttribute("class", "btn text-center d-flex bg-light text-dark");localStorage.setItem("theme", "light");};&lt;/script&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Comillas</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Plantilla Cuerpo</t>
+  </si>
+  <si>
+    <t>&lt;div class="row col"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;main class="pt-5 col-lg-9"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;article class="row border-1 border-bottom pb-3"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;</t>
+  </si>
+  <si>
+    <t>titulo 1</t>
+  </si>
+  <si>
+    <t>Uso de Pinceles</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Parrafo 1</t>
+  </si>
+  <si>
+    <t>Los pinceles en Photoshop son herramientas versátiles que te permiten crear una amplia gama de efectos, desde trazos simples hasta texturas complejas. Son fundamentales para pintar, dibujar, retocar y diseñar en este software.</t>
+  </si>
+  <si>
+    <t>Parrafo 2</t>
+  </si>
+  <si>
+    <t>Area de trabajo 1</t>
+  </si>
+  <si>
+    <t>Conceptos Básicos</t>
+  </si>
+  <si>
+    <t>&lt;div</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo1</t>
+  </si>
+  <si>
+    <t>conceptosBasicos</t>
+  </si>
+  <si>
+    <t>class="mt-5 pt-5"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Area de trabajo 2</t>
+  </si>
+  <si>
+    <t>Herramienta Parche (Patch Tool)</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo2</t>
+  </si>
+  <si>
+    <t>herramientaParche</t>
+  </si>
+  <si>
+    <t>Area de trabajo 3</t>
+  </si>
+  <si>
+    <t>Color Primer Plano y Fondo</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo3</t>
+  </si>
+  <si>
+    <t>colorPrimerPlanoyFondo</t>
+  </si>
+  <si>
+    <t>class="mt-5 pt-5 "&gt;</t>
+  </si>
+  <si>
+    <t>Area de trabajo 4</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo4</t>
+  </si>
+  <si>
+    <t>Area de trabajo 5</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo5</t>
+  </si>
+  <si>
+    <t>&lt;/article&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/main&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- -------------------------------- fin principal -------------------------------- --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- -------------------------------- barra lateral -------------------------------- --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;aside class="col-lg-3 d-none d-lg-block pt-5"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Índice&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul class="list-unstyled px-3"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/aside&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- -------------------------------- fin barra lateral -------------------------------- --&gt;</t>
   </si>
   <si>
     <t>La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área.</t>
   </si>
   <si>
-    <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/photoshop.html</t>
-  </si>
-  <si>
-    <t>Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop</t>
-  </si>
-  <si>
-    <t>&lt;meta name="robots" content="noindex, follow" /&gt;</t>
-  </si>
-  <si>
-    <t>Índice de Git / Github - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/git.htmll</t>
-  </si>
-  <si>
-    <t>Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web.</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;let tema = localStorage.getItem("theme") || "dark";window.onload = function () {if (tema === "dark") temaOscuro();if (tema === "light") temaClaro();};const cambiarTema = () =&gt; {const temaActual = localStorage.getItem("theme") || "dark";if (temaActual === "dark") {temaClaro();} else{temaOscuro();}};const temaOscuro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "dark");document.querySelector("#dl-icon").setAttribute("class","btn text-center d-flex bg-body-tertiary text-light");localStorage.setItem("theme", "dark");};const temaClaro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "light");document.querySelector("#dl-icon").setAttribute("class", "btn text-center d-flex bg-light text-dark");localStorage.setItem("theme", "light");};&lt;/script&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>Comillas</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Plantilla Cuerpo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"row col"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;main class="pt-5 col-lg-9"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;article class="row border-1 border-bottom pb-3"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;</t>
-  </si>
-  <si>
-    <t>titulo 1</t>
-  </si>
-  <si>
-    <t>Agregar y quitar objetos</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Parrafo 1</t>
-  </si>
-  <si>
-    <t>Agregar y quitar objetos en Photoshop se refiere al proceso de modificar una imagen digital añadiendo nuevos elementos o eliminando elementos existentes. Es una técnica esencial en el diseño gráfico, la fotografía y el diseño web.</t>
-  </si>
-  <si>
-    <t>Parrafo 2</t>
-  </si>
-  <si>
-    <t>Area de trabajo 1</t>
-  </si>
-  <si>
-    <t>Agregar Objetos Mediante Clonación</t>
-  </si>
-  <si>
-    <t>&lt;div</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo1</t>
-  </si>
-  <si>
-    <t>agregarObjetosMedianteClonacion</t>
-  </si>
-  <si>
-    <t>class="mt-5 pt-5"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Area de trabajo 2</t>
-  </si>
-  <si>
-    <t>Eliminar Objetos Pequeños</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo2</t>
-  </si>
-  <si>
-    <t>eliminarObjetosPequeños</t>
-  </si>
-  <si>
-    <t>Area de trabajo 3</t>
-  </si>
-  <si>
-    <t>Quitar Objetos</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo3</t>
-  </si>
-  <si>
-    <t>quitarObjetos</t>
-  </si>
-  <si>
-    <t>class="mt-5 pt-5 "&gt;</t>
-  </si>
-  <si>
-    <t>Area de trabajo 4</t>
-  </si>
-  <si>
-    <t>Herramienta Parche (Patch Tool)</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo4</t>
-  </si>
-  <si>
-    <t>MejorasOpcionesSeleccion</t>
-  </si>
-  <si>
-    <t>Area de trabajo 5</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF808080"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF808080"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF808080"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>main</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF808080"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;!-- -------------------------------- fin principal -------------------------------- --&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!-- -------------------------------- barra lateral -------------------------------- --&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aside</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"col-lg-3 d-none d-lg-block pt-5"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Índice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;ul class="list-unstyled px-3"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aside</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;!-- -------------------------------- fin barra lateral -------------------------------- --&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Cómo usar la herramienta Parche:</t>
   </si>
   <si>
@@ -728,6 +433,27 @@
   </si>
   <si>
     <t>- Trabaja en una capa separada para mantener la edición no destructiva.</t>
+  </si>
+  <si>
+    <t>Respueta</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>Cuadro de Color: Haciendo clic en el cuadro de color de primer plano o de fondo (ubicado en la barra de herramientas), se abrirá el selector de color. Aquí puedes elegir un color de la paleta o ingresar un valor hexadecimal o RGB específico.</t>
+  </si>
+  <si>
+    <t>Valores Rápidos: Al hacer doble clic en el cuadro de color de primer plano, se abre el selector donde puedes ver y ajustar los valores.</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;span class="fw-bold"&gt;</t>
+  </si>
+  <si>
+    <t>Esta herramienta esta en la barra de herramientas principal, generalmente representada por un pincel.</t>
+  </si>
+  <si>
+    <t>En la barra de opciones, se verá una amplia variedad de pinceles. Hacer clic en la flecha pequeña para desplegar la lista completa y seleccionar el que más convenga.</t>
   </si>
 </sst>
 </file>
@@ -741,7 +467,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,21 +481,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF808080"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -940,37 +654,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF569CD6"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF569CD6"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1313,169 +1009,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,760 +1534,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11" style="16"/>
-    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11" style="16"/>
-    <col min="5" max="5" width="35" style="16" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="16"/>
-    <col min="16384" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="16"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="22"/>
-      <c r="XFD4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="16"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="22" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="23" t="str">
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="23" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="16"/>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="16"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="23" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="16"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="23" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="16"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="16"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="23" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="16"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="16"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="16"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="16"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="23" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="16"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="16"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="16"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="23" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="16"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="23" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="16"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="23" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="16"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="16"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="23" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="16"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="23" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="16"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="23" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="16"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="23" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="16"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="16"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="23" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="16"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="23" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="16"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="23" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="16"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="23" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="16"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="23" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="16"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="23" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="16"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="23" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="16"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="23" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="16"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="23" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="16"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="23" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="16"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="16"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="23" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="16"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="23" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="16"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="23" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="16"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="16"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="23" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="16"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="16"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="23" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="16"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="23" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="16"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="16"/>
+      <c r="XFD55" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2609,774 +2304,774 @@
   <sheetPr/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11" style="16"/>
-    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11" style="16"/>
-    <col min="5" max="5" width="35" style="16" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="16"/>
-    <col min="16384" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="16"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="16"/>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="2:16384">
-      <c r="B3" s="21" t="s">
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="22"/>
-      <c r="XFD4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área." /&gt;</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
+        <v>&lt;meta name="description" content="El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes." /&gt;</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="16"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="22" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="23" t="str">
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="23" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="16"/>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html" /&gt;</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16" t="s">
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html" /&gt;</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="16"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="23" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="16"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="23" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="16"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16" t="s">
+        <v>&lt;meta property="og:title" content="Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="16"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="23" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área." /&gt;</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16" t="s">
+        <v>&lt;meta property="og:description" content="El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes." /&gt;</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="16"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="16"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="16"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html" /&gt;</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="16" t="s">
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html" /&gt;</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="16"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="23" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="16"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="16"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="16"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="23" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="16"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="23" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="16"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="23" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="16"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="16" t="s">
+        <v>&lt;meta name="twitter:title" content="Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="16"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="23" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área." /&gt;</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="16" t="s">
+        <v>&lt;meta name="twitter:description" content="El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes." /&gt;</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="16"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="23" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="16"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="23" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="16"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="23" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="16"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="16"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="23" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="16"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="23" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="16"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="23" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="16"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="23" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="16"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="23" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="16"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="23" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="16"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="23" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="16"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="23" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="16"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="23" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="16"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="23" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="16"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="16"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="23" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="16"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="23" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
-        <v>Agregar y Quitar Objetos en Photoshop - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="16"/>
+        <v>Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="23" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="16"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="16"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="23" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="16"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="16"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="23" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="16"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="23" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="16"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="16"/>
+      <c r="XFD55" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html" tooltip="https://eduardoherreraf.github.io/photoshop@Agregar_y_Quitar_Objetos.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html" tooltip="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3401,757 +3096,757 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11" style="16"/>
-    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11" style="16"/>
-    <col min="5" max="5" width="35" style="16" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="16"/>
-    <col min="16384" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="16"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="22"/>
-      <c r="XFD4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="16"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="22" t="str">
         <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="23" t="str">
+      <c r="B11" s="22" t="str">
         <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="23" t="str">
+      <c r="B12" s="22" t="str">
         <f>A12</f>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="22" t="str">
         <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="16"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="23" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="16"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="23" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="16"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="16"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="23" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="16"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="16"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="16"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="16"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="23" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="16"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="16"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="16"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="23" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="16"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="23" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="16"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="23" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="16"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="16"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="23" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="16"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="23" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="16"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="23" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="16"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="23" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="16"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="16"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="23" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="16"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="23" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="16"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="23" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="16"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="23" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="16"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="23" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="16"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="23" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="16"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="23" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="16"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="23" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="16"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="23" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="16"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="23" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="16"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="16"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="23" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="16"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="23" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
         <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="16"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="23" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="16"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="16"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="23" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="16"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="16"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="23" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="16"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="23" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="16"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="16"/>
+      <c r="XFD55" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4180,754 +3875,754 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11" style="16"/>
-    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11" style="16"/>
-    <col min="5" max="5" width="35" style="16" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="16"/>
-    <col min="16384" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15"/>
+    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15"/>
+    <col min="5" max="5" width="35" style="15" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="15"/>
+    <col min="16384" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="16"/>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="15"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="15"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="15"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="22"/>
-      <c r="XFD4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="XFD4" s="15"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="15"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="15"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="15"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="15"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="22" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="16"/>
+      <c r="XFD9" s="15"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="22" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="15"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="23" t="str">
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="15"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="23" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="15"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="15"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23" t="str">
+      <c r="B14" s="22" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="16"/>
+      <c r="XFD14" s="15"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="23" t="str">
+      <c r="B15" s="22" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="15"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="15"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="16"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="15"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="23" t="str">
+      <c r="B18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="16"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="15"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23" t="str">
+      <c r="B19" s="22" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="16"/>
+      <c r="XFD19" s="15"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="23" t="str">
+      <c r="B20" s="22" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="16"/>
+      <c r="XFD20" s="15"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23" t="str">
+      <c r="B21" s="22" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="16"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="15"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23" t="str">
+      <c r="B22" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="16"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="15"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23" t="str">
+      <c r="B23" s="22" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="16"/>
+      <c r="XFD23" s="15"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="23" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="16"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="15"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="16"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="15"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="16"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="15"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="23" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="16"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="15"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="23" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="16"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="15"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="23" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="16"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="15"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="str">
+      <c r="B30" s="22" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="16"/>
+      <c r="XFD30" s="15"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="23" t="str">
+      <c r="B31" s="22" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="16"/>
+      <c r="XFD31" s="15"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="23" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="16"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="15"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="23" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="16"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="15"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="23" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="16"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="15"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="16"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="15"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="23" t="str">
+      <c r="B36" s="22" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="16"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="15"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="23" t="str">
+      <c r="B37" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="16"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="15"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="23" t="str">
+      <c r="B38" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="16"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="15"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="23" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="16"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="15"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="23" t="str">
+      <c r="B40" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="16"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="15"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="23" t="str">
+      <c r="B41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="16"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="15"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="23" t="str">
+      <c r="B42" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="16"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="15"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="23" t="str">
+      <c r="B43" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="16"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="15"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="23" t="str">
+      <c r="B44" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="16"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="15"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="23" t="str">
+      <c r="B45" s="22" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="16"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="15"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="16"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="15"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="23" t="str">
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="16"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="15"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="23" t="str">
+      <c r="B48" s="22" t="str">
         <f>C1</f>
         <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="16"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="15"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="23" t="str">
+      <c r="B49" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="16"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="15"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="16"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="15"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="23" t="str">
+      <c r="B51" s="22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="16"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="15"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="16"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="15"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="23" t="str">
+      <c r="B53" s="22" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="16"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="15"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="23" t="str">
+      <c r="B54" s="22" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="16"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4951,7 +4646,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4966,849 +4661,841 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="0.158333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="104.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="0.158333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="94.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="0.158333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="0.158333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="104.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="0.158333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="94.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4" t="str">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$11,"  --&gt;")</f>
-        <v>&lt;!--  Agregar y quitar objetos  --&gt;</v>
+        <v>&lt;!--  Uso de Pinceles  --&gt;</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4" t="str">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="str">
         <f>CONCATENATE("&lt;h1&gt;",C11,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Agregar y quitar objetos&lt;/h1&gt;</v>
+        <v>&lt;h1&gt;Uso de Pinceles&lt;/h1&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="4" t="str">
-        <f>IF(C12&lt;&gt;"",C12,"")</f>
-        <v>Agregar y quitar objetos en Photoshop se refiere al proceso de modificar una imagen digital añadiendo nuevos elementos o eliminando elementos existentes. Es una técnica esencial en el diseño gráfico, la fotografía y el diseño web.</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="5" t="str">
+        <f>IF(C12&lt;&gt;"",CONCATENATE("&lt;p&gt;",C12,"&lt;/p&gt;"),"")</f>
+        <v>&lt;p&gt;Los pinceles en Photoshop son herramientas versátiles que te permiten crear una amplia gama de efectos, desde trazos simples hasta texturas complejas. Son fundamentales para pintar, dibujar, retocar y diseñar en este software.&lt;/p&gt;</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="4" t="str">
-        <f>IF(C13&lt;&gt;"",C13,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="str">
+      <c r="E13" s="5" t="str">
         <f>IF(C13&lt;&gt;"",CONCATENATE("&lt;p&gt;",C13,"&lt;/p&gt;"),"")</f>
         <v/>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4" t="str">
+      <c r="D15" s="8"/>
+      <c r="E15" s="5" t="str">
         <f>CONCATENATE("&lt;!-- ",C15," --&gt;")</f>
-        <v>&lt;!-- Agregar Objetos Mediante Clonación --&gt;</v>
+        <v>&lt;!-- Conceptos Básicos --&gt;</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8" t="s">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4" t="str">
+      <c r="D17" s="8"/>
+      <c r="E17" s="5" t="str">
         <f>CONCATENATE("id=",Comillas,C17,Comillas)</f>
-        <v>id="agregarObjetosMedianteClonacion"</v>
+        <v>id="conceptosBasicos"</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="str">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5" t="str">
         <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C15,"&lt;/h2&gt;")</f>
-        <v>&lt;h2 class="mt-1"&gt;Agregar Objetos Mediante Clonación&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Conceptos Básicos&lt;/h2&gt;</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8" t="s">
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4" t="str">
+      <c r="D21" s="8"/>
+      <c r="E21" s="5" t="str">
         <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;!-- ",C21," --&gt;"),"")</f>
-        <v>&lt;!-- Eliminar Objetos Pequeños --&gt;</v>
-      </c>
-      <c r="G21" s="2" t="s">
+        <v>&lt;!-- Herramienta Parche (Patch Tool) --&gt;</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8" t="str">
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9" t="str">
         <f>IF(C21&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4" t="str">
+      <c r="D23" s="8"/>
+      <c r="E23" s="5" t="str">
         <f>IF(C21&lt;&gt;"",CONCATENATE("id=",Comillas,C23,Comillas),"")</f>
-        <v>id="eliminarObjetosPequeños"</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>id="herramientaParche"</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4" t="str">
+      <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5" t="str">
         <f>IF(C21&lt;&gt;"",F29,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4" t="str">
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5" t="str">
         <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C21,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Eliminar Objetos Pequeños&lt;/h2&gt;</v>
-      </c>
-      <c r="G25" s="2" t="s">
+        <v>&lt;h2 class="mt-1"&gt;Herramienta Parche (Patch Tool)&lt;/h2&gt;</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="8" t="str">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9" t="str">
         <f>IF(C21&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4" t="str">
+      <c r="D27" s="8"/>
+      <c r="E27" s="5" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;!-- ",C27," --&gt;"),"")</f>
-        <v>&lt;!-- Quitar Objetos --&gt;</v>
-      </c>
-      <c r="G27" s="2" t="s">
+        <v>&lt;!-- Color Primer Plano y Fondo --&gt;</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="8" t="str">
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9" t="str">
         <f>IF(C27&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4" t="str">
+      <c r="D29" s="8"/>
+      <c r="E29" s="5" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("id=",Comillas,C29,Comillas),"")</f>
-        <v>id="quitarObjetos"</v>
-      </c>
-      <c r="F29" s="2" t="s">
+        <v>id="colorPrimerPlanoyFondo"</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4" t="str">
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5" t="str">
         <f>IF(C27&lt;&gt;"",F35,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4" t="str">
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C27,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Quitar Objetos&lt;/h2&gt;</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>&lt;h2 class="mt-1"&gt;Color Primer Plano y Fondo&lt;/h2&gt;</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="8" t="str">
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="9" t="str">
         <f>IF(C27&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;!-- ",C33," --&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="9" t="str">
+        <f>IF(C33&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4" t="str">
-        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;!-- ",C33," --&gt;"),"")</f>
-        <v>&lt;!-- Herramienta Parche (Patch Tool) --&gt;</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="8" t="str">
-        <f>IF(C33&lt;&gt;"","&lt;div","")</f>
-        <v>&lt;div</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="5" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("id=",Comillas,C35,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="5" t="str">
+        <f>IF(C33&lt;&gt;"",F41,"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5" t="str">
+        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C33,"&lt;/h2&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="9" t="str">
+        <f>IF(C33&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v/>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;!-- ",C39," --&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="9" t="str">
+        <f>IF(C39&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4" t="str">
-        <f>IF(C33&lt;&gt;"",CONCATENATE("id=",Comillas,C35,Comillas),"")</f>
-        <v>id="MejorasOpcionesSeleccion"</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("id=",Comillas,C41,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4" t="str">
-        <f>IF(C33&lt;&gt;"",F41,"")</f>
-        <v>class="mt-5 pt-5 "&gt;</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4" t="str">
-        <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C33,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Herramienta Parche (Patch Tool)&lt;/h2&gt;</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="8" t="str">
-        <f>IF(C33&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
+      <c r="G41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5" t="str">
+        <f>IF(C39&lt;&gt;"",F48,"")</f>
+        <v/>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C39,"&lt;/h2&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <f>IF(C39&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v/>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;!-- ",C39," --&gt;"),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="8" t="str">
-        <f>IF(C39&lt;&gt;"","&lt;div","")</f>
-        <v/>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2" t="s">
+      <c r="G46" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f>CONCATENATE("&lt;!--  ",$C$11,"  --&gt;")</f>
+        <v>&lt;!--  Uso de Pinceles  --&gt;</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",CONCATENATE("id=",Comillas,C41,Comillas),"")</f>
-        <v/>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",F48,"")</f>
-        <v/>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4" t="str">
-        <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C39,"&lt;/h2&gt;"),"")</f>
-        <v/>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="8" t="str">
-        <f>IF(C39&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10" t="s">
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="4" t="str">
-        <f>CONCATENATE("&lt;!--  ",$C$11,"  --&gt;")</f>
-        <v>&lt;!--  Agregar y quitar objetos  --&gt;</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="12" t="s">
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="14" t="s">
+      <c r="F53" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="F54" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2" t="str">
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3" t="str">
         <f>CONCATENATE("&lt;a href=",Comillas,"#",C17,Comillas,"&gt;",C15,"&lt;/a&gt;")</f>
-        <v>&lt;a href="#agregarObjetosMedianteClonacion"&gt;Agregar Objetos Mediante Clonación&lt;/a&gt;</v>
-      </c>
-      <c r="F56" s="2" t="s">
+        <v>&lt;a href="#conceptosBasicos"&gt;Conceptos Básicos&lt;/a&gt;</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2" t="str">
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3" t="str">
         <f>IF($C$15&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="2" t="str">
+      <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3" t="str">
         <f>IF(C$21&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2" t="str">
+      <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3" t="str">
         <f>IF(C$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C23,Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#eliminarObjetosPequeños"&gt;Eliminar Objetos Pequeños&lt;/a&gt;</v>
+        <v>&lt;a href="#herramientaParche"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
       </c>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="2" t="str">
+      <c r="E60" s="3" t="str">
         <f>IF($C$21&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="2" t="str">
+      <c r="E61" s="3" t="str">
         <f>IF($C$27&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="2" t="str">
+      <c r="E62" s="3" t="str">
         <f>IF($C$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C29,Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#quitarObjetos"&gt;Quitar Objetos&lt;/a&gt;</v>
+        <v>&lt;a href="#colorPrimerPlanoyFondo"&gt;Color Primer Plano y Fondo&lt;/a&gt;</v>
       </c>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="2" t="str">
+      <c r="E63" s="3" t="str">
         <f>IF($C$27&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="2" t="str">
+      <c r="E64" s="3" t="str">
         <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="2" t="str">
+      <c r="E65" s="3" t="str">
         <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C35,Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#MejorasOpcionesSeleccion"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="2" t="str">
+      <c r="E66" s="3" t="str">
         <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="2" t="str">
+      <c r="E67" s="3" t="str">
         <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="2" t="str">
+      <c r="E68" s="3" t="str">
         <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C41,Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="2" t="str">
+      <c r="E69" s="3" t="str">
         <f>IF($C$39&lt;&gt;"","&lt;/li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="5" t="s">
-        <v>119</v>
+      <c r="E73" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5816,7 +5503,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" location="HerramientaMarcoRectangular" display="Agregar Objetos Mediante Clonación"/>
+    <hyperlink ref="C15" r:id="rId1" location="HerramientaMarcoRectangular" display="Conceptos Básicos"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5834,82 +5521,745 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
+      <c r="A1" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="104.375" customWidth="1"/>
+    <col min="2" max="6" width="9" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:7">
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="str">
+        <f>B2</f>
+        <v>&lt;ul&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B13" si="0">IF(A3&lt;&gt;"",$C$14,"")</f>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C13" si="1">IF(A3&lt;&gt;"",LEFT(A3,FIND(":",A3,1)-1),"")</f>
+        <v>Cuadro de Color</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D13" si="2">IF(A3&lt;&gt;"","&lt;/span&gt;","")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="3">IF(A3&lt;&gt;"",RIGHT(A3,LEN(A3)-FIND(":",A3,1)),"")</f>
+        <v> Haciendo clic en el cuadro de color de primer plano o de fondo (ubicado en la barra de herramientas), se abrirá el selector de color. Aquí puedes elegir un color de la paleta o ingresar un valor hexadecimal o RGB específico.</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F13" si="4">IF(A3&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="5">IF(A3&lt;&gt;"",CONCATENATE(B3,C3,D3,":",E3,F3),IF(A2&lt;&gt;"",$B$14,""))</f>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Cuadro de Color&lt;/span&gt;: Haciendo clic en el cuadro de color de primer plano o de fondo (ubicado en la barra de herramientas), se abrirá el selector de color. Aquí puedes elegir un color de la paleta o ingresar un valor hexadecimal o RGB específico.&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Valores Rápidos</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v> Al hacer doble clic en el cuadro de color de primer plano, se abre el selector donde puedes ver y ajustar los valores.</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;/li&gt;</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Valores Rápidos&lt;/span&gt;: Al hacer doble clic en el cuadro de color de primer plano, se abre el selector donde puedes ver y ajustar los valores.&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ref="G8:G13" si="6">IF(A8&lt;&gt;"",CONCATENATE(B8,C8,D8,":",E8,F8),IF(A7&lt;&gt;"",$B$14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(A14&lt;&gt;"",CONCATENATE(B14,#REF!,D14,":",E14,F14),$B$14)</f>
+        <v>&lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="str">
+        <f>B17</f>
+        <v>&lt;ul&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:B28" si="7">IF(A18&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:F28" si="8">IF(A18&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(A18&lt;&gt;"",CONCATENATE(B18,A18,F18),$D$29)</f>
+        <v>&lt;li&gt;Esta herramienta esta en la barra de herramientas principal, generalmente representada por un pincel.&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" ref="C18:C28" si="9">IF(A19&lt;&gt;"",LEFT(A19,FIND(":",A19,1)-1),"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D18:D28" si="10">IF(A19&lt;&gt;"","&lt;/span&gt;","")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" ref="E18:E28" si="11">IF(A19&lt;&gt;"",RIGHT(A19,LEN(A19)-FIND(":",A19,1)),"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;/li&gt;</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(A19&lt;&gt;"",CONCATENATE(B19,A19,F19),$D$29)</f>
+        <v>&lt;li&gt;En la barra de opciones, se verá una amplia variedad de pinceles. Hacer clic en la flecha pequeña para desplegar la lista completa y seleccionar el que más convenga.&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G28" si="12">IF(A20&lt;&gt;"",CONCATENATE(B20,A20,F20),IF(A19&lt;&gt;"",$D$29,""))</f>
+        <v>&lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(A29&lt;&gt;"",CONCATENATE(B29,#REF!,#REF!,":",E29,F29),$B$14)</f>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="152">
   <si>
     <t>Título</t>
   </si>
@@ -225,13 +225,13 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html</t>
-  </si>
-  <si>
-    <t>El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes.</t>
+    <t xml:space="preserve"> Color y Degradados en Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop@color_y_degradados.html</t>
+  </si>
+  <si>
+    <t>Descubre cómo utilizar colores vibrantes y crear degradados impresionantes en Photoshop. Aprende técnicas profesionales para mejorar tus diseños gráficos, fotografías y arte digital.</t>
   </si>
   <si>
     <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
@@ -282,7 +282,7 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t>Uso de Pinceles</t>
+    <t xml:space="preserve"> Color y degradados</t>
   </si>
   <si>
     <t/>
@@ -291,19 +291,46 @@
     <t>Parrafo 1</t>
   </si>
   <si>
-    <t>Los pinceles en Photoshop son herramientas versátiles que te permiten crear una amplia gama de efectos, desde trazos simples hasta texturas complejas. Son fundamentales para pintar, dibujar, retocar y diseñar en este software.</t>
+    <t>En Photoshop, el color y los degradados son elementos fundamentales para el diseño y la edición de imágenes.</t>
   </si>
   <si>
     <t>Parrafo 2</t>
   </si>
   <si>
+    <t>El color se puede aplicar de varias formas, desde herramientas de pincel hasta rellenos sólidos. Photoshop ofrece múltiples modelos de color como RGB, CMYK, y Lab, permitiendo una selección precisa mediante el Selector de color, paneles de muestras, o códigos hexadecimales.</t>
+  </si>
+  <si>
+    <t>Parrafo 3</t>
+  </si>
+  <si>
+    <t>Los degradados, por su parte, son transiciones suaves entre dos o más colores. Pueden ser lineales, radiales, de diamante, entre otros. Photoshop permite crear degradados personalizados, ajustar su dirección, opacidad y modo de fusión para lograr efectos variados.</t>
+  </si>
+  <si>
+    <t>Parrafo 4</t>
+  </si>
+  <si>
+    <t>Estas herramientas son esenciales para crear fondos, efectos de iluminación, dar profundidad a los diseños y mucho más.</t>
+  </si>
+  <si>
+    <t>Parrafo 5</t>
+  </si>
+  <si>
+    <t>Parrafo 6</t>
+  </si>
+  <si>
+    <t>Parrafo 7</t>
+  </si>
+  <si>
+    <t>Parrafo 8</t>
+  </si>
+  <si>
     <t>Area de trabajo 1</t>
   </si>
   <si>
     <t>Conceptos Básicos</t>
   </si>
   <si>
-    <t>&lt;div</t>
+    <t>no</t>
   </si>
   <si>
     <t>areaDeTrabajo1</t>
@@ -312,51 +339,54 @@
     <t>conceptosBasicos</t>
   </si>
   <si>
-    <t>class="mt-5 pt-5"&gt;</t>
+    <t>Area de trabajo 2</t>
+  </si>
+  <si>
+    <t>Elegir Color</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo2</t>
+  </si>
+  <si>
+    <t>elegirColor</t>
+  </si>
+  <si>
+    <t>Area de trabajo 3</t>
+  </si>
+  <si>
+    <t>Muestras de Color</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo3</t>
+  </si>
+  <si>
+    <t>muestrasColor</t>
+  </si>
+  <si>
+    <t>class="mt-5 pt-5 "&gt;</t>
+  </si>
+  <si>
+    <t>Area de trabajo 4</t>
+  </si>
+  <si>
+    <t>Creación de Degradados</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo4</t>
+  </si>
+  <si>
+    <t>creacionDegradados</t>
+  </si>
+  <si>
+    <t>Area de trabajo 5</t>
+  </si>
+  <si>
+    <t>areaDeTrabajo5</t>
   </si>
   <si>
     <t>&lt;/div&gt;</t>
   </si>
   <si>
-    <t>Area de trabajo 2</t>
-  </si>
-  <si>
-    <t>Herramienta Parche (Patch Tool)</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo2</t>
-  </si>
-  <si>
-    <t>herramientaParche</t>
-  </si>
-  <si>
-    <t>Area de trabajo 3</t>
-  </si>
-  <si>
-    <t>Color Primer Plano y Fondo</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo3</t>
-  </si>
-  <si>
-    <t>colorPrimerPlanoyFondo</t>
-  </si>
-  <si>
-    <t>class="mt-5 pt-5 "&gt;</t>
-  </si>
-  <si>
-    <t>Area de trabajo 4</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo4</t>
-  </si>
-  <si>
-    <t>Area de trabajo 5</t>
-  </si>
-  <si>
-    <t>areaDeTrabajo5</t>
-  </si>
-  <si>
     <t>&lt;/article&gt;</t>
   </si>
   <si>
@@ -375,10 +405,7 @@
     <t>&lt;h1&gt;Índice&lt;/h1&gt;</t>
   </si>
   <si>
-    <t>&lt;ul class="list-unstyled px-3"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;</t>
+    <t>&lt;ul class="list-unstyled"&gt;</t>
   </si>
   <si>
     <t>&lt;/ul&gt;</t>
@@ -441,19 +468,31 @@
     <t>&lt;ul&gt;</t>
   </si>
   <si>
-    <t>Cuadro de Color: Haciendo clic en el cuadro de color de primer plano o de fondo (ubicado en la barra de herramientas), se abrirá el selector de color. Aquí puedes elegir un color de la paleta o ingresar un valor hexadecimal o RGB específico.</t>
-  </si>
-  <si>
-    <t>Valores Rápidos: Al hacer doble clic en el cuadro de color de primer plano, se abre el selector donde puedes ver y ajustar los valores.</t>
+    <t>Degradados personalizados: Al crear un degradado personalizado en el editor de degradados, es posible guardar el degradado para usarlo en futuros proyectos.</t>
+  </si>
+  <si>
+    <t>Ajustes de opacidad: Se pueden ajustar las opacidades de los colores en los degradados para obtener transiciones más suaves o más drásticas.</t>
+  </si>
+  <si>
+    <t>Uso de capas: Es recomendable aplicar degradados en capas separadas para mantener la flexibilidad en la edición.</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;span class="fw-bold"&gt;</t>
   </si>
   <si>
-    <t>Esta herramienta esta en la barra de herramientas principal, generalmente representada por un pincel.</t>
-  </si>
-  <si>
-    <t>En la barra de opciones, se verá una amplia variedad de pinceles. Hacer clic en la flecha pequeña para desplegar la lista completa y seleccionar el que más convenga.</t>
+    <t>Una sola capa (la capa activa).</t>
+  </si>
+  <si>
+    <t>Actual e inferior.</t>
+  </si>
+  <si>
+    <t>Todas las capas.</t>
+  </si>
+  <si>
+    <t>Todas las capas sin ajustes.</t>
+  </si>
+  <si>
+    <t>Actual e inferior sin ajustes.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +694,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,7 +1060,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,16 +1084,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1057,89 +1102,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1151,24 +1196,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1534,760 +1580,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="15"/>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="15"/>
+      <c r="XFD55" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2305,773 +2351,773 @@
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
-    </row>
-    <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
+    </row>
+    <row r="3" ht="28.5" spans="2:16384">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes." /&gt;</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+        <v>&lt;meta name="description" content="Descubre cómo utilizar colores vibrantes y crear degradados impresionantes en Photoshop. Aprende técnicas profesionales para mejorar tus diseños gráficos, fotografías y arte digital." /&gt;</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="15"/>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html" /&gt;</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@color_y_degradados.html" /&gt;</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+        <v>&lt;meta property="og:title" content=" Color y Degradados en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes." /&gt;</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+        <v>&lt;meta property="og:description" content="Descubre cómo utilizar colores vibrantes y crear degradados impresionantes en Photoshop. Aprende técnicas profesionales para mejorar tus diseños gráficos, fotografías y arte digital." /&gt;</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html" /&gt;</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@color_y_degradados.html" /&gt;</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+        <v>&lt;meta name="twitter:title" content=" Color y Degradados en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="El uso de pinceles en Photoshop es una de las herramientas más versátiles y poderosas para la edición y creación de imágenes." /&gt;</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+        <v>&lt;meta name="twitter:description" content="Descubre cómo utilizar colores vibrantes y crear degradados impresionantes en Photoshop. Aprende técnicas profesionales para mejorar tus diseños gráficos, fotografías y arte digital." /&gt;</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
-        <v>Uso de Pinceles en Photoshop - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+        <v> Color y Degradados en Photoshop - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="15"/>
+      <c r="XFD55" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html" tooltip="https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@color_y_degradados.html" tooltip="https://eduardoherreraf.github.io/photoshop@color_y_degradados.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3096,757 +3142,757 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f>A12</f>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="15"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
         <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="15"/>
+      <c r="XFD55" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3875,754 +3921,754 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15"/>
-    <col min="3" max="3" width="139.991666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15"/>
-    <col min="5" max="5" width="35" style="15" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="15"/>
-    <col min="16384" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="0.158333333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16"/>
+    <col min="3" max="3" width="139.991666666667" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="35" style="16" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="16"/>
+    <col min="16384" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="16"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="16"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="16"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="21"/>
-      <c r="XFD4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="XFD4" s="16"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="15"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="16"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="16"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="16"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="16"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="15"/>
+      <c r="XFD9" s="16"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="23" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="16"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="16"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="16"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="15"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="16"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="23" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="15"/>
+      <c r="XFD14" s="16"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="16"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="16"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="16"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="16"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="15"/>
+      <c r="XFD19" s="16"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="15"/>
+      <c r="XFD20" s="16"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="15"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="16"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="16"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="15"/>
+      <c r="XFD23" s="16"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="16"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="16"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="16"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="16"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="16"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="16"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="15"/>
+      <c r="XFD30" s="16"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="23" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="15"/>
+      <c r="XFD31" s="16"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="16"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="16"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="16"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="15"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="16"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="23" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="16"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="15"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="16"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="15"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="16"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="16"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="15"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="16"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="15"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="16"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="16"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="16"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="15"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="16"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="23" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="15"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="16"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="16"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="23" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="15"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="16"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="23" t="str">
         <f>C1</f>
         <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="15"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="16"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="16"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="15"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="16"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="16"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="16"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="23" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="15"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="16"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="23" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="15"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4646,7 +4692,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4659,10 +4705,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4720,8 +4766,8 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="5" t="str">
-        <f>CONCATENATE("&lt;!--  ",$C$11,"  --&gt;")</f>
-        <v>&lt;!--  Uso de Pinceles  --&gt;</v>
+        <f>CONCATENATE("&lt;!--  ",$C$10,"  --&gt;")</f>
+        <v>&lt;!--   Color y degradados  --&gt;</v>
       </c>
     </row>
     <row r="8" spans="3:5">
@@ -4738,27 +4784,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="5" t="str">
-        <f>CONCATENATE("&lt;h1&gt;",C11,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Uso de Pinceles&lt;/h1&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>82</v>
-      </c>
+        <f>CONCATENATE("&lt;h1&gt;",C10,"&lt;/h1&gt;")</f>
+        <v>&lt;h1&gt; Color y degradados&lt;/h1&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>2</v>
       </c>
@@ -4773,12 +4819,12 @@
       <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>IF(C12&lt;&gt;"",CONCATENATE("&lt;p&gt;",C12,"&lt;/p&gt;"),"")</f>
-        <v>&lt;p&gt;Los pinceles en Photoshop son herramientas versátiles que te permiten crear una amplia gama de efectos, desde trazos simples hasta texturas complejas. Son fundamentales para pintar, dibujar, retocar y diseñar en este software.&lt;/p&gt;</v>
+        <f t="shared" ref="E12:E19" si="0">IF(C12&lt;&gt;"",CONCATENATE("&lt;p&gt;",C12,"&lt;/p&gt;"),"")</f>
+        <v>&lt;p&gt;En Photoshop, el color y los degradados son elementos fundamentales para el diseño y la edición de imágenes.&lt;/p&gt;</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>2</v>
@@ -4788,182 +4834,204 @@
       <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f>IF(C13&lt;&gt;"",CONCATENATE("&lt;p&gt;",C13,"&lt;/p&gt;"),"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;El color se puede aplicar de varias formas, desde herramientas de pincel hasta rellenos sólidos. Photoshop ofrece múltiples modelos de color como RGB, CMYK, y Lab, permitiendo una selección precisa mediante el Selector de color, paneles de muestras, o códigos hexadecimales.&lt;/p&gt;</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;Los degradados, por su parte, son transiciones suaves entre dos o más colores. Pueden ser lineales, radiales, de diamante, entre otros. Photoshop permite crear degradados personalizados, ajustar su dirección, opacidad y modo de fusión para lograr efectos variados.&lt;/p&gt;</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>82</v>
+      </c>
       <c r="E15" s="5" t="str">
-        <f>CONCATENATE("&lt;!-- ",C15," --&gt;")</f>
-        <v>&lt;!-- Conceptos Básicos --&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;Estas herramientas son esenciales para crear fondos, efectos de iluminación, dar profundidad a los diseños y mucho más.&lt;/p&gt;</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16" s="8"/>
+      <c r="D16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="27" t="s">
+        <v>82</v>
+      </c>
       <c r="E17" s="5" t="str">
-        <f>CONCATENATE("id=",Comillas,C17,Comillas)</f>
-        <v>id="conceptosBasicos"</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="C18" s="8"/>
+      <c r="D18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="27" t="s">
+        <v>82</v>
+      </c>
       <c r="E19" s="5" t="str">
-        <f>CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C15,"&lt;/h2&gt;")</f>
-        <v>&lt;h2 class="mt-1"&gt;Conceptos Básicos&lt;/h2&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="5" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;!-- ",C21," --&gt;"),"")</f>
-        <v>&lt;!-- Herramienta Parche (Patch Tool) --&gt;</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <f>IF(C22="si",CONCATENATE("&lt;!-- ",C21," --&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="9" t="str">
-        <f>IF(C21&lt;&gt;"","&lt;div","")</f>
-        <v>&lt;div</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="E22" s="10" t="str">
+        <f>IF(C22="si","&lt;div","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="5" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("id=",Comillas,C23,Comillas),"")</f>
-        <v>id="herramientaParche"</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <f>IF(C22="si",CONCATENATE("id=",Comillas,C23,Comillas),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="5" t="str">
-        <f>IF(C21&lt;&gt;"",F29,"")</f>
-        <v>class="mt-5 pt-5 "&gt;</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <f>IF(C22="si",$F$35,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="5" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C21,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Herramienta Parche (Patch Tool)&lt;/h2&gt;</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>2</v>
+        <f>IF(C22="si",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C21,"&lt;/h2&gt;"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -4972,9 +5040,9 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="9" t="str">
-        <f>IF(C21&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
+      <c r="E26" s="10" t="str">
+        <f>IF(C22="si","&lt;/div&gt;","")</f>
+        <v/>
       </c>
       <c r="G26" s="3" t="s">
         <v>2</v>
@@ -4982,18 +5050,18 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="5" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;!-- ",C27," --&gt;"),"")</f>
-        <v>&lt;!-- Color Primer Plano y Fondo --&gt;</v>
+        <v>&lt;!-- Elegir Color --&gt;</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>2</v>
@@ -5005,7 +5073,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="10" t="str">
         <f>IF(C27&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
@@ -5015,21 +5083,18 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="5" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("id=",Comillas,C29,Comillas),"")</f>
-        <v>id="colorPrimerPlanoyFondo"</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>101</v>
+        <v>id="elegirColor"</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>2</v>
@@ -5042,7 +5107,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="5" t="str">
-        <f>IF(C27&lt;&gt;"",F35,"")</f>
+        <f>IF(C27&lt;&gt;"",$F$35,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -5057,7 +5122,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="5" t="str">
         <f>IF(C27&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C27,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Color Primer Plano y Fondo&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Elegir Color&lt;/h2&gt;</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>2</v>
@@ -5069,7 +5134,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="9" t="str">
+      <c r="E32" s="10" t="str">
         <f>IF(C27&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
@@ -5079,16 +5144,18 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="5" t="str">
         <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;!-- ",C33," --&gt;"),"")</f>
-        <v/>
+        <v>&lt;!-- Muestras de Color --&gt;</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>2</v>
@@ -5100,9 +5167,9 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="9" t="str">
+      <c r="E34" s="10" t="str">
         <f>IF(C33&lt;&gt;"","&lt;div","")</f>
-        <v/>
+        <v>&lt;div</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>2</v>
@@ -5110,19 +5177,21 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="5" t="str">
         <f>IF(C33&lt;&gt;"",CONCATENATE("id=",Comillas,C35,Comillas),"")</f>
-        <v/>
+        <v>id="muestrasColor"</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>2</v>
@@ -5136,7 +5205,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="5" t="str">
         <f>IF(C33&lt;&gt;"",F41,"")</f>
-        <v/>
+        <v>class="mt-5 pt-5 "&gt;</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>2</v>
@@ -5150,10 +5219,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="5" t="str">
         <f>IF(C33&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C33,"&lt;/h2&gt;"),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>2</v>
+        <v>&lt;h2 class="mt-1"&gt;Muestras de Color&lt;/h2&gt;</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>2</v>
@@ -5165,9 +5231,9 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="9" t="str">
+      <c r="E38" s="10" t="str">
         <f>IF(C33&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
+        <v>&lt;/div&gt;</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>2</v>
@@ -5175,19 +5241,18 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="str">
         <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;!-- ",C39," --&gt;"),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>2</v>
+        <v>&lt;!-- Creación de Degradados --&gt;</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>2</v>
@@ -5199,12 +5264,9 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="9" t="str">
+      <c r="E40" s="10" t="str">
         <f>IF(C39&lt;&gt;"","&lt;div","")</f>
-        <v/>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>2</v>
+        <v>&lt;div</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
@@ -5212,19 +5274,21 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="5" t="str">
         <f>IF(C39&lt;&gt;"",CONCATENATE("id=",Comillas,C41,Comillas),"")</f>
-        <v/>
+        <v>id="creacionDegradados"</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>2</v>
@@ -5234,9 +5298,11 @@
       <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="5" t="str">
-        <f>IF(C39&lt;&gt;"",F48,"")</f>
-        <v/>
+        <f>IF(C39&lt;&gt;"",F47,"")</f>
+        <v>class="mt-5 pt-5 "&gt;</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>2</v>
@@ -5246,9 +5312,14 @@
       <c r="B43" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="5" t="str">
         <f>IF(C39&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C39,"&lt;/h2&gt;"),"")</f>
-        <v/>
+        <v>&lt;h2 class="mt-1"&gt;Creación de Degradados&lt;/h2&gt;</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2</v>
@@ -5258,20 +5329,31 @@
       <c r="B44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="9" t="str">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="10" t="str">
         <f>IF(C39&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
+        <v>&lt;/div&gt;</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="1:7">
+      <c r="A45" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>92</v>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="5" t="str">
+        <f>IF(C45&lt;&gt;"",CONCATENATE("&lt;!-- ",C45," --&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2</v>
@@ -5281,230 +5363,336 @@
       <c r="B46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>106</v>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="10" t="str">
+        <f>IF(C45&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="5" t="str">
-        <f>CONCATENATE("&lt;!--  ",$C$11,"  --&gt;")</f>
-        <v>&lt;!--  Uso de Pinceles  --&gt;</v>
+        <f>IF(C45&lt;&gt;"",CONCATENATE("id=",Comillas,C47,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:7">
       <c r="B48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>101</v>
+      <c r="E48" s="5" t="str">
+        <f>IF(C45&lt;&gt;"",F54,"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="12"/>
+      <c r="E49" s="5" t="str">
+        <f>IF(C45&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C45,"&lt;/h2&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="E50" s="10" t="str">
+        <f>IF(C45&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v/>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="E51" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="E52" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>35</v>
+      <c r="E53" s="5" t="str">
+        <f>CONCATENATE("&lt;!--  ",$C$10,"  --&gt;")</f>
+        <v>&lt;!--   Color y degradados  --&gt;</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>112</v>
+      <c r="E54" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>118</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="3" t="str">
-        <f>CONCATENATE("&lt;a href=",Comillas,"#",C17,Comillas,"&gt;",C15,"&lt;/a&gt;")</f>
-        <v>&lt;a href="#conceptosBasicos"&gt;Conceptos Básicos&lt;/a&gt;</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="E56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="3" t="str">
-        <f>IF($C$15&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>2</v>
+      <c r="E57" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="3" t="str">
-        <f>IF(C$21&lt;&gt;"","&lt;li&gt;","")</f>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f>IF($C$22="si","&lt;li&gt;","")</f>
+        <v/>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f>IF(C22="si",CONCATENATE("&lt;a href=",Comillas,"#",C23,Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3" t="str">
+        <f>IF($C$22="si","&lt;/li&gt;","")</f>
+        <v/>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f>IF(C$27&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3" t="str">
-        <f>IF(C$21&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C23,Comillas,"&gt;",C21,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#herramientaParche"&gt;Herramienta Parche (Patch Tool)&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="3" t="str">
-        <f>IF($C$21&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="3" t="str">
-        <f>IF($C$27&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" s="3" t="str">
-        <f>IF($C$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C29,Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#colorPrimerPlanoyFondo"&gt;Color Primer Plano y Fondo&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" s="3" t="str">
+    <row r="65" spans="2:5">
+      <c r="B65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3" t="str">
+        <f>IF(C$27&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C29,Comillas,"&gt;",C27,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#elegirColor"&gt;Elegir Color&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="3" t="str">
         <f>IF($C$27&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="3" t="str">
-        <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="3" t="str">
-        <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C35,Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="3" t="str">
-        <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="str">
-        <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
+        <f>IF($C$33&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" s="3" t="str">
-        <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C41,Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
-        <v/>
+        <f>IF($C$33&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C35,Comillas,"&gt;",C33,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#muestrasColor"&gt;Muestras de Color&lt;/a&gt;</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" s="3" t="str">
+        <f>IF($C$33&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="3" t="str">
+        <f>IF($C$39&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="3" t="str">
+        <f>IF($C$39&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C41,Comillas,"&gt;",C39,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#creacionDegradados"&gt;Creación de Degradados&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="3" t="str">
         <f>IF($C$39&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="3" t="s">
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="3" t="str">
+        <f>IF($C$45&lt;&gt;"","&lt;li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="3" t="str">
+        <f>IF($C$45&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C47,Comillas,"&gt;",C45,"&lt;/a&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="3" t="str">
+        <f>IF($C$45&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C$1:D$1048576">
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:D16">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:D17">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:D18">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:D19">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" location="HerramientaMarcoRectangular" display="Conceptos Básicos"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="C1:D12;C20:D1048576;D13">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5526,77 +5714,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5611,7 +5799,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5622,12 +5810,12 @@
   <sheetData>
     <row r="1" spans="7:7">
       <c r="G1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G2" t="str">
         <f>B2</f>
@@ -5636,7 +5824,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B13" si="0">IF(A3&lt;&gt;"",$C$14,"")</f>
@@ -5644,7 +5832,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C13" si="1">IF(A3&lt;&gt;"",LEFT(A3,FIND(":",A3,1)-1),"")</f>
-        <v>Cuadro de Color</v>
+        <v>Degradados personalizados</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D13" si="2">IF(A3&lt;&gt;"","&lt;/span&gt;","")</f>
@@ -5652,7 +5840,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E13" si="3">IF(A3&lt;&gt;"",RIGHT(A3,LEN(A3)-FIND(":",A3,1)),"")</f>
-        <v> Haciendo clic en el cuadro de color de primer plano o de fondo (ubicado en la barra de herramientas), se abrirá el selector de color. Aquí puedes elegir un color de la paleta o ingresar un valor hexadecimal o RGB específico.</v>
+        <v> Al crear un degradado personalizado en el editor de degradados, es posible guardar el degradado para usarlo en futuros proyectos.</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F13" si="4">IF(A3&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -5660,12 +5848,12 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G7" si="5">IF(A3&lt;&gt;"",CONCATENATE(B3,C3,D3,":",E3,F3),IF(A2&lt;&gt;"",$B$14,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Cuadro de Color&lt;/span&gt;: Haciendo clic en el cuadro de color de primer plano o de fondo (ubicado en la barra de herramientas), se abrirá el selector de color. Aquí puedes elegir un color de la paleta o ingresar un valor hexadecimal o RGB específico.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Degradados personalizados&lt;/span&gt;: Al crear un degradado personalizado en el editor de degradados, es posible guardar el degradado para usarlo en futuros proyectos.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -5673,7 +5861,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Valores Rápidos</v>
+        <v>Ajustes de opacidad</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
@@ -5681,7 +5869,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v> Al hacer doble clic en el cuadro de color de primer plano, se abre el selector donde puedes ver y ajustar los valores.</v>
+        <v> Se pueden ajustar las opacidades de los colores en los degradados para obtener transiciones más suaves o más drásticas.</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="4"/>
@@ -5689,34 +5877,36 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Valores Rápidos&lt;/span&gt;: Al hacer doble clic en el cuadro de color de primer plano, se abre el selector donde puedes ver y ajustar los valores.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Ajustes de opacidad&lt;/span&gt;: Se pueden ajustar las opacidades de los colores en los degradados para obtener transiciones más suaves o más drásticas.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Uso de capas</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/span&gt;</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v> Es recomendable aplicar degradados en capas separadas para mantener la flexibilidad en la edición.</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Uso de capas&lt;/span&gt;: Es recomendable aplicar degradados en capas separadas para mantener la flexibilidad en la edición.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5743,7 +5933,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5937,10 +6127,10 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G14" t="str">
         <f>IF(A14&lt;&gt;"",CONCATENATE(B14,#REF!,D14,":",E14,F14),$B$14)</f>
@@ -5949,12 +6139,12 @@
     </row>
     <row r="16" spans="7:7">
       <c r="G16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G17" t="str">
         <f>B17</f>
@@ -5963,7 +6153,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ref="B18:B28" si="7">IF(A18&lt;&gt;"","&lt;li&gt;","")</f>
@@ -5975,12 +6165,12 @@
       </c>
       <c r="G18" t="str">
         <f>IF(A18&lt;&gt;"",CONCATENATE(B18,A18,F18),$D$29)</f>
-        <v>&lt;li&gt;Esta herramienta esta en la barra de herramientas principal, generalmente representada por un pincel.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Una sola capa (la capa activa).&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="7"/>
@@ -6004,88 +6194,94 @@
       </c>
       <c r="G19" t="str">
         <f>IF(A19&lt;&gt;"",CONCATENATE(B19,A19,F19),$D$29)</f>
-        <v>&lt;li&gt;En la barra de opciones, se verá una amplia variedad de pinceles. Hacer clic en la flecha pequeña para desplegar la lista completa y seleccionar el que más convenga.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Actual e inferior.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B20" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C20" t="str">
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="C20" t="e">
         <f t="shared" si="9"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E20" t="str">
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E20" t="e">
         <f t="shared" si="11"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ref="G20:G28" si="12">IF(A20&lt;&gt;"",CONCATENATE(B20,A20,F20),IF(A19&lt;&gt;"",$D$29,""))</f>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;Todas las capas.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="B21" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C21" t="str">
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="C21" t="e">
         <f t="shared" si="9"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E21" t="str">
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E21" t="e">
         <f t="shared" si="11"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>&lt;li&gt;Todas las capas sin ajustes.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B22" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C22" t="str">
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="C22" t="e">
         <f t="shared" si="9"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E22" t="str">
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E22" t="e">
         <f t="shared" si="11"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>&lt;li&gt;Actual e inferior sin ajustes.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6112,7 +6308,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6252,10 +6448,10 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D29" t="str">
         <f>IF(A29&lt;&gt;"",CONCATENATE(B29,#REF!,#REF!,":",E29,F29),$B$14)</f>
@@ -6263,6 +6459,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12900" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27930" windowHeight="12900" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="152">
   <si>
     <t>Título</t>
   </si>
@@ -261,7 +261,7 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t>Filtros Neurales</t>
+    <t>Filtros Licuar</t>
   </si>
   <si>
     <t/>
@@ -270,7 +270,30 @@
     <t>Parrafo 1</t>
   </si>
   <si>
-    <t>Los filtros neurales en Photoshop son una herramienta que permite aplicar efectos avanzados de inteligencia artificial (IA) a las imágenes de manera sencilla. Estos filtros utilizan redes neuronales para realizar tareas complejas de edición de fotos que antes requerían mucho tiempo o conocimientos técnicos avanzados. Algunos de los filtros más destacados incluyen:</t>
+    <r>
+      <t xml:space="preserve">Los </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filtros de licuar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en Adobe Photoshop permiten realizar ajustes en las imágenes de manera no destructiva, manipulando píxeles para alterar formas y detalles sin afectar la calidad general de la imagen. A continuación, se detallan las herramientas clave del filtro de licuar:</t>
+    </r>
   </si>
   <si>
     <t>Parrafo 2</t>
@@ -309,18 +332,27 @@
     <t>Area de trabajo 2</t>
   </si>
   <si>
+    <t>Licuar 1</t>
+  </si>
+  <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>filtrosNeurales</t>
+    <t>Licuar1</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
   </si>
   <si>
+    <t>Licuar 2</t>
+  </si>
+  <si>
     <t>areaDeTrabajo3</t>
   </si>
   <si>
+    <t>Licuar2</t>
+  </si>
+  <si>
     <t>class="mt-5 pt-5 "&gt;</t>
   </si>
   <si>
@@ -447,49 +479,31 @@
     <t>&lt;ul&gt;</t>
   </si>
   <si>
-    <t>Abrir una imagen: Primero, se debe abrir la imagen sobre la que se desea aplicar un filtro neural.</t>
-  </si>
-  <si>
-    <t>Acceder a los Filtros Neurales: Ir a la barra de menú superior y seleccionar:</t>
-  </si>
-  <si>
-    <t>Descargar los Filtros (si es necesario): Algunos filtros neurales pueden no estar instalados por defecto. Si aparece un ícono de nube al lado del filtro, se debe hacer clic en él para descargarlo e instalarlo antes de usarlo.</t>
-  </si>
-  <si>
-    <t>Seleccionar un Filtro: Los filtros se dividen en categorías, como:</t>
-  </si>
-  <si>
-    <t>Ajustar los Parámetros: Una vez seleccionado el filtro, se pueden ajustar sus parámetros mediante controles deslizantes. Cada filtro ofrece diferentes opciones de ajuste, como la intensidad, la dirección o la escala de los efectos.</t>
-  </si>
-  <si>
-    <t>Vista previa en tiempo real: Photoshop permite ver cómo los cambios afectarán a la imagen en tiempo real mientras se ajustan los parámetros del filtro.</t>
-  </si>
-  <si>
-    <t>Aplicar el Filtro: Después de ajustar el filtro a satisfacción, se puede hacer clic en Aceptar para aplicarlo a la imagen. Si se desea mantener la imagen original intacta, es recomendable trabajar con capas duplicadas.</t>
-  </si>
-  <si>
-    <t>Guardar la imagen: Una vez aplicado el filtro, se puede guardar la imagen editada en el formato deseado.</t>
+    <t>Tamaño del pincel: Determina qué tan grande será el área que desea deformar.</t>
+  </si>
+  <si>
+    <t>Densidad del pincel: Controla la suavidad de los bordes del pincel. Una densidad alta hace que los bordes de la deformación sean más suaves.</t>
+  </si>
+  <si>
+    <t>Presión del pincel: Ajusta la intensidad de la deformación. A mayor presión, más drástica será la modificación.</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;span class="fw-bold"&gt;</t>
   </si>
   <si>
-    <t>Hacer clic derecho sobre la capa seleccionada y elijir la opción "Convertir en Objeto Inteligente".</t>
-  </si>
-  <si>
-    <t>Alternativamente, se puede ir al menú superior y seleccionar Capa  &gt; Objetos inteligentes &gt; Convertir en objeto inteligente &gt;.</t>
-  </si>
-  <si>
-    <t>Una vez convertida, verá un pequeño icono en la esquina inferior derecha de la miniatura de la capa, lo que indica que ahora es un Objeto Inteligente.</t>
-  </si>
-  <si>
-    <t>ps@filtroNeuralColorizerGuerzarNuevaCapaFinal.jpg</t>
+    <t>Una vez configurado el pincel, haga clic en la imagen y arrastre en la dirección en que desea mover los píxeles. A medida que arrastra, los píxeles se moverán de forma continua.</t>
+  </si>
+  <si>
+    <t>Para obtener resultados más sutiles, use movimientos cortos y repetitivos. Para cambios más grandes, puede arrastrar el pincel a mayor distancia.</t>
+  </si>
+  <si>
+    <t>ps@filtroLicuarBocaComparacion.jpg</t>
   </si>
   <si>
     <t>&lt;div class="text-center imagen"&gt;</t>
   </si>
   <si>
-    <t>Filtro Neural Colorizer  Nueva Capa Final</t>
+    <t>Filtro Licuar Comparación Edición Boca</t>
   </si>
   <si>
     <t>&lt;img src="./images/</t>
@@ -515,7 +529,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,6 +720,14 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2433,12 +2455,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3214,9 +3236,9 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C35"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3274,7 +3296,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="20" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Filtros Neurales  --&gt;</v>
+        <v>&lt;!--  Filtros Licuar  --&gt;</v>
       </c>
     </row>
     <row r="7" spans="3:5">
@@ -3306,7 +3328,7 @@
       </c>
       <c r="E9" s="20" t="str">
         <f>CONCATENATE("&lt;h1&gt;",C9,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Filtros Neurales&lt;/h1&gt;</v>
+        <v>&lt;h1&gt;Filtros Licuar&lt;/h1&gt;</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -3323,7 +3345,7 @@
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -3331,7 +3353,7 @@
       </c>
       <c r="E11" s="20" t="str">
         <f t="shared" ref="E11:E18" si="0">IF(C11&lt;&gt;"",CONCATENATE("&lt;p&gt;",C11,"&lt;/p&gt;"),"")</f>
-        <v>&lt;p&gt;Los filtros neurales en Photoshop son una herramienta que permite aplicar efectos avanzados de inteligencia artificial (IA) a las imágenes de manera sencilla. Estos filtros utilizan redes neuronales para realizar tareas complejas de edición de fotos que antes requerían mucho tiempo o conocimientos técnicos avanzados. Algunos de los filtros más destacados incluyen:&lt;/p&gt;</v>
+        <v>&lt;p&gt;Los filtros de licuar en Adobe Photoshop permiten realizar ajustes en las imágenes de manera no destructiva, manipulando píxeles para alterar formas y detalles sin afectar la calidad general de la imagen. A continuación, se detallan las herramientas clave del filtro de licuar:&lt;/p&gt;</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>2</v>
@@ -3555,12 +3577,12 @@
         <v>2</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="20" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;!-- ",C26," --&gt;"),"")</f>
-        <v>&lt;!-- Filtros Neurales --&gt;</v>
+        <v>&lt;!-- Licuar 1 --&gt;</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>2</v>
@@ -3582,18 +3604,18 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="20" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("id=",Comillas,C28,Comillas),"")</f>
-        <v>id="filtrosNeurales"</v>
+        <v>id="Licuar1"</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>2</v>
@@ -3621,7 +3643,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="20" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C26,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Filtros Neurales&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Licuar 1&lt;/h2&gt;</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>2</v>
@@ -3643,16 +3665,18 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="D32" s="23"/>
       <c r="E32" s="20" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;!-- ",C32," --&gt;"),"")</f>
-        <v/>
+        <v>&lt;!-- Licuar 2 --&gt;</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>2</v>
@@ -3666,7 +3690,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="25" t="str">
         <f>IF(C32&lt;&gt;"","&lt;div","")</f>
-        <v/>
+        <v>&lt;div</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>2</v>
@@ -3674,19 +3698,21 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="D34" s="23"/>
       <c r="E34" s="20" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("id=",Comillas,C34,Comillas),"")</f>
-        <v/>
+        <v>id="Licuar2"</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>2</v>
@@ -3700,7 +3726,7 @@
       <c r="D35" s="18"/>
       <c r="E35" s="20" t="str">
         <f>IF(C32&lt;&gt;"",$F$34,"")</f>
-        <v/>
+        <v>class="mt-5 pt-5 "&gt;</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>2</v>
@@ -3714,7 +3740,7 @@
       <c r="D36" s="18"/>
       <c r="E36" s="20" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C32,"&lt;/h2&gt;"),"")</f>
-        <v/>
+        <v>&lt;h2 class="mt-1"&gt;Licuar 2&lt;/h2&gt;</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>2</v>
@@ -3728,7 +3754,7 @@
       <c r="D37" s="18"/>
       <c r="E37" s="25" t="str">
         <f>IF(C32&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
+        <v>&lt;/div&gt;</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>2</v>
@@ -3736,7 +3762,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>2</v>
@@ -3767,7 +3793,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>2</v>
@@ -3779,7 +3805,7 @@
         <v/>
       </c>
       <c r="F40" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>2</v>
@@ -3832,7 +3858,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>2</v>
@@ -3863,7 +3889,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>2</v>
@@ -3875,7 +3901,7 @@
         <v/>
       </c>
       <c r="F46" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>2</v>
@@ -3928,7 +3954,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>2</v>
@@ -3965,7 +3991,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>2</v>
@@ -3977,7 +4003,7 @@
         <v/>
       </c>
       <c r="F52" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>2</v>
@@ -4021,7 +4047,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>2</v>
@@ -4052,7 +4078,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>2</v>
@@ -4064,7 +4090,7 @@
         <v/>
       </c>
       <c r="F58" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>2</v>
@@ -4120,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>2</v>
@@ -4131,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>2</v>
@@ -4143,7 +4169,7 @@
       </c>
       <c r="E64" s="20" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Filtros Neurales  --&gt;</v>
+        <v>&lt;!--  Filtros Licuar  --&gt;</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>2</v>
@@ -4154,10 +4180,10 @@
         <v>2</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -4165,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G66" s="28"/>
     </row>
@@ -4174,7 +4200,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G67" s="29"/>
     </row>
@@ -4183,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -4197,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>35</v>
@@ -4205,7 +4231,7 @@
     </row>
     <row r="71" spans="5:5">
       <c r="E71" s="18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="5:5">
@@ -4247,7 +4273,7 @@
       </c>
       <c r="E76" s="18" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C28,Comillas,"&gt;",C26,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#filtrosNeurales"&gt;Filtros Neurales&lt;/a&gt;</v>
+        <v>&lt;a href="#Licuar1"&gt;Licuar 1&lt;/a&gt;</v>
       </c>
     </row>
     <row r="77" spans="5:5">
@@ -4259,19 +4285,19 @@
     <row r="78" spans="5:5">
       <c r="E78" s="18" t="str">
         <f>IF(C32&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
+        <v>&lt;li&gt;</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" s="18" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C34,Comillas,"&gt;",C32,"&lt;/a&gt;"),"")</f>
-        <v/>
+        <v>&lt;a href="#Licuar2"&gt;Licuar 2&lt;/a&gt;</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" s="18" t="str">
         <f>IF(C32&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
     </row>
     <row r="81" spans="5:5">
@@ -4356,29 +4382,29 @@
       <c r="C93" s="30"/>
       <c r="D93" s="30"/>
       <c r="E93" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="5:5">
@@ -4433,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
@@ -4445,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>2</v>
@@ -4457,7 +4483,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
@@ -4574,7 +4600,7 @@
     </row>
     <row r="12" spans="1:16384">
       <c r="A12" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>A12</f>
@@ -5212,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
@@ -5224,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>2</v>
@@ -5236,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
@@ -5353,7 +5379,7 @@
     </row>
     <row r="12" spans="1:16384">
       <c r="A12" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5970,7 +5996,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5995,77 +6021,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6079,8 +6105,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6093,12 +6119,12 @@
   <sheetData>
     <row r="1" spans="7:7">
       <c r="G1" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" ht="15" spans="2:7">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>B2</f>
@@ -6107,7 +6133,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B13" si="0">IF(A3&lt;&gt;"",$C$14,"")</f>
@@ -6115,7 +6141,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C13" si="1">IF(A3&lt;&gt;"",LEFT(A3,FIND(":",A3,1)-1),"")</f>
-        <v>Abrir una imagen</v>
+        <v>Tamaño del pincel</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D13" si="2">IF(A3&lt;&gt;"","&lt;/span&gt;","")</f>
@@ -6123,7 +6149,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E13" si="3">IF(A3&lt;&gt;"",RIGHT(A3,LEN(A3)-FIND(":",A3,1)),"")</f>
-        <v> Primero, se debe abrir la imagen sobre la que se desea aplicar un filtro neural.</v>
+        <v> Determina qué tan grande será el área que desea deformar.</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F13" si="4">IF(A3&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -6131,12 +6157,12 @@
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3:G7" si="5">IF(A3&lt;&gt;"",CONCATENATE(B3,C3,D3,":",E3,F3),IF(A2&lt;&gt;"",$B$14,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Abrir una imagen&lt;/span&gt;: Primero, se debe abrir la imagen sobre la que se desea aplicar un filtro neural.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Tamaño del pincel&lt;/span&gt;: Determina qué tan grande será el área que desea deformar.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -6144,7 +6170,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a los Filtros Neurales</v>
+        <v>Densidad del pincel</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
@@ -6152,7 +6178,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v> Ir a la barra de menú superior y seleccionar:</v>
+        <v> Controla la suavidad de los bordes del pincel. Una densidad alta hace que los bordes de la deformación sean más suaves.</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="4"/>
@@ -6160,12 +6186,12 @@
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Acceder a los Filtros Neurales&lt;/span&gt;: Ir a la barra de menú superior y seleccionar:&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Densidad del pincel&lt;/span&gt;: Controla la suavidad de los bordes del pincel. Una densidad alta hace que los bordes de la deformación sean más suaves.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -6173,7 +6199,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Descargar los Filtros (si es necesario)</v>
+        <v>Presión del pincel</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
@@ -6181,7 +6207,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v> Algunos filtros neurales pueden no estar instalados por defecto. Si aparece un ícono de nube al lado del filtro, se debe hacer clic en él para descargarlo e instalarlo antes de usarlo.</v>
+        <v> Ajusta la intensidad de la deformación. A mayor presión, más drástica será la modificación.</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="4"/>
@@ -6189,152 +6215,142 @@
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Descargar los Filtros (si es necesario)&lt;/span&gt;: Algunos filtros neurales pueden no estar instalados por defecto. Si aparece un ícono de nube al lado del filtro, se debe hacer clic en él para descargarlo e instalarlo antes de usarlo.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Presión del pincel&lt;/span&gt;: Ajusta la intensidad de la deformación. A mayor presión, más drástica será la modificación.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
+        <v/>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>Seleccionar un Filtro</v>
+        <v/>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/span&gt;</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v> Los filtros se dividen en categorías, como:</v>
+        <v/>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Seleccionar un Filtro&lt;/span&gt;: Los filtros se dividen en categorías, como:&lt;/li&gt;</v>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>Ajustar los Parámetros</v>
+        <v/>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/span&gt;</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v> Una vez seleccionado el filtro, se pueden ajustar sus parámetros mediante controles deslizantes. Cada filtro ofrece diferentes opciones de ajuste, como la intensidad, la dirección o la escala de los efectos.</v>
+        <v/>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Ajustar los Parámetros&lt;/span&gt;: Una vez seleccionado el filtro, se pueden ajustar sus parámetros mediante controles deslizantes. Cada filtro ofrece diferentes opciones de ajuste, como la intensidad, la dirección o la escala de los efectos.&lt;/li&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>Vista previa en tiempo real</v>
+        <v/>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/span&gt;</v>
+        <v/>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="3"/>
-        <v> Photoshop permite ver cómo los cambios afectarán a la imagen en tiempo real mientras se ajustan los parámetros del filtro.</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" ref="G8:G13" si="6">IF(A8&lt;&gt;"",CONCATENATE(B8,C8,D8,":",E8,F8),IF(A7&lt;&gt;"",$B$14,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Vista previa en tiempo real&lt;/span&gt;: Photoshop permite ver cómo los cambios afectarán a la imagen en tiempo real mientras se ajustan los parámetros del filtro.&lt;/li&gt;</v>
+        <f t="shared" ref="G8:G14" si="6">IF(A8&lt;&gt;"",CONCATENATE(B8,C8,D8,":",E8,F8),IF(A7&lt;&gt;"",$B$14,""))</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
+        <v/>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Aplicar el Filtro</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/span&gt;</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="3"/>
-        <v> Después de ajustar el filtro a satisfacción, se puede hacer clic en Aceptar para aplicarlo a la imagen. Si se desea mantener la imagen original intacta, es recomendable trabajar con capas duplicadas.</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Aplicar el Filtro&lt;/span&gt;: Después de ajustar el filtro a satisfacción, se puede hacer clic en Aceptar para aplicarlo a la imagen. Si se desea mantener la imagen original intacta, es recomendable trabajar con capas duplicadas.&lt;/li&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
+        <v/>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Guardar la imagen</v>
+        <v/>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;/span&gt;</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="3"/>
-        <v> Una vez aplicado el filtro, se puede guardar la imagen editada en el formato deseado.</v>
+        <v/>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Guardar la imagen&lt;/span&gt;: Una vez aplicado el filtro, se puede guardar la imagen editada en el formato deseado.&lt;/li&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6361,7 +6377,7 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;/ul&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6420,24 +6436,24 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>IF(A14&lt;&gt;"",CONCATENATE(B14,#REF!,D14,":",E14,F14),$B$14)</f>
-        <v>&lt;/ul&gt;</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:7">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G17" s="2" t="str">
         <f>B17</f>
@@ -6446,7 +6462,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ref="B18:B28" si="7">IF(A18&lt;&gt;"","&lt;li&gt;","")</f>
@@ -6458,12 +6474,12 @@
       </c>
       <c r="G18" s="2" t="str">
         <f>IF(A18&lt;&gt;"",CONCATENATE(B18,A18,F18),$D$29)</f>
-        <v>&lt;li&gt;Hacer clic derecho sobre la capa seleccionada y elijir la opción "Convertir en Objeto Inteligente".&lt;/li&gt;</v>
+        <v>&lt;li&gt;Una vez configurado el pincel, haga clic en la imagen y arrastre en la dirección en que desea mover los píxeles. A medida que arrastra, los píxeles se moverán de forma continua.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="7"/>
@@ -6475,36 +6491,34 @@
       </c>
       <c r="G19" s="2" t="str">
         <f>IF(A19&lt;&gt;"",CONCATENATE(B19,A19,F19),$D$29)</f>
-        <v>&lt;li&gt;Alternativamente, se puede ir al menú superior y seleccionar Capa  &gt; Objetos inteligentes &gt; Convertir en objeto inteligente &gt;.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Para obtener resultados más sutiles, use movimientos cortos y repetitivos. Para cambios más grandes, puede arrastrar el pincel a mayor distancia.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;li&gt;</v>
-      </c>
-      <c r="C20" t="e">
+        <v/>
+      </c>
+      <c r="C20" t="str">
         <f t="shared" ref="C18:C28" si="9">IF(A20&lt;&gt;"",LEFT(A20,FIND(":",A20,1)-1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D20" t="str">
         <f t="shared" ref="D18:D28" si="10">IF(A20&lt;&gt;"","&lt;/span&gt;","")</f>
-        <v>&lt;/span&gt;</v>
-      </c>
-      <c r="E20" t="e">
+        <v/>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" ref="E18:E28" si="11">IF(A20&lt;&gt;"",RIGHT(A20,LEN(A20)-FIND(":",A20,1)),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ref="G20:G28" si="12">IF(A20&lt;&gt;"",CONCATENATE(B20,A20,F20),IF(A19&lt;&gt;"",$D$29,""))</f>
-        <v>&lt;li&gt;Una vez convertida, verá un pequeño icono en la esquina inferior derecha de la miniatura de la capa, lo que indica que ahora es un Objeto Inteligente.&lt;/li&gt;</v>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6531,7 +6545,7 @@
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;/ul&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6725,10 +6739,10 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" t="str">
         <f>IF(A29&lt;&gt;"",CONCATENATE(B29,#REF!,#REF!,":",E29,F29),$B$14)</f>
@@ -6738,42 +6752,42 @@
     <row r="30" ht="15"/>
     <row r="31" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="7" t="str">
         <f>CONCATENATE(B32,A31,C32,A32,D32)</f>
-        <v>&lt;img src="./images/ps@filtroNeuralColorizerGuerzarNuevaCapaFinal.jpg" class="img-fluid" alt="Filtro Neural Colorizer  Nueva Capa Final"&gt;</v>
+        <v>&lt;img src="./images/ps@filtroLicuarBocaComparacion.jpg" class="img-fluid" alt="Filtro Licuar Comparación Edición Boca"&gt;</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6781,7 +6795,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1" display="ps@filtroNeuralColorizerGuerzarNuevaCapaFinal.jpg" tooltip="mailto:ps@filtroNeuralColorizerGuerzarNuevaCapaFinal.jpg"/>
+    <hyperlink ref="A31" r:id="rId1" display="ps@filtroLicuarBocaComparacion.jpg" tooltip="mailto:ps@filtroLicuarBocaComparacion.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="157">
   <si>
     <t>Título</t>
   </si>
@@ -225,13 +225,13 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Trabajo con Capas en Photoshop - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html</t>
-  </si>
-  <si>
-    <t>Los diseñadores desbloquean el potencial creativo de Photoshop dominando el trabajo con capas. Esta funcionalidad permite combinar elementos, ajustar imágenes y crear composiciones complejas con precisión y flexibilidad. Dominar las capas eleva los proyectos visuales al siguiente nivel.</t>
+    <t>Metadatos y Exportación en Photoshop - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/photoshop@metadata_y_Exportacion.html</t>
+  </si>
+  <si>
+    <t>Descubra cómo dominar los metadatos y exportación en Photoshop. El diseñador aprenderá a optimizar imágenes, gestionar información clave y exportar con precisión para web, impresión y más. Técnicas esenciales para profesionales del diseño gráfico.</t>
   </si>
   <si>
     <t>Plantilla Cuerpo</t>
@@ -261,7 +261,7 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t>Filtros Licuar</t>
+    <t>Metadatos y Exportación</t>
   </si>
   <si>
     <t/>
@@ -270,35 +270,15 @@
     <t>Parrafo 1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Los </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>filtros de licuar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en Adobe Photoshop permiten realizar ajustes en las imágenes de manera no destructiva, manipulando píxeles para alterar formas y detalles sin afectar la calidad general de la imagen. A continuación, se detallan las herramientas clave del filtro de licuar:</t>
-    </r>
+    <t>Los metadatos en Photoshop se refieren a la información adicional sobre una imagen, como detalles técnicos (por ejemplo, dimensiones, resolución), información del autor, derechos de autor, y más. Estos metadatos son útiles para mantener un registro detallado sobre la creación, edición y uso de las imágenes.</t>
   </si>
   <si>
     <t>Parrafo 2</t>
   </si>
   <si>
+    <t>Photoshop permite exportar imágenes en diversos formatos, dependiendo del uso que se quiera dar a la imagen (web, impresión, etc.).</t>
+  </si>
+  <si>
     <t>Parrafo 3</t>
   </si>
   <si>
@@ -323,6 +303,9 @@
     <t>Conceptos Básicos</t>
   </si>
   <si>
+    <t>si</t>
+  </si>
+  <si>
     <t>areaDeTrabajo1</t>
   </si>
   <si>
@@ -332,25 +315,25 @@
     <t>Area de trabajo 2</t>
   </si>
   <si>
-    <t>Licuar 1</t>
+    <t>Agregar y Quitar Metadatos</t>
   </si>
   <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>Licuar1</t>
+    <t>agregarQuitarMetadatos</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
   </si>
   <si>
-    <t>Licuar 2</t>
+    <t>Exportar Composiciones</t>
   </si>
   <si>
     <t>areaDeTrabajo3</t>
   </si>
   <si>
-    <t>Licuar2</t>
+    <t>exportarComposiciones</t>
   </si>
   <si>
     <t>class="mt-5 pt-5 "&gt;</t>
@@ -479,31 +462,40 @@
     <t>&lt;ul&gt;</t>
   </si>
   <si>
-    <t>Tamaño del pincel: Determina qué tan grande será el área que desea deformar.</t>
-  </si>
-  <si>
-    <t>Densidad del pincel: Controla la suavidad de los bordes del pincel. Una densidad alta hace que los bordes de la deformación sean más suaves.</t>
-  </si>
-  <si>
-    <t>Presión del pincel: Ajusta la intensidad de la deformación. A mayor presión, más drástica será la modificación.</t>
+    <t>Guardar como archivo de Photoshop (PSD):</t>
+  </si>
+  <si>
+    <t>Guardar como imagen (JPEG, PNG, etc.):</t>
+  </si>
+  <si>
+    <t>Guardar para web:</t>
+  </si>
+  <si>
+    <t>Guardar como PDF:</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;span class="fw-bold"&gt;</t>
   </si>
   <si>
-    <t>Una vez configurado el pincel, haga clic en la imagen y arrastre en la dirección en que desea mover los píxeles. A medida que arrastra, los píxeles se moverán de forma continua.</t>
-  </si>
-  <si>
-    <t>Para obtener resultados más sutiles, use movimientos cortos y repetitivos. Para cambios más grandes, puede arrastrar el pincel a mayor distancia.</t>
-  </si>
-  <si>
-    <t>ps@filtroLicuarBocaComparacion.jpg</t>
+    <t>Ir a Archivo &gt; Exportar &gt; Guardar para web.</t>
+  </si>
+  <si>
+    <t>Seleccionar el formato (JPEG, PNG-8, PNG-24, GIF, etc.).</t>
+  </si>
+  <si>
+    <t>Ajustar la calidad y el tamaño de la imagen.</t>
+  </si>
+  <si>
+    <t>Hacer clic en Guardar y elegir la ubicación.</t>
+  </si>
+  <si>
+    <t>ps@informacionAchivoBasico.jpg</t>
   </si>
   <si>
     <t>&lt;div class="text-center imagen"&gt;</t>
   </si>
   <si>
-    <t>Filtro Licuar Comparación Edición Boca</t>
+    <t>informacion de Achivo Basico</t>
   </si>
   <si>
     <t>&lt;img src="./images/</t>
@@ -529,7 +521,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +533,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,14 +560,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -720,14 +712,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -988,19 +972,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1016,6 +987,19 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1149,7 +1133,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1288,40 +1272,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,760 +1670,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10"/>
-    <col min="3" max="3" width="139.991666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11" style="10"/>
-    <col min="5" max="5" width="35" style="10" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="10"/>
-    <col min="16384" max="16384" width="11" style="11"/>
+    <col min="1" max="1" width="0.158333333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11"/>
+    <col min="3" max="3" width="139.991666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11" style="11"/>
+    <col min="5" max="5" width="35" style="11" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="11"/>
+    <col min="16384" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="11"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="11"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="11"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="16"/>
-      <c r="XFD4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="XFD4" s="11"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="18" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="11"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="10"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="11"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="10"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="10"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="11"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="18" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="10"/>
+      <c r="XFD9" s="11"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="18" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="10"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="11"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="11"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="11"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="10"/>
+      <c r="XFD13" s="11"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="18" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="10"/>
+      <c r="XFD14" s="11"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="18" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="11"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="10"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="11"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="10"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="11"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="11"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="18" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="10"/>
+      <c r="XFD19" s="11"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="18" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="10"/>
+      <c r="XFD20" s="11"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="17" t="str">
+      <c r="B21" s="18" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="11"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="17" t="str">
+      <c r="B22" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="10"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="11"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="17" t="str">
+      <c r="B23" s="18" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="10"/>
+      <c r="XFD23" s="11"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="17" t="str">
+      <c r="B24" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="10"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="11"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="17" t="str">
+      <c r="B25" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="10"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="11"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="10"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="11"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="17" t="str">
+      <c r="B27" s="18" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="11"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="17" t="str">
+      <c r="B28" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="10"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="11"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="17" t="str">
+      <c r="B29" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="10"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="11"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="17" t="str">
+      <c r="B30" s="18" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="10"/>
+      <c r="XFD30" s="11"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="17" t="str">
+      <c r="B31" s="18" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="10"/>
+      <c r="XFD31" s="11"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="17" t="str">
+      <c r="B32" s="18" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="10"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="11"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="17" t="str">
+      <c r="B33" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="10"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="11"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="17" t="str">
+      <c r="B34" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="10"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="11"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="10"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="11"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="17" t="str">
+      <c r="B36" s="18" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="10"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="11"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="17" t="str">
+      <c r="B37" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="10"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="11"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="17" t="str">
+      <c r="B38" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="10"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="11"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="17" t="str">
+      <c r="B39" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="10"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="11"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="10"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="11"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="17" t="str">
+      <c r="B41" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="10"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="11"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="17" t="str">
+      <c r="B42" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="10"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="11"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="17" t="str">
+      <c r="B43" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="10"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="11"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="17" t="str">
+      <c r="B44" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="10"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="11"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="17" t="str">
+      <c r="B45" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="10"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="11"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="10"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="11"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="17" t="str">
+      <c r="B47" s="18" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="10"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="11"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="17" t="str">
+      <c r="B48" s="18" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="10"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="11"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="18" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="10"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="11"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="10"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="11"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="17" t="str">
+      <c r="B51" s="18" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="10"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="11"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="10"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="11"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="17" t="str">
+      <c r="B53" s="18" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="10"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="11"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="17" t="str">
+      <c r="B54" s="18" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="10"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="11"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="10"/>
+      <c r="XFD55" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2460,769 +2445,769 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10"/>
-    <col min="3" max="3" width="139.991666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11" style="10"/>
-    <col min="5" max="5" width="35" style="10" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="10"/>
-    <col min="16384" max="16384" width="11" style="11"/>
+    <col min="1" max="1" width="0.158333333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11"/>
+    <col min="3" max="3" width="139.991666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11" style="11"/>
+    <col min="5" max="5" width="35" style="11" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="11"/>
+    <col min="16384" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="11"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="11"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="11"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="16"/>
-      <c r="XFD4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="XFD4" s="11"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="18" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="11"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="10"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="11"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="10"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="10"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="11"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="18" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="Los diseñadores desbloquean el potencial creativo de Photoshop dominando el trabajo con capas. Esta funcionalidad permite combinar elementos, ajustar imágenes y crear composiciones complejas con precisión y flexibilidad. Dominar las capas eleva los proyectos visuales al siguiente nivel." /&gt;</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>&lt;meta name="description" content="Descubra cómo dominar los metadatos y exportación en Photoshop. El diseñador aprenderá a optimizar imágenes, gestionar información clave y exportar con precisión para web, impresión y más. Técnicas esenciales para profesionales del diseño gráfico." /&gt;</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="10"/>
+      <c r="XFD9" s="11"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="18" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="10"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="11"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="11"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="11"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="XFD13" s="10"/>
+      <c r="XFD13" s="11"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="18" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" /&gt;</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10" t="s">
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop@metadata_y_Exportacion.html" /&gt;</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="10"/>
+      <c r="XFD14" s="11"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="18" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="11"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="10"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="11"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="10"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="11"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="11"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="18" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Trabajo con Capas en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10" t="s">
+        <v>&lt;meta property="og:title" content="Metadatos y Exportación en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="10"/>
+      <c r="XFD19" s="11"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="18" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Los diseñadores desbloquean el potencial creativo de Photoshop dominando el trabajo con capas. Esta funcionalidad permite combinar elementos, ajustar imágenes y crear composiciones complejas con precisión y flexibilidad. Dominar las capas eleva los proyectos visuales al siguiente nivel." /&gt;</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
+        <v>&lt;meta property="og:description" content="Descubra cómo dominar los metadatos y exportación en Photoshop. El diseñador aprenderá a optimizar imágenes, gestionar información clave y exportar con precisión para web, impresión y más. Técnicas esenciales para profesionales del diseño gráfico." /&gt;</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="10"/>
+      <c r="XFD20" s="11"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="17" t="str">
+      <c r="B21" s="18" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="11"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="17" t="str">
+      <c r="B22" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="10"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="11"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="17" t="str">
+      <c r="B23" s="18" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" /&gt;</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10" t="s">
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop@metadata_y_Exportacion.html" /&gt;</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="10"/>
+      <c r="XFD23" s="11"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="17" t="str">
+      <c r="B24" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="10"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="11"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="17" t="str">
+      <c r="B25" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="10"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="11"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="10"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="11"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="17" t="str">
+      <c r="B27" s="18" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="11"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="17" t="str">
+      <c r="B28" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="10"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="11"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="17" t="str">
+      <c r="B29" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="10"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="11"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="17" t="str">
+      <c r="B30" s="18" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Trabajo con Capas en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10" t="s">
+        <v>&lt;meta name="twitter:title" content="Metadatos y Exportación en Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="10"/>
+      <c r="XFD30" s="11"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="17" t="str">
+      <c r="B31" s="18" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Los diseñadores desbloquean el potencial creativo de Photoshop dominando el trabajo con capas. Esta funcionalidad permite combinar elementos, ajustar imágenes y crear composiciones complejas con precisión y flexibilidad. Dominar las capas eleva los proyectos visuales al siguiente nivel." /&gt;</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10" t="s">
+        <v>&lt;meta name="twitter:description" content="Descubra cómo dominar los metadatos y exportación en Photoshop. El diseñador aprenderá a optimizar imágenes, gestionar información clave y exportar con precisión para web, impresión y más. Técnicas esenciales para profesionales del diseño gráfico." /&gt;</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="10"/>
+      <c r="XFD31" s="11"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="17" t="str">
+      <c r="B32" s="18" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="10"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="11"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="17" t="str">
+      <c r="B33" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="10"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="11"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="17" t="str">
+      <c r="B34" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="10"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="11"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="10"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="11"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="17" t="str">
+      <c r="B36" s="18" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="10"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="11"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="17" t="str">
+      <c r="B37" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="10"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="11"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="17" t="str">
+      <c r="B38" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="10"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="11"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="17" t="str">
+      <c r="B39" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="10"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="11"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="10"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="11"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="17" t="str">
+      <c r="B41" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="10"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="11"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="17" t="str">
+      <c r="B42" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="10"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="11"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="17" t="str">
+      <c r="B43" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="10"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="11"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="17" t="str">
+      <c r="B44" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="10"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="11"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="17" t="str">
+      <c r="B45" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="10"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="11"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="10"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="11"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="17" t="str">
+      <c r="B47" s="18" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="10"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="11"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="17" t="str">
+      <c r="B48" s="18" t="str">
         <f>C1</f>
-        <v>Trabajo con Capas en Photoshop - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="10"/>
+        <v>Metadatos y Exportación en Photoshop - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="11"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="18" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="10"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="11"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="10"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="11"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="17" t="str">
+      <c r="B51" s="18" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="10"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="11"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="10"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="11"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="17" t="str">
+      <c r="B53" s="18" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="10"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="11"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="17" t="str">
+      <c r="B54" s="18" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="10"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="11"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="10"/>
+      <c r="XFD55" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html" tooltip="https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop@metadata_y_Exportacion.html" tooltip="https://eduardoherreraf.github.io/photoshop@metadata_y_Exportacion.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3236,1179 +3221,1183 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="18" customWidth="1"/>
-    <col min="2" max="2" width="0.158333333333333" style="18" customWidth="1"/>
-    <col min="3" max="3" width="50.75" style="19" customWidth="1"/>
-    <col min="4" max="4" width="0.158333333333333" style="19" customWidth="1"/>
-    <col min="5" max="5" width="104.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.158333333333333" style="18" customWidth="1"/>
-    <col min="7" max="7" width="94.625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="15.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="0.158333333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="0.158333333333333" style="20" customWidth="1"/>
+    <col min="5" max="5" width="104.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="0.158333333333333" style="19" customWidth="1"/>
+    <col min="7" max="7" width="94.625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8">
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="20" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20" t="str">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="21" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Filtros Licuar  --&gt;</v>
+        <v>&lt;!--  Metadatos y Exportación  --&gt;</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="21" t="str">
         <f>CONCATENATE("&lt;h1&gt;",C9,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Filtros Licuar&lt;/h1&gt;</v>
+        <v>&lt;h1&gt;Metadatos y Exportación&lt;/h1&gt;</v>
       </c>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" s="18" customFormat="1" spans="1:6">
-      <c r="A11" s="18" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" s="19" customFormat="1" spans="1:6">
+      <c r="A11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="20" t="str">
+      <c r="E11" s="21" t="str">
         <f t="shared" ref="E11:E18" si="0">IF(C11&lt;&gt;"",CONCATENATE("&lt;p&gt;",C11,"&lt;/p&gt;"),"")</f>
-        <v>&lt;p&gt;Los filtros de licuar en Adobe Photoshop permiten realizar ajustes en las imágenes de manera no destructiva, manipulando píxeles para alterar formas y detalles sin afectar la calidad general de la imagen. A continuación, se detallan las herramientas clave del filtro de licuar:&lt;/p&gt;</v>
-      </c>
-      <c r="F11" s="18" t="s">
+        <v>&lt;p&gt;Los metadatos en Photoshop se refieren a la información adicional sobre una imagen, como detalles técnicos (por ejemplo, dimensiones, resolución), información del autor, derechos de autor, y más. Estos metadatos son útiles para mantener un registro detallado sobre la creación, edición y uso de las imágenes.&lt;/p&gt;</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="20" t="str">
+      <c r="E12" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="18" t="s">
+        <v>&lt;p&gt;Photoshop permite exportar imágenes en diversos formatos, dependiendo del uso que se quiera dar a la imagen (web, impresión, etc.).&lt;/p&gt;</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="35" t="s">
+      <c r="A13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="20" t="str">
+      <c r="E13" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="35" t="s">
+      <c r="A14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="20" t="str">
+      <c r="E14" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="35" t="s">
+      <c r="A15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="35" t="s">
+      <c r="A16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="20" t="str">
+      <c r="E16" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="35" t="s">
+      <c r="A17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="20" t="str">
+      <c r="E17" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="35" t="s">
+      <c r="A18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="20" t="str">
+      <c r="E18" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="A20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="20" t="str">
+      <c r="B20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="21" t="str">
         <f>IF(C21="si",CONCATENATE("&lt;!-- ",C20," --&gt;"),"")</f>
-        <v/>
+        <v>&lt;!-- Conceptos Básicos --&gt;</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="25" t="str">
+      <c r="B21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="26" t="str">
         <f>IF(C21="si","&lt;div","")</f>
-        <v/>
+        <v>&lt;div</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="20" t="str">
+      <c r="A22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="21" t="str">
         <f>IF(C21="si",CONCATENATE("id=",Comillas,C22,Comillas),"")</f>
-        <v/>
+        <v>id="conceptosBasicos"</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20" t="str">
+      <c r="B23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="21" t="str">
         <f>IF(C21="si",$F$34,"")</f>
-        <v/>
+        <v>class="mt-5 pt-5 "&gt;</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="20" t="str">
+      <c r="B24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="21" t="str">
         <f>IF(C21="si",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C20,"&lt;/h2&gt;"),"")</f>
-        <v/>
+        <v>&lt;h2 class="mt-1"&gt;Conceptos Básicos&lt;/h2&gt;</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="25" t="str">
+      <c r="B25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="26" t="str">
         <f>IF(C21="si","&lt;/div&gt;","")</f>
-        <v/>
-      </c>
-      <c r="G25" s="18" t="s">
+        <v>&lt;/div&gt;</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="20" t="str">
+      <c r="A26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="21" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;!-- ",C26," --&gt;"),"")</f>
-        <v>&lt;!-- Licuar 1 --&gt;</v>
-      </c>
-      <c r="G26" s="18" t="s">
+        <v>&lt;!-- Agregar y Quitar Metadatos --&gt;</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="25" t="str">
+      <c r="B27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="26" t="str">
         <f>IF(C26&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="20" t="str">
+      <c r="A28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="21" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("id=",Comillas,C28,Comillas),"")</f>
-        <v>id="Licuar1"</v>
-      </c>
-      <c r="G28" s="18" t="s">
+        <v>id="agregarQuitarMetadatos"</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="20" t="str">
+      <c r="B29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="21" t="str">
         <f>IF(C26&lt;&gt;"",$F$34,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="20" t="str">
+      <c r="B30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="21" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C26,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Licuar 1&lt;/h2&gt;</v>
-      </c>
-      <c r="G30" s="18" t="s">
+        <v>&lt;h2 class="mt-1"&gt;Agregar y Quitar Metadatos&lt;/h2&gt;</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="25" t="str">
+      <c r="B31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="26" t="str">
         <f>IF(C26&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="20" t="str">
+      <c r="A32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="21" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;!-- ",C32," --&gt;"),"")</f>
-        <v>&lt;!-- Licuar 2 --&gt;</v>
-      </c>
-      <c r="G32" s="18" t="s">
+        <v>&lt;!-- Exportar Composiciones --&gt;</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="25" t="str">
+      <c r="B33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="26" t="str">
         <f>IF(C32&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="20" t="str">
+      <c r="A34" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="21" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("id=",Comillas,C34,Comillas),"")</f>
-        <v>id="Licuar2"</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="18" t="s">
+        <v>id="exportarComposiciones"</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="20" t="str">
+      <c r="B35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="21" t="str">
         <f>IF(C32&lt;&gt;"",$F$34,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="20" t="str">
+      <c r="B36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="21" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C32,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Licuar 2&lt;/h2&gt;</v>
-      </c>
-      <c r="G36" s="18" t="s">
+        <v>&lt;h2 class="mt-1"&gt;Exportar Composiciones&lt;/h2&gt;</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="25" t="str">
+      <c r="B37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="26" t="str">
         <f>IF(C32&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="20" t="str">
+      <c r="A38" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="21" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("&lt;!-- ",C38," --&gt;"),"")</f>
         <v/>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="25" t="str">
+      <c r="B39" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="26" t="str">
         <f>IF(C38&lt;&gt;"","&lt;div","")</f>
         <v/>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="21" t="str">
+        <f>IF(C38&lt;&gt;"",CONCATENATE("id=",Comillas,C40,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="20" t="str">
-        <f>IF(C38&lt;&gt;"",CONCATENATE("id=",Comillas,C40,Comillas),"")</f>
-        <v/>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="20" t="str">
+      <c r="B41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="21" t="str">
         <f>IF(C38&lt;&gt;"",$F$34,"")</f>
         <v/>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="20" t="str">
+      <c r="B42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="21" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C38,"&lt;/h2&gt;"),"")</f>
         <v/>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="18" t="s">
+      <c r="F42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="25" t="str">
+      <c r="B43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="26" t="str">
         <f>IF(C38&lt;&gt;"","&lt;/div&gt;","")</f>
         <v/>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="20" t="str">
+      <c r="A44" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="21" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("&lt;!-- ",C44," --&gt;"),"")</f>
         <v/>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="25" t="str">
+      <c r="B45" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="26" t="str">
         <f>IF(C44&lt;&gt;"","&lt;div","")</f>
         <v/>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="21" t="str">
+        <f>IF(C44&lt;&gt;"",CONCATENATE("id=",Comillas,C46,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="20" t="str">
-        <f>IF(C44&lt;&gt;"",CONCATENATE("id=",Comillas,C46,Comillas),"")</f>
-        <v/>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="20" t="str">
+      <c r="B47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="21" t="str">
         <f>IF(C44&lt;&gt;"",$F$34,"")</f>
         <v/>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="20" t="str">
+      <c r="B48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="21" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C44,"&lt;/h2&gt;"),"")</f>
         <v/>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="18" t="s">
+      <c r="F48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="25" t="str">
+      <c r="B49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="26" t="str">
         <f>IF(C44&lt;&gt;"","&lt;/div&gt;","")</f>
         <v/>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="21" t="str">
+        <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;!-- ",C50," --&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="26" t="str">
+        <f>IF(C50&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="21" t="str">
+        <f>IF(C50&lt;&gt;"",CONCATENATE("id=",Comillas,C52,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="21" t="str">
+        <f>IF(C50&lt;&gt;"",$F$34,"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="21" t="str">
+        <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C50,"&lt;/h2&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="26" t="str">
+        <f>IF(C50&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v/>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="20" t="str">
-        <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;!-- ",C50," --&gt;"),"")</f>
-        <v/>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="25" t="str">
-        <f>IF(C50&lt;&gt;"","&lt;div","")</f>
-        <v/>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="18" t="s">
+      <c r="B56" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="21" t="str">
+        <f>IF(C56&lt;&gt;"",CONCATENATE("&lt;!-- ",C56," --&gt;"),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="26" t="str">
+        <f>IF(C56&lt;&gt;"","&lt;div","")</f>
+        <v/>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="20" t="str">
-        <f>IF(C50&lt;&gt;"",CONCATENATE("id=",Comillas,C52,Comillas),"")</f>
-        <v/>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="20" t="str">
-        <f>IF(C50&lt;&gt;"",$F$34,"")</f>
-        <v/>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="20" t="str">
-        <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C50,"&lt;/h2&gt;"),"")</f>
-        <v/>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="25" t="str">
-        <f>IF(C50&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="20" t="str">
-        <f>IF(C56&lt;&gt;"",CONCATENATE("&lt;!-- ",C56," --&gt;"),"")</f>
-        <v/>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="25" t="str">
-        <f>IF(C56&lt;&gt;"","&lt;div","")</f>
-        <v/>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="18" t="s">
+      <c r="B58" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="21" t="str">
+        <f>IF(C56&lt;&gt;"",CONCATENATE("id=",Comillas,C58,Comillas),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="20" t="str">
-        <f>IF(C56&lt;&gt;"",CONCATENATE("id=",Comillas,C58,Comillas),"")</f>
-        <v/>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="20" t="str">
+      <c r="B59" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="21" t="str">
         <f>IF(C56&lt;&gt;"",$F$34,"")</f>
         <v/>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="20" t="str">
+      <c r="B60" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="21" t="str">
         <f>IF(C56&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C56,"&lt;/h2&gt;"),"")</f>
         <v/>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="25" t="str">
+      <c r="B61" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="26" t="str">
         <f>IF(C56&lt;&gt;"","&lt;/div&gt;","")</f>
         <v/>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="18" t="s">
+      <c r="B62" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G63" s="18" t="s">
+      <c r="B63" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="20" t="str">
+      <c r="B64" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="21" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Filtros Licuar  --&gt;</v>
-      </c>
-      <c r="G64" s="18" t="s">
+        <v>&lt;!--  Metadatos y Exportación  --&gt;</v>
+      </c>
+      <c r="G64" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>97</v>
+      <c r="B65" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G66" s="28"/>
+      <c r="B66" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="29"/>
+      <c r="B67" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="30"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>107</v>
+      <c r="B68" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="18"/>
+      <c r="B69" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="18" t="s">
+      <c r="B70" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="18" t="s">
-        <v>109</v>
+      <c r="E71" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="18" t="str">
+      <c r="E72" s="19" t="str">
+        <f>IF(C21="si","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="19" t="str">
+        <f>IF(C21="si",CONCATENATE("&lt;a href=",Comillas,"#",C22,Comillas,"&gt;",C20,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#conceptosBasicos"&gt;Conceptos Básicos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="19" t="str">
+        <f>IF(C21="si","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="19" t="str">
         <f>IF(C$26&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="18" t="str">
-        <f>IF(C20&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C22,Comillas,"&gt;",C20,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#conceptosBasicos"&gt;Conceptos Básicos&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="18" t="str">
+    <row r="76" spans="2:5">
+      <c r="B76" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="19" t="str">
+        <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C28,Comillas,"&gt;",C26,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#agregarQuitarMetadatos"&gt;Agregar y Quitar Metadatos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="19" t="str">
         <f>IF($C$26&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
-      <c r="F74" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="18" t="str">
-        <f>IF(C$26&lt;&gt;"","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="18" t="str">
-        <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C28,Comillas,"&gt;",C26,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#Licuar1"&gt;Licuar 1&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="18" t="str">
-        <f>IF($C$26&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
-      </c>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="18" t="str">
+      <c r="E78" s="19" t="str">
         <f>IF(C32&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="18" t="str">
+      <c r="E79" s="19" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C34,Comillas,"&gt;",C32,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#Licuar2"&gt;Licuar 2&lt;/a&gt;</v>
+        <v>&lt;a href="#exportarComposiciones"&gt;Exportar Composiciones&lt;/a&gt;</v>
       </c>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="18" t="str">
+      <c r="E80" s="19" t="str">
         <f>IF(C32&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="18" t="str">
+      <c r="E81" s="19" t="str">
         <f>IF($C$38&lt;&gt;"","&lt;li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="18" t="str">
+      <c r="E82" s="19" t="str">
         <f>IF($C$38&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C40,Comillas,"&gt;",C38,"&lt;/a&gt;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="18" t="str">
+      <c r="E83" s="19" t="str">
         <f>IF($C$38&lt;&gt;"","&lt;/li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="18" t="str">
+      <c r="E84" s="19" t="str">
         <f>IF(C$44&lt;&gt;"","&lt;li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="18" t="str">
+      <c r="E85" s="19" t="str">
         <f>IF(C$44&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C46,Comillas,"&gt;",C44,"&lt;/a&gt;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="18" t="str">
+      <c r="E86" s="19" t="str">
         <f>IF($C$44&lt;&gt;"","&lt;/li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="18" t="str">
+      <c r="E87" s="19" t="str">
         <f>IF(C50&lt;&gt;"","&lt;li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="18" t="str">
+      <c r="E88" s="19" t="str">
         <f>IF(C$50&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C52,Comillas,"&gt;",C50,"&lt;/a&gt;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="18" t="str">
+      <c r="E89" s="19" t="str">
         <f>IF(C50&lt;&gt;"","&lt;/li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="5:11">
-      <c r="E90" s="18" t="str">
+      <c r="E90" s="19" t="str">
         <f>IF(C56&lt;&gt;"","&lt;li&gt;","")</f>
         <v/>
       </c>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="18" t="str">
+      <c r="E91" s="19" t="str">
         <f>IF(C$56&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C58,Comillas,"&gt;",C56,"&lt;/a&gt;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="18" t="str">
+      <c r="E92" s="19" t="str">
         <f>IF(C56&lt;&gt;"","&lt;/li&gt;","")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="18" t="s">
-        <v>111</v>
+      <c r="E94" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="18" t="s">
-        <v>112</v>
+      <c r="E95" s="19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="21" t="s">
-        <v>102</v>
+      <c r="E96" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="31" t="s">
-        <v>113</v>
+      <c r="E97" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="30"/>
+      <c r="E99" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12">
@@ -4445,757 +4434,757 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10"/>
-    <col min="3" max="3" width="139.991666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11" style="10"/>
-    <col min="5" max="5" width="35" style="10" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="10"/>
-    <col min="16384" max="16384" width="11" style="11"/>
+    <col min="1" max="1" width="0.158333333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11"/>
+    <col min="3" max="3" width="139.991666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11" style="11"/>
+    <col min="5" max="5" width="35" style="11" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="11"/>
+    <col min="16384" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="11"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="10"/>
+      <c r="C2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="11"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="11"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="16"/>
-      <c r="XFD4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="XFD4" s="11"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="18" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="11"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="10"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="11"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="10"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="10"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="11"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="18" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
         <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="10"/>
+      <c r="XFD9" s="11"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="18" t="str">
         <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="10"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="11"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="18" t="str">
         <f>A11</f>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="11"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="17" t="str">
+      <c r="A12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="18" t="str">
         <f>A12</f>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="11"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="18" t="str">
         <f>A13</f>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="10"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="11"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="18" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="10"/>
+      <c r="XFD14" s="11"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="18" t="str">
         <f t="shared" ref="B15:B18" si="1">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="11"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="10"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="11"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="10"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="11"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="11"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="18" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="10"/>
+      <c r="XFD19" s="11"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="18" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="10"/>
+      <c r="XFD20" s="11"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="17" t="str">
+      <c r="B21" s="18" t="str">
         <f t="shared" ref="B21:B25" si="2">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="11"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="17" t="str">
+      <c r="B22" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="10"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="11"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="17" t="str">
+      <c r="B23" s="18" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="10"/>
+      <c r="XFD23" s="11"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="17" t="str">
+      <c r="B24" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="10"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="11"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="17" t="str">
+      <c r="B25" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="10"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="11"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="10"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="11"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="17" t="str">
+      <c r="B27" s="18" t="str">
         <f t="shared" ref="B27:B29" si="3">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="11"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="17" t="str">
+      <c r="B28" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="10"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="11"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="17" t="str">
+      <c r="B29" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="10"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="11"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="17" t="str">
+      <c r="B30" s="18" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="10"/>
+      <c r="XFD30" s="11"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="17" t="str">
+      <c r="B31" s="18" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="10"/>
+      <c r="XFD31" s="11"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="17" t="str">
+      <c r="B32" s="18" t="str">
         <f t="shared" ref="B32:B34" si="4">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="10"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="11"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="17" t="str">
+      <c r="B33" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="10"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="11"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="17" t="str">
+      <c r="B34" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="10"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="11"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="10"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="11"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="17" t="str">
+      <c r="B36" s="18" t="str">
         <f t="shared" ref="B36:B45" si="5">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="10"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="11"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="17" t="str">
+      <c r="B37" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="10"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="11"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="17" t="str">
+      <c r="B38" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="10"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="11"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="17" t="str">
+      <c r="B39" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="10"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="11"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="10"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="11"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="17" t="str">
+      <c r="B41" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="10"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="11"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="17" t="str">
+      <c r="B42" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="10"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="11"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="17" t="str">
+      <c r="B43" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="10"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="11"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="17" t="str">
+      <c r="B44" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="10"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="11"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="17" t="str">
+      <c r="B45" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="10"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="11"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="10"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="11"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="17" t="str">
+      <c r="B47" s="18" t="str">
         <f t="shared" ref="B47:B51" si="6">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="10"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="11"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="17" t="str">
+      <c r="B48" s="18" t="str">
         <f>C1</f>
         <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="10"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="11"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="10"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="11"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="10"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="11"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="17" t="str">
+      <c r="B51" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="10"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="11"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="10"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="11"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="17" t="str">
+      <c r="B53" s="18" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="10"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="11"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="17" t="str">
+      <c r="B54" s="18" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="10"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="11"/>
     </row>
     <row r="55" spans="16384:16384">
-      <c r="XFD55" s="10"/>
+      <c r="XFD55" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5224,754 +5213,754 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10"/>
-    <col min="3" max="3" width="139.991666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11" style="10"/>
-    <col min="5" max="5" width="35" style="10" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="10"/>
-    <col min="16384" max="16384" width="11" style="11"/>
+    <col min="1" max="1" width="0.158333333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11"/>
+    <col min="3" max="3" width="139.991666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11" style="11"/>
+    <col min="5" max="5" width="35" style="11" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="11"/>
+    <col min="16384" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="11"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="10"/>
+      <c r="C2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="11"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="11"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="16"/>
-      <c r="XFD4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="XFD4" s="11"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="18" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="11"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="10"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="11"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="10"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="10"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="11"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="18" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="10"/>
+      <c r="XFD9" s="11"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="18" t="str">
         <f t="shared" ref="B10:B13" si="1">A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="10"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="11"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="11"/>
     </row>
     <row r="12" spans="1:16384">
-      <c r="A12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="17" t="str">
+      <c r="A12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="11"/>
     </row>
     <row r="13" spans="1:16384">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>&lt;meta name="google" content="notranslate" /&gt;</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="10"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="11"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="18" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
         <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="XFD14" s="10"/>
+      <c r="XFD14" s="11"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="18" t="str">
         <f t="shared" ref="B15:B18" si="2">A15</f>
         <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="11"/>
     </row>
     <row r="16" spans="2:16384">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="10"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="11"/>
     </row>
     <row r="17" spans="1:16384">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;!-- Open Graph data --&gt;</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="10"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="11"/>
     </row>
     <row r="18" spans="1:16384">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;meta property="og:type" content="website" /&gt;</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="11"/>
     </row>
     <row r="19" spans="1:16384">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="18" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
         <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="XFD19" s="10"/>
+      <c r="XFD19" s="11"/>
     </row>
     <row r="20" spans="1:16384">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="18" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
         <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="XFD20" s="10"/>
+      <c r="XFD20" s="11"/>
     </row>
     <row r="21" spans="1:16384">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="17" t="str">
+      <c r="B21" s="18" t="str">
         <f t="shared" ref="B21:B25" si="3">A21</f>
         <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="11"/>
     </row>
     <row r="22" spans="1:16384">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="17" t="str">
+      <c r="B22" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="10"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="11"/>
     </row>
     <row r="23" spans="1:16384">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="17" t="str">
+      <c r="B23" s="18" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
         <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="XFD23" s="10"/>
+      <c r="XFD23" s="11"/>
     </row>
     <row r="24" spans="1:16384">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="17" t="str">
+      <c r="B24" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="10"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="11"/>
     </row>
     <row r="25" spans="1:16384">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="17" t="str">
+      <c r="B25" s="18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;!-- fin Open Graph data --&gt;</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="10"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="11"/>
     </row>
     <row r="26" spans="2:16384">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="10"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="11"/>
     </row>
     <row r="27" spans="1:16384">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="17" t="str">
+      <c r="B27" s="18" t="str">
         <f t="shared" ref="B27:B29" si="4">A27</f>
         <v>&lt;!-- Twitter cards --&gt;</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="11"/>
     </row>
     <row r="28" spans="1:16384">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="17" t="str">
+      <c r="B28" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="10"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="11"/>
     </row>
     <row r="29" spans="1:16384">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="17" t="str">
+      <c r="B29" s="18" t="str">
         <f t="shared" si="4"/>
         <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="10"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="11"/>
     </row>
     <row r="30" spans="1:16384">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="17" t="str">
+      <c r="B30" s="18" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
         <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="XFD30" s="10"/>
+      <c r="XFD30" s="11"/>
     </row>
     <row r="31" spans="1:16384">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="17" t="str">
+      <c r="B31" s="18" t="str">
         <f>CONCATENATE(E31,$C$3,$F$9)</f>
         <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="XFD31" s="10"/>
+      <c r="XFD31" s="11"/>
     </row>
     <row r="32" spans="1:16384">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="17" t="str">
+      <c r="B32" s="18" t="str">
         <f t="shared" ref="B32:B34" si="5">A32</f>
         <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="10"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="11"/>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="17" t="str">
+      <c r="B33" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="10"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="11"/>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="17" t="str">
+      <c r="B34" s="18" t="str">
         <f t="shared" si="5"/>
         <v>&lt;!-- Fin Twitter cards --&gt;</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="10"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="11"/>
     </row>
     <row r="35" spans="2:16384">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="10"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="11"/>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="17" t="str">
+      <c r="B36" s="18" t="str">
         <f t="shared" ref="B36:B45" si="6">A36</f>
         <v>&lt;!-- iconos --&gt;</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="10"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="11"/>
     </row>
     <row r="37" spans="1:16384">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="17" t="str">
+      <c r="B37" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="10"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="11"/>
     </row>
     <row r="38" spans="1:16384">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="17" t="str">
+      <c r="B38" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="10"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="11"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="17" t="str">
+      <c r="B39" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="10"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="11"/>
     </row>
     <row r="40" spans="1:16384">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="10"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="11"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="17" t="str">
+      <c r="B41" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="10"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="11"/>
     </row>
     <row r="42" spans="1:16384">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="17" t="str">
+      <c r="B42" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="10"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="11"/>
     </row>
     <row r="43" spans="1:16384">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="17" t="str">
+      <c r="B43" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="10"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="11"/>
     </row>
     <row r="44" spans="1:16384">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="17" t="str">
+      <c r="B44" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="10"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="11"/>
     </row>
     <row r="45" spans="1:16384">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="17" t="str">
+      <c r="B45" s="18" t="str">
         <f t="shared" si="6"/>
         <v>&lt;!-- fin iconos --&gt;</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="10"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="11"/>
     </row>
     <row r="46" spans="2:16384">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="10"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="11"/>
     </row>
     <row r="47" spans="1:16384">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="17" t="str">
+      <c r="B47" s="18" t="str">
         <f t="shared" ref="B47:B51" si="7">A47</f>
         <v>&lt;title&gt;</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="10"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="11"/>
     </row>
     <row r="48" spans="1:16384">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="17" t="str">
+      <c r="B48" s="18" t="str">
         <f>C1</f>
         <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="10"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="11"/>
     </row>
     <row r="49" spans="1:16384">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="18" t="str">
         <f t="shared" si="7"/>
         <v>&lt;/title&gt;</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="10"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="11"/>
     </row>
     <row r="50" spans="2:16384">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="10"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="11"/>
     </row>
     <row r="51" spans="1:16384">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="17" t="str">
+      <c r="B51" s="18" t="str">
         <f t="shared" si="7"/>
         <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="10"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="11"/>
     </row>
     <row r="52" spans="2:16384">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="10"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="11"/>
     </row>
     <row r="53" spans="1:16384">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="17" t="str">
+      <c r="B53" s="18" t="str">
         <f>A53</f>
         <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="10"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="11"/>
     </row>
     <row r="54" spans="1:16384">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="17" t="str">
+      <c r="B54" s="18" t="str">
         <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="10"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5995,8 +5984,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6016,82 +6005,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
-        <v>122</v>
+      <c r="A1" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
-        <v>123</v>
+      <c r="A3" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>124</v>
+      <c r="A5" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
-        <v>125</v>
+      <c r="A7" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
-        <v>126</v>
+      <c r="A8" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
-        <v>127</v>
+      <c r="A9" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
-        <v>128</v>
+      <c r="A11" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
-        <v>129</v>
+      <c r="A13" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>130</v>
+      <c r="A15" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>131</v>
+      <c r="A17" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
-        <v>132</v>
+      <c r="A19" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
-        <v>133</v>
+      <c r="A21" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
-        <v>134</v>
+      <c r="A22" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
-        <v>135</v>
+      <c r="A23" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>136</v>
+      <c r="A24" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6106,7 +6095,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G20"/>
+      <selection activeCell="G18" sqref="G18:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6119,12 +6108,12 @@
   <sheetData>
     <row r="1" spans="7:7">
       <c r="G1" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="2:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>B2</f>
@@ -6133,7 +6122,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B13" si="0">IF(A3&lt;&gt;"",$C$14,"")</f>
@@ -6141,7 +6130,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C13" si="1">IF(A3&lt;&gt;"",LEFT(A3,FIND(":",A3,1)-1),"")</f>
-        <v>Tamaño del pincel</v>
+        <v>Guardar como archivo de Photoshop (PSD)</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D13" si="2">IF(A3&lt;&gt;"","&lt;/span&gt;","")</f>
@@ -6149,7 +6138,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E13" si="3">IF(A3&lt;&gt;"",RIGHT(A3,LEN(A3)-FIND(":",A3,1)),"")</f>
-        <v> Determina qué tan grande será el área que desea deformar.</v>
+        <v/>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F13" si="4">IF(A3&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -6157,12 +6146,12 @@
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3:G7" si="5">IF(A3&lt;&gt;"",CONCATENATE(B3,C3,D3,":",E3,F3),IF(A2&lt;&gt;"",$B$14,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Tamaño del pincel&lt;/span&gt;: Determina qué tan grande será el área que desea deformar.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Guardar como archivo de Photoshop (PSD)&lt;/span&gt;:&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>140</v>
+      <c r="A4" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -6170,7 +6159,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Densidad del pincel</v>
+        <v>Guardar como imagen (JPEG, PNG, etc.)</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
@@ -6178,7 +6167,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v> Controla la suavidad de los bordes del pincel. Una densidad alta hace que los bordes de la deformación sean más suaves.</v>
+        <v/>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="4"/>
@@ -6186,12 +6175,12 @@
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Densidad del pincel&lt;/span&gt;: Controla la suavidad de los bordes del pincel. Una densidad alta hace que los bordes de la deformación sean más suaves.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Guardar como imagen (JPEG, PNG, etc.)&lt;/span&gt;:&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>141</v>
+      <c r="A5" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -6199,7 +6188,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Presión del pincel</v>
+        <v>Guardar para web</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
@@ -6207,7 +6196,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v> Ajusta la intensidad de la deformación. A mayor presión, más drástica será la modificación.</v>
+        <v/>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="4"/>
@@ -6215,22 +6204,24 @@
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Presión del pincel&lt;/span&gt;: Ajusta la intensidad de la deformación. A mayor presión, más drástica será la modificación.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Guardar para web&lt;/span&gt;:&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Guardar como PDF</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/span&gt;</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
@@ -6238,15 +6229,15 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Guardar como PDF&lt;/span&gt;:&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6269,11 +6260,11 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6300,7 +6291,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6327,7 +6318,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6354,7 +6345,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6381,7 +6372,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6408,7 +6399,7 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6436,10 +6427,10 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="6"/>
@@ -6448,12 +6439,12 @@
     </row>
     <row r="16" spans="7:7">
       <c r="G16" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:7">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G17" s="2" t="str">
         <f>B17</f>
@@ -6461,8 +6452,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>143</v>
+      <c r="A18" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ref="B18:B28" si="7">IF(A18&lt;&gt;"","&lt;li&gt;","")</f>
@@ -6474,12 +6465,12 @@
       </c>
       <c r="G18" s="2" t="str">
         <f>IF(A18&lt;&gt;"",CONCATENATE(B18,A18,F18),$D$29)</f>
-        <v>&lt;li&gt;Una vez configurado el pincel, haga clic en la imagen y arrastre en la dirección en que desea mover los píxeles. A medida que arrastra, los píxeles se moverán de forma continua.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Ir a Archivo &gt; Exportar &gt; Guardar para web.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>144</v>
+      <c r="A19" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="7"/>
@@ -6491,65 +6482,69 @@
       </c>
       <c r="G19" s="2" t="str">
         <f>IF(A19&lt;&gt;"",CONCATENATE(B19,A19,F19),$D$29)</f>
-        <v>&lt;li&gt;Para obtener resultados más sutiles, use movimientos cortos y repetitivos. Para cambios más grandes, puede arrastrar el pincel a mayor distancia.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Seleccionar el formato (JPEG, PNG-8, PNG-24, GIF, etc.).&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="B20" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C20" t="str">
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="C20" t="e">
         <f t="shared" ref="C18:C28" si="9">IF(A20&lt;&gt;"",LEFT(A20,FIND(":",A20,1)-1),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ref="D18:D28" si="10">IF(A20&lt;&gt;"","&lt;/span&gt;","")</f>
-        <v/>
-      </c>
-      <c r="E20" t="str">
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E20" t="e">
         <f t="shared" ref="E18:E28" si="11">IF(A20&lt;&gt;"",RIGHT(A20,LEN(A20)-FIND(":",A20,1)),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ref="G20:G28" si="12">IF(A20&lt;&gt;"",CONCATENATE(B20,A20,F20),IF(A19&lt;&gt;"",$D$29,""))</f>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;Ajustar la calidad y el tamaño de la imagen.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="B21" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C21" t="str">
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="C21" t="e">
         <f t="shared" si="9"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E21" t="str">
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E21" t="e">
         <f t="shared" si="11"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>&lt;li&gt;Hacer clic en Guardar y elegir la ubicación.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6572,11 +6567,11 @@
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6603,7 +6598,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6630,7 +6625,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6657,7 +6652,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6684,7 +6679,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6711,7 +6706,7 @@
       </c>
     </row>
     <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6739,10 +6734,10 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D29" t="str">
         <f>IF(A29&lt;&gt;"",CONCATENATE(B29,#REF!,#REF!,":",E29,F29),$B$14)</f>
@@ -6752,42 +6747,42 @@
     <row r="30" ht="15"/>
     <row r="31" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>147</v>
+      <c r="A32" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="7" t="str">
         <f>CONCATENATE(B32,A31,C32,A32,D32)</f>
-        <v>&lt;img src="./images/ps@filtroLicuarBocaComparacion.jpg" class="img-fluid" alt="Filtro Licuar Comparación Edición Boca"&gt;</v>
+        <v>&lt;img src="./images/ps@informacionAchivoBasico.jpg" class="img-fluid" alt="informacion de Achivo Basico"&gt;</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6795,7 +6790,8 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1" display="ps@filtroLicuarBocaComparacion.jpg" tooltip="mailto:ps@filtroLicuarBocaComparacion.jpg"/>
+    <hyperlink ref="A32" r:id="rId1" display="informacion de Achivo Basico"/>
+    <hyperlink ref="A31" r:id="rId2" display="ps@informacionAchivoBasico.jpg" tooltip="mailto:ps@informacionAchivoBasico.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12450" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
     <sheet name="&lt;head&gt;" sheetId="7" r:id="rId2"/>
-    <sheet name="&lt;main&gt;" sheetId="9" r:id="rId3"/>
-    <sheet name="BootstrapTABLE" sheetId="2" r:id="rId4"/>
-    <sheet name="GittTABLE" sheetId="3" r:id="rId5"/>
-    <sheet name="script" sheetId="8" r:id="rId6"/>
-    <sheet name="Estructura tools ps" sheetId="10" r:id="rId7"/>
-    <sheet name="plantilla &lt;ul&gt;" sheetId="11" r:id="rId8"/>
-    <sheet name="sitemap.xml" sheetId="12" r:id="rId9"/>
+    <sheet name="&lt;head&gt;Indice" sheetId="13" r:id="rId3"/>
+    <sheet name="&lt;main&gt;" sheetId="9" r:id="rId4"/>
+    <sheet name="script" sheetId="8" r:id="rId5"/>
+    <sheet name="plantilla &lt;ul&gt;" sheetId="11" r:id="rId6"/>
+    <sheet name="sitemap.xml" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Comillas">'&lt;main&gt;'!$H$1</definedName>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="197">
   <si>
     <t>Título</t>
   </si>
@@ -91,12 +89,6 @@
     <t>&lt;meta name="robots" content="index, follow" /&gt;</t>
   </si>
   <si>
-    <t>&lt;meta name="google" content="notranslate" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta name="google" content="nositelinkssearchbox" /&gt;</t>
-  </si>
-  <si>
     <t>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/instalacion_de_bootstrap_v53_con_npm_y_vite.html" /&gt;</t>
   </si>
   <si>
@@ -226,13 +218,13 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Cómo Borrar la CACHÉ y Archivos Basura en Windows - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/otrosTemas@como_borrar_la_cache_y_archivos_basura_en_windows.html</t>
-  </si>
-  <si>
-    <t>Aprende cómo borrar la caché y eliminar archivos basura en Windows para mejorar el rendimiento, liberar espacio en el PC</t>
+    <t>Instrucción Print() - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/cursoPython3@02_función_print.html</t>
+  </si>
+  <si>
+    <t>Aprende cómo utilizar la función print() en Python para mostrar mensajes en la consola. Ejemplos básicos de sintaxis y uso en programación.</t>
   </si>
   <si>
     <t>&lt;meta name="tittle" content="</t>
@@ -244,6 +236,15 @@
     <t>&lt;meta name="twitter:url" content="</t>
   </si>
   <si>
+    <t>Índice de Otros Temas - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/otrosTemas.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Otros Temas   </t>
+  </si>
+  <si>
     <t>Plantilla Cuerpo</t>
   </si>
   <si>
@@ -271,7 +272,7 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t>Cómo Borrar la CACHÉ y Archivos Basura en Windows</t>
+    <t>Instrucción print()</t>
   </si>
   <si>
     <t/>
@@ -280,7 +281,7 @@
     <t>Parrafo 1</t>
   </si>
   <si>
-    <t>Borrar la caché y los archivos basura en Windows tiene varios beneficios que contribuyen al rendimiento, estabilidad y organización del sistema. A continuación se detallan las razones y propósitos principales de realizar esta limpieza:</t>
+    <t>El comando &lt;code&gt;print()&lt;/code&gt;  en Python se utiliza para mostrar información en la consola o terminal. Es una de las funciones más básicas y útiles para que los desarrolladores verifiquen el valor de variables, mensajes o resultados de alguna operación.</t>
   </si>
   <si>
     <t>Parrafo 2</t>
@@ -310,7 +311,7 @@
     <t>Introducción</t>
   </si>
   <si>
-    <t>si</t>
+    <t>no</t>
   </si>
   <si>
     <t>areaDeTrabajo1</t>
@@ -322,25 +323,25 @@
     <t>Area de trabajo 2</t>
   </si>
   <si>
-    <t>Temp</t>
+    <t>Función Básica</t>
   </si>
   <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>temp</t>
+    <t>funcionBasica</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
   </si>
   <si>
-    <t>%Temp%</t>
+    <t>Sintaxis básica</t>
   </si>
   <si>
     <t>areaDeTrabajo3</t>
   </si>
   <si>
-    <t>Temp2</t>
+    <t>sintaxisBasica</t>
   </si>
   <si>
     <t>class="mt-5 pt-5 "&gt;</t>
@@ -349,31 +350,31 @@
     <t>Area de trabajo 4</t>
   </si>
   <si>
-    <t>Prefetch</t>
+    <t>Ejemplos</t>
   </si>
   <si>
     <t>areaDeTrabajo4</t>
   </si>
   <si>
-    <t>prefetch</t>
-  </si>
-  <si>
-    <t>Cleanmger</t>
-  </si>
-  <si>
-    <t>cleanmger</t>
+    <t>ejemplos</t>
+  </si>
+  <si>
+    <t>Usos comunes de &lt;code&gt;print()&lt;/code&gt;:</t>
+  </si>
+  <si>
+    <t>usosComunesPrint</t>
   </si>
   <si>
     <t>Area de trabajo 5</t>
   </si>
   <si>
-    <t>Borrar Puntos de Restauración</t>
+    <t>Consideraciones</t>
   </si>
   <si>
     <t>areaDeTrabajo5</t>
   </si>
   <si>
-    <t>borrarPuntosdeRestauracion</t>
+    <t>consideraciones</t>
   </si>
   <si>
     <t>&lt;/div&gt;</t>
@@ -412,181 +413,121 @@
     <t>&lt;!--  Principal Fin  --&gt;</t>
   </si>
   <si>
-    <t>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</t>
+    <t>&lt;script&gt;let tema = localStorage.getItem("theme") || "dark";window.onload = function () {if (tema === "dark") temaOscuro();if (tema === "light") temaClaro();};const cambiarTema = () =&gt; {const temaActual = localStorage.getItem("theme") || "dark";if (temaActual === "dark") {temaClaro();} else{temaOscuro();}};const temaOscuro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "dark");document.querySelector("#dl-icon").setAttribute("class","btn text-center d-flex bg-body-tertiary text-light");localStorage.setItem("theme", "dark");};const temaClaro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "light");document.querySelector("#dl-icon").setAttribute("class", "btn text-center d-flex bg-light text-dark");localStorage.setItem("theme", "light");};&lt;/script&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Respueta</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>Depuración: Verificar el valor de las variables en diferentes puntos del código.</t>
+  </si>
+  <si>
+    <t>Mostrar resultados: Presentar los resultados de cálculos o procesos.</t>
+  </si>
+  <si>
+    <t>Interactuar con el usuario: Solicitar información o proporcionar mensajes.</t>
+  </si>
+  <si>
+    <t>Crear salidas formateadas: Generar informes o tablas.</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;span class="fw-bold"&gt;</t>
+  </si>
+  <si>
+    <t>Es posible imprimir objetos de diferentes tipos (números, strings, listas, etc.).</t>
+  </si>
+  <si>
+    <t>print() convierte todos los argumentos en cadenas de texto (usando str()) antes de mostrarlos.</t>
+  </si>
+  <si>
+    <t>En la nueva ventana, haz clic en Eliminar para borrar todos los puntos de restauración existentes en esa unidad.</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;</t>
+  </si>
+  <si>
+    <t>ps@informacionAchivoBasico.jpg</t>
+  </si>
+  <si>
+    <t>&lt;div class="text-center imagen"&gt;</t>
+  </si>
+  <si>
+    <t>informacion de Achivo Basico</t>
+  </si>
+  <si>
+    <t>&lt;img src="./images/</t>
+  </si>
+  <si>
+    <t>" class="img-fluid" alt="</t>
+  </si>
+  <si>
+    <t>"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="text-center imagen"&gt; &lt;img src="./images/ps@panelCapas2.jpg" class="img-fluid" alt="Panel Capas"&gt; </t>
+  </si>
+  <si>
+    <t>Cuando el sistema está funcionando bien y estable: Si no ha habido problemas recientes y el sistema está estable, puede ser seguro borrar los puntos antiguos.</t>
+  </si>
+  <si>
+    <t>Para liberar espacio en disco: Si necesitas espacio y no te preocupa la posibilidad de restaurar el sistema a un estado anterior, borrar los puntos de restauración puede ser una opción válida.</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>2024-10-08T06:28:04-05:00</t>
+  </si>
+  <si>
+    <t>&lt;?xml version='1.0' encoding='UTF-8'?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;urlset xmlns='https://www.sitemaps.org/schemas/sitemap/0.9'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  xmlns:xhtml='https://www.w3.org/1999/xhtml'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;url&gt;</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/index.html</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>&lt;!-- Páginas Índice --&gt;</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/git.html</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/javascript.html</t>
   </si>
   <si>
     <t>https://eduardoherreraf.github.io/photoshop.html</t>
-  </si>
-  <si>
-    <t>Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop</t>
-  </si>
-  <si>
-    <t>&lt;meta name="robots" content="noindex, follow" /&gt;</t>
-  </si>
-  <si>
-    <t>Índice de Git / Github - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/git.htmll</t>
-  </si>
-  <si>
-    <t>Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web.</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;let tema = localStorage.getItem("theme") || "dark";window.onload = function () {if (tema === "dark") temaOscuro();if (tema === "light") temaClaro();};const cambiarTema = () =&gt; {const temaActual = localStorage.getItem("theme") || "dark";if (temaActual === "dark") {temaClaro();} else{temaOscuro();}};const temaOscuro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "dark");document.querySelector("#dl-icon").setAttribute("class","btn text-center d-flex bg-body-tertiary text-light");localStorage.setItem("theme", "dark");};const temaClaro = () =&gt; {document.querySelector("body").setAttribute("data-bs-theme", "light");document.querySelector("#dl-icon").setAttribute("class", "btn text-center d-flex bg-light text-dark");localStorage.setItem("theme", "light");};&lt;/script&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>La herramienta Parche es una herramienta poderosa en Photoshop que permite reparar y corregir áreas de una imagen de manera no destructiva. Permite al usuario seleccionar una parte de la imagen y reemplazarla con una textura o patrón tomado de otra área.</t>
-  </si>
-  <si>
-    <t>Cómo usar la herramienta Parche:</t>
-  </si>
-  <si>
-    <t>1. Selecciona la herramienta Parche en la caja de herramientas de Photoshop.</t>
-  </si>
-  <si>
-    <t>2. Decide si quieres usar la opción "Parche" o "Parche de contenido":</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Parche: Toma la selección y la reemplaza por una textura tomada de otra parte de la imagen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Parche de contenido: Analiza el contenido y la textura de la selección y la reemplaza con una sección que se ajuste mejor.</t>
-  </si>
-  <si>
-    <t>3. Dibuja un área de selección alrededor de la región que quieres reparar.</t>
-  </si>
-  <si>
-    <t>4. Arrastra la selección hacia el área que quieres usar como reemplazo. Photoshop analizará la textura y el contenido y hará una sustitución coherente.</t>
-  </si>
-  <si>
-    <t>5. Ajusta la selección según sea necesario para obtener un resultado natural.</t>
-  </si>
-  <si>
-    <t>6. Repite el proceso en otras áreas que necesiten reparación.</t>
-  </si>
-  <si>
-    <t>Consejos útiles:</t>
-  </si>
-  <si>
-    <t>- Usa la herramienta Parche de contenido para reparaciones más complejas, como reemplazar caras o elementos más estructurales.</t>
-  </si>
-  <si>
-    <t>- Aumenta o disminuye el tamaño de la herramienta para ajustarse a diferentes áreas.</t>
-  </si>
-  <si>
-    <t>- Combina la herramienta Parche con otras herramientas de edición, como el clon, para obtener mejores resultados.</t>
-  </si>
-  <si>
-    <t>- Trabaja en una capa separada para mantener la edición no destructiva.</t>
-  </si>
-  <si>
-    <t>Respueta</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;</t>
-  </si>
-  <si>
-    <t>Cuando el sistema está funcionando bien y estable: Si no ha habido problemas recientes y el sistema está estable, puede ser seguro borrar los puntos antiguos.</t>
-  </si>
-  <si>
-    <t>Para liberar espacio en disco: Si necesitas espacio y no te preocupa la posibilidad de restaurar el sistema a un estado anterior, borrar los puntos de restauración puede ser una opción válida.</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;span class="fw-bold"&gt;</t>
-  </si>
-  <si>
-    <t>Hacer clic en el menú de inicio y escribir "Crear un punto de restauración"</t>
-  </si>
-  <si>
-    <t>En la pestaña Protección del sistema, selecciona la unidad de tu sistema (generalmente C:) y hacer clic en Configurar.</t>
-  </si>
-  <si>
-    <t>En la ventana emergente siguiente hacer clic en el botón eliminar</t>
-  </si>
-  <si>
-    <t>Confirmar</t>
-  </si>
-  <si>
-    <t>En la nueva ventana, haz clic en Eliminar para borrar todos los puntos de restauración existentes en esa unidad.</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;</t>
-  </si>
-  <si>
-    <t>ps@informacionAchivoBasico.jpg</t>
-  </si>
-  <si>
-    <t>&lt;div class="text-center imagen"&gt;</t>
-  </si>
-  <si>
-    <t>informacion de Achivo Basico</t>
-  </si>
-  <si>
-    <t>&lt;img src="./images/</t>
-  </si>
-  <si>
-    <t>" class="img-fluid" alt="</t>
-  </si>
-  <si>
-    <t>"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="text-center imagen"&gt; &lt;img src="./images/ps@panelCapas2.jpg" class="img-fluid" alt="Panel Capas"&gt; </t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>2024-10-08T06:28:04-05:00</t>
-  </si>
-  <si>
-    <t>&lt;?xml version='1.0' encoding='UTF-8'?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;urlset xmlns='https://www.sitemaps.org/schemas/sitemap/0.9'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  xmlns:xhtml='https://www.w3.org/1999/xhtml'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;url&gt;</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io</t>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>&lt;/url&gt;</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/index.html</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>&lt;!-- Páginas Índice --&gt;</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/git.html</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/javascript.html</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/otrosTemas.html</t>
   </si>
   <si>
     <t>&lt;!-- Bootstrap --&gt;</t>
@@ -699,7 +640,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,16 +695,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -782,6 +723,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -940,24 +887,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -989,6 +918,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,19 +1185,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1266,6 +1200,19 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1408,124 +1355,124 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,32 +1514,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1601,10 +1543,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1956,772 +1907,755 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD55"/>
+  <dimension ref="A1:XFD54"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27"/>
-    <col min="3" max="3" width="139.991666666667" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11" style="27"/>
-    <col min="5" max="5" width="35" style="27" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="27"/>
-    <col min="16384" max="16384" width="11" style="28"/>
+    <col min="1" max="1" width="0.158333333333333" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11" style="40"/>
+    <col min="3" max="3" width="139.991666666667" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11" style="40"/>
+    <col min="5" max="5" width="35" style="40" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="40"/>
+    <col min="16384" max="16384" width="11" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="27"/>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="40"/>
     </row>
     <row r="2" spans="2:16384">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="27"/>
+      <c r="D2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="40"/>
     </row>
     <row r="3" spans="2:16384">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="27"/>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="40"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="32"/>
-      <c r="XFD4" s="27"/>
+      <c r="B4" s="45"/>
+      <c r="XFD4" s="40"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33" t="str">
+      <c r="B5" s="46" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="27"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="40"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33" t="str">
+      <c r="B6" s="46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="27"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="40"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33" t="str">
+      <c r="B7" s="46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="27"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="40"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="33" t="str">
+      <c r="B8" s="46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="27"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="40"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="str">
+      <c r="B9" s="46" t="str">
         <f>CONCATENATE(E9,$C$1,F9)</f>
         <v>&lt;meta name="description" content="Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="27"/>
+      <c r="XFD9" s="40"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33" t="str">
-        <f t="shared" ref="B10:B13" si="1">A10</f>
+      <c r="B10" s="46" t="str">
+        <f>A10</f>
         <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="27"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD10" s="40"/>
     </row>
     <row r="11" spans="1:16384">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="46" t="str">
+        <f>A11</f>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="40"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="46" t="str">
+        <f>A12</f>
+        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="40"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="46" t="str">
+        <f>CONCATENATE(E13,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFD13" s="40"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="46" t="str">
+        <f t="shared" ref="B14:B17" si="1">A14</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD14" s="40"/>
+    </row>
+    <row r="15" spans="2:16384">
+      <c r="B15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="40"/>
+    </row>
+    <row r="16" spans="1:16384">
+      <c r="A16" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="46" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="27"/>
-    </row>
-    <row r="12" spans="1:16384">
-      <c r="A12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="33" t="str">
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="40"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="46" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="27"/>
-    </row>
-    <row r="13" spans="1:16384">
-      <c r="A13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="XFD13" s="27"/>
-    </row>
-    <row r="14" spans="1:16384">
-      <c r="A14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="33" t="str">
-        <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="XFD14" s="27"/>
-    </row>
-    <row r="15" spans="1:16384">
-      <c r="A15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="33" t="str">
-        <f t="shared" ref="B15:B18" si="2">A15</f>
-        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="27"/>
-    </row>
-    <row r="16" spans="2:16384">
-      <c r="B16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="27"/>
-    </row>
-    <row r="17" spans="1:16384">
-      <c r="A17" s="27" t="s">
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="40"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="33" t="str">
+      <c r="B18" s="46" t="str">
+        <f>CONCATENATE(E18,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="XFD18" s="40"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="46" t="str">
+        <f>CONCATENATE(E19,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD19" s="40"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="46" t="str">
+        <f t="shared" ref="B20:B24" si="2">A20</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD20" s="40"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;!-- Open Graph data --&gt;</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="27"/>
-    </row>
-    <row r="18" spans="1:16384">
-      <c r="A18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="33" t="str">
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="40"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="46" t="str">
+        <f>CONCATENATE(E22,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="XFD22" s="40"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="46" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;meta property="og:type" content="website" /&gt;</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="27"/>
-    </row>
-    <row r="19" spans="1:16384">
-      <c r="A19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="33" t="str">
-        <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="XFD19" s="27"/>
-    </row>
-    <row r="20" spans="1:16384">
-      <c r="A20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="33" t="str">
-        <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="XFD20" s="27"/>
-    </row>
-    <row r="21" spans="1:16384">
-      <c r="A21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B25" si="3">A21</f>
-        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="27"/>
-    </row>
-    <row r="22" spans="1:16384">
-      <c r="A22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="33" t="str">
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD23" s="40"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="40"/>
+    </row>
+    <row r="25" spans="2:16384">
+      <c r="B25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="40"/>
+    </row>
+    <row r="26" spans="1:16384">
+      <c r="A26" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="46" t="str">
+        <f t="shared" ref="B26:B28" si="3">A26</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="40"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="46" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="27"/>
-    </row>
-    <row r="23" spans="1:16384">
-      <c r="A23" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="33" t="str">
-        <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/bootstrap.html" /&gt;</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="XFD23" s="27"/>
-    </row>
-    <row r="24" spans="1:16384">
-      <c r="A24" s="27" t="s">
+        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="40"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="40"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="46" t="str">
+        <f>CONCATENATE(E29,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="XFD29" s="40"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="46" t="str">
+        <f>CONCATENATE(E30,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD30" s="40"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="46" t="str">
+        <f t="shared" ref="B31:B33" si="4">A31</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD31" s="40"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD32" s="40"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="40"/>
+    </row>
+    <row r="34" spans="2:16384">
+      <c r="B34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="27"/>
-    </row>
-    <row r="25" spans="1:16384">
-      <c r="A25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;!-- fin Open Graph data --&gt;</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="27"/>
-    </row>
-    <row r="26" spans="2:16384">
-      <c r="B26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="27"/>
-    </row>
-    <row r="27" spans="1:16384">
-      <c r="A27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="33" t="str">
-        <f t="shared" ref="B27:B29" si="4">A27</f>
-        <v>&lt;!-- Twitter cards --&gt;</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="27"/>
-    </row>
-    <row r="28" spans="1:16384">
-      <c r="A28" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="27"/>
-    </row>
-    <row r="29" spans="1:16384">
-      <c r="A29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="27"/>
-    </row>
-    <row r="30" spans="1:16384">
-      <c r="A30" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="33" t="str">
-        <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFD30" s="27"/>
-    </row>
-    <row r="31" spans="1:16384">
-      <c r="A31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="33" t="str">
-        <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Esta es la Página Web del ingeniero Eduardo Herrera Forero y sus publicaciones." /&gt;</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD31" s="27"/>
-    </row>
-    <row r="32" spans="1:16384">
-      <c r="A32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="33" t="str">
-        <f t="shared" ref="B32:B34" si="5">A32</f>
-        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="27"/>
-    </row>
-    <row r="33" spans="1:16384">
-      <c r="A33" s="27" t="s">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="40"/>
+    </row>
+    <row r="35" spans="1:16384">
+      <c r="A35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="33" t="str">
+      <c r="B35" s="46" t="str">
+        <f t="shared" ref="B35:B44" si="5">A35</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="40"/>
+    </row>
+    <row r="36" spans="1:16384">
+      <c r="A36" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="46" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="27"/>
-    </row>
-    <row r="34" spans="1:16384">
-      <c r="A34" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="33" t="str">
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="40"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="46" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;!-- Fin Twitter cards --&gt;</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="27"/>
-    </row>
-    <row r="35" spans="2:16384">
-      <c r="B35" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="27"/>
-    </row>
-    <row r="36" spans="1:16384">
-      <c r="A36" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="33" t="str">
-        <f t="shared" ref="B36:B45" si="6">A36</f>
-        <v>&lt;!-- iconos --&gt;</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="27"/>
-    </row>
-    <row r="37" spans="1:16384">
-      <c r="A37" s="27" t="s">
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="40"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="27"/>
-    </row>
-    <row r="38" spans="1:16384">
-      <c r="A38" s="27" t="s">
+      <c r="B38" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="40"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="27"/>
-    </row>
-    <row r="39" spans="1:16384">
-      <c r="A39" s="27" t="s">
+      <c r="B39" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="40"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="27"/>
-    </row>
-    <row r="40" spans="1:16384">
-      <c r="A40" s="27" t="s">
+      <c r="B40" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="40"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="27"/>
-    </row>
-    <row r="41" spans="1:16384">
-      <c r="A41" s="27" t="s">
+      <c r="B41" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="40"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="27"/>
-    </row>
-    <row r="42" spans="1:16384">
-      <c r="A42" s="27" t="s">
+      <c r="B42" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="40"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="27"/>
-    </row>
-    <row r="43" spans="1:16384">
-      <c r="A43" s="27" t="s">
+      <c r="B43" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="40"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="27"/>
-    </row>
-    <row r="44" spans="1:16384">
-      <c r="A44" s="27" t="s">
+      <c r="B44" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="40"/>
+    </row>
+    <row r="45" spans="2:16384">
+      <c r="B45" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="40"/>
+    </row>
+    <row r="46" spans="1:16384">
+      <c r="A46" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="27"/>
-    </row>
-    <row r="45" spans="1:16384">
-      <c r="A45" s="27" t="s">
+      <c r="B46" s="46" t="str">
+        <f t="shared" ref="B46:B50" si="6">A46</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="40"/>
+    </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;!-- fin iconos --&gt;</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="27"/>
-    </row>
-    <row r="46" spans="2:16384">
-      <c r="B46" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="27"/>
-    </row>
-    <row r="47" spans="1:16384">
-      <c r="A47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="33" t="str">
-        <f t="shared" ref="B47:B51" si="7">A47</f>
-        <v>&lt;title&gt;</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="27"/>
-    </row>
-    <row r="48" spans="1:16384">
-      <c r="A48" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="33" t="str">
+      <c r="B47" s="46" t="str">
         <f>C1</f>
         <v>Ing. Eduardo Herrera Forero.</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="27"/>
-    </row>
-    <row r="49" spans="1:16384">
-      <c r="A49" s="27" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="40"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="40"/>
+    </row>
+    <row r="49" spans="2:16384">
+      <c r="B49" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="40"/>
+    </row>
+    <row r="50" spans="1:16384">
+      <c r="A50" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="40"/>
+    </row>
+    <row r="51" spans="2:16384">
+      <c r="B51" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="40"/>
+    </row>
+    <row r="52" spans="1:16384">
+      <c r="A52" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;/title&gt;</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="27"/>
-    </row>
-    <row r="50" spans="2:16384">
-      <c r="B50" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="27"/>
-    </row>
-    <row r="51" spans="1:16384">
-      <c r="A51" s="27" t="s">
+      <c r="B52" s="46" t="str">
+        <f>A52</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="40"/>
+    </row>
+    <row r="53" spans="1:16384">
+      <c r="A53" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="27"/>
-    </row>
-    <row r="52" spans="2:16384">
-      <c r="B52" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="27"/>
-    </row>
-    <row r="53" spans="1:16384">
-      <c r="A53" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="33" t="str">
+      <c r="B53" s="46" t="str">
         <f>A53</f>
-        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="27"/>
-    </row>
-    <row r="54" spans="1:16384">
-      <c r="A54" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="33" t="str">
-        <f>A54</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="27"/>
-    </row>
-    <row r="55" spans="16384:16384">
-      <c r="XFD55" s="27"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="40"/>
+    </row>
+    <row r="54" spans="16384:16384">
+      <c r="XFD54" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2736,813 +2670,796 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD57"/>
+  <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B56"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.158333333333333" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27"/>
-    <col min="3" max="3" width="139.991666666667" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11" style="27"/>
-    <col min="5" max="5" width="35" style="27" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="27"/>
-    <col min="16384" max="16384" width="11" style="28"/>
+    <col min="1" max="1" width="0.158333333333333" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11" style="40"/>
+    <col min="3" max="3" width="139.991666666667" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11" style="40"/>
+    <col min="5" max="5" width="35" style="40" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="40"/>
+    <col min="16384" max="16384" width="11" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16384">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="40"/>
+    </row>
+    <row r="2" spans="2:16384">
+      <c r="B2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="40"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="27"/>
-    </row>
-    <row r="2" spans="2:16384">
-      <c r="B2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="27"/>
-    </row>
-    <row r="3" spans="2:16384">
-      <c r="B3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="27"/>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="40"/>
     </row>
     <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="32"/>
-      <c r="XFD4" s="27"/>
+      <c r="B4" s="45"/>
+      <c r="XFD4" s="40"/>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33" t="str">
+      <c r="B5" s="46" t="str">
         <f t="shared" ref="B5:B8" si="0">A5</f>
         <v>&lt;head&gt;</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="27"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="40"/>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33" t="str">
+      <c r="B6" s="46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;!-- Metaetiquetas --&gt;</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="27"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="40"/>
     </row>
     <row r="7" spans="1:16384">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33" t="str">
+      <c r="B7" s="46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta charset="utf-8" /&gt;</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="27"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="40"/>
     </row>
     <row r="8" spans="1:16384">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="33" t="str">
+      <c r="B8" s="46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="27"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="40"/>
     </row>
     <row r="9" spans="1:16384">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="str">
+      <c r="B9" s="46" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="Aprende cómo borrar la caché y eliminar archivos basura en Windows para mejorar el rendimiento, liberar espacio en el PC" /&gt;</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="27" t="s">
+        <v>&lt;meta name="description" content="Aprende cómo utilizar la función print() en Python para mostrar mensajes en la consola. Ejemplos básicos de sintaxis y uso en programación." /&gt;</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="27"/>
+      <c r="XFD9" s="40"/>
     </row>
     <row r="10" spans="1:16384">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="33" t="str">
+      <c r="B10" s="46" t="str">
         <f>CONCATENATE(E10,$C$1,F10)</f>
-        <v>&lt;meta name="tittle" content="Cómo Borrar la CACHÉ y Archivos Basura en Windows - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="27" t="s">
+        <v>&lt;meta name="tittle" content="Instrucción Print() - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD10" s="40"/>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="46" t="str">
+        <f>A11</f>
+        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="40"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="46" t="str">
+        <f>A12</f>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="40"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="46" t="str">
+        <f>A13</f>
+        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="40"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="46" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" /&gt;</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFD14" s="40"/>
+    </row>
+    <row r="15" spans="1:16384">
+      <c r="A15" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46" t="str">
+        <f t="shared" ref="B15:B18" si="1">A15</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="40"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="40"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="40"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="40"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="46" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Instrucción Print() - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="XFD19" s="40"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="46" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Aprende cómo utilizar la función print() en Python para mostrar mensajes en la consola. Ejemplos básicos de sintaxis y uso en programación." /&gt;</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD20" s="40"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="46" t="str">
+        <f t="shared" ref="B21:B25" si="2">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="40"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="40"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="46" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" /&gt;</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="XFD23" s="40"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="40"/>
+    </row>
+    <row r="25" spans="1:16384">
+      <c r="A25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="40"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="40"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="46" t="str">
+        <f>A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="40"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="46" t="str">
+        <f>A28</f>
+        <v>&lt;meta name="twitter:card" content="summary_large_image" /&gt;</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="40"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="46" t="str">
+        <f>A29</f>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="40"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="46" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:url" content="Instrucción Print() - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="XFD10" s="27"/>
-    </row>
-    <row r="11" spans="1:16384">
-      <c r="A11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="33" t="str">
-        <f t="shared" ref="B11:B14" si="1">A11</f>
-        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="27"/>
-    </row>
-    <row r="12" spans="1:16384">
-      <c r="A12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="27"/>
-    </row>
-    <row r="13" spans="1:16384">
-      <c r="A13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="27"/>
-    </row>
-    <row r="14" spans="1:16384">
-      <c r="A14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="XFD14" s="27"/>
-    </row>
-    <row r="15" spans="1:16384">
-      <c r="A15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="33" t="str">
-        <f>CONCATENATE(E15,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/otrosTemas@como_borrar_la_cache_y_archivos_basura_en_windows.html" /&gt;</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="XFD15" s="27"/>
-    </row>
-    <row r="16" spans="1:16384">
-      <c r="A16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="33" t="str">
-        <f t="shared" ref="B16:B19" si="2">A16</f>
-        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="27"/>
-    </row>
-    <row r="17" spans="2:16384">
-      <c r="B17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="27"/>
-    </row>
-    <row r="18" spans="1:16384">
-      <c r="A18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;!-- Open Graph data --&gt;</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="27"/>
-    </row>
-    <row r="19" spans="1:16384">
-      <c r="A19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;meta property="og:type" content="website" /&gt;</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD19" s="27"/>
-    </row>
-    <row r="20" spans="1:16384">
-      <c r="A20" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="33" t="str">
-        <f>CONCATENATE(E20,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Cómo Borrar la CACHÉ y Archivos Basura en Windows - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="XFD20" s="27"/>
-    </row>
-    <row r="21" spans="1:16384">
-      <c r="A21" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="33" t="str">
-        <f>CONCATENATE(E21,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Aprende cómo borrar la caché y eliminar archivos basura en Windows para mejorar el rendimiento, liberar espacio en el PC" /&gt;</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="XFD21" s="27"/>
-    </row>
-    <row r="22" spans="1:16384">
-      <c r="A22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="33" t="str">
-        <f t="shared" ref="B22:B26" si="3">A22</f>
-        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="27"/>
-    </row>
-    <row r="23" spans="1:16384">
-      <c r="A23" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="33" t="str">
+      <c r="XFD30" s="40"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="46" t="str">
+        <f>CONCATENATE(E31,$C$2,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" /&gt;</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="XFD31" s="40"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="46" t="str">
+        <f>CONCATENATE(E32,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Aprende cómo utilizar la función print() en Python para mostrar mensajes en la consola. Ejemplos básicos de sintaxis y uso en programación." /&gt;</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD32" s="40"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="46" t="str">
+        <f t="shared" ref="B33:B35" si="3">A33</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="40"/>
+    </row>
+    <row r="34" spans="1:16384">
+      <c r="A34" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="46" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD23" s="27"/>
-    </row>
-    <row r="24" spans="1:16384">
-      <c r="A24" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="33" t="str">
-        <f>CONCATENATE(E24,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/otrosTemas@como_borrar_la_cache_y_archivos_basura_en_windows.html" /&gt;</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="XFD24" s="27"/>
-    </row>
-    <row r="25" spans="1:16384">
-      <c r="A25" s="27" t="s">
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="40"/>
+    </row>
+    <row r="35" spans="1:16384">
+      <c r="A35" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="40"/>
+    </row>
+    <row r="36" spans="2:16384">
+      <c r="B36" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="27"/>
-    </row>
-    <row r="26" spans="1:16384">
-      <c r="A26" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;!-- fin Open Graph data --&gt;</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="27"/>
-    </row>
-    <row r="27" spans="2:16384">
-      <c r="B27" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="27"/>
-    </row>
-    <row r="28" spans="1:16384">
-      <c r="A28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="33" t="str">
-        <f>A28</f>
-        <v>&lt;!-- Twitter cards --&gt;</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="27"/>
-    </row>
-    <row r="29" spans="1:16384">
-      <c r="A29" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="33" t="str">
-        <f>A29</f>
-        <v>&lt;meta name="twitter:card" content="summary_large_image" /&gt;</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="27"/>
-    </row>
-    <row r="30" spans="1:16384">
-      <c r="A30" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="33" t="str">
-        <f>A30</f>
-        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD30" s="27"/>
-    </row>
-    <row r="31" spans="1:16384">
-      <c r="A31" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="33" t="str">
-        <f>CONCATENATE(E31,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:url" content="Cómo Borrar la CACHÉ y Archivos Basura en Windows - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="XFD31" s="27"/>
-    </row>
-    <row r="32" spans="1:16384">
-      <c r="A32" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="33" t="str">
-        <f>CONCATENATE(E32,$C$2,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="https://eduardoherreraf.github.io/otrosTemas@como_borrar_la_cache_y_archivos_basura_en_windows.html" /&gt;</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFD32" s="27"/>
-    </row>
-    <row r="33" spans="1:16384">
-      <c r="A33" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="33" t="str">
-        <f>CONCATENATE(E33,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Aprende cómo borrar la caché y eliminar archivos basura en Windows para mejorar el rendimiento, liberar espacio en el PC" /&gt;</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD33" s="27"/>
-    </row>
-    <row r="34" spans="1:16384">
-      <c r="A34" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="33" t="str">
-        <f t="shared" ref="B34:B36" si="4">A34</f>
-        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="27"/>
-    </row>
-    <row r="35" spans="1:16384">
-      <c r="A35" s="27" t="s">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="40"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="33" t="str">
+      <c r="B37" s="46" t="str">
+        <f t="shared" ref="B37:B46" si="4">A37</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="40"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="46" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="27"/>
-    </row>
-    <row r="36" spans="1:16384">
-      <c r="A36" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="33" t="str">
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="40"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="46" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;!-- Fin Twitter cards --&gt;</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="27"/>
-    </row>
-    <row r="37" spans="2:16384">
-      <c r="B37" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="27"/>
-    </row>
-    <row r="38" spans="1:16384">
-      <c r="A38" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="33" t="str">
-        <f t="shared" ref="B38:B47" si="5">A38</f>
-        <v>&lt;!-- iconos --&gt;</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="27"/>
-    </row>
-    <row r="39" spans="1:16384">
-      <c r="A39" s="27" t="s">
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="40"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="33" t="str">
+      <c r="B40" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="40"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="40"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="40"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="40"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="40"/>
+    </row>
+    <row r="45" spans="1:16384">
+      <c r="A45" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="40"/>
+    </row>
+    <row r="46" spans="1:16384">
+      <c r="A46" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="40"/>
+    </row>
+    <row r="47" spans="2:16384">
+      <c r="B47" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="40"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="46" t="str">
+        <f t="shared" ref="B48:B52" si="5">A48</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="40"/>
+    </row>
+    <row r="49" spans="1:16384">
+      <c r="A49" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="46" t="str">
+        <f>C1</f>
+        <v>Instrucción Print() - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="40"/>
+    </row>
+    <row r="50" spans="1:16384">
+      <c r="A50" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="46" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="27"/>
-    </row>
-    <row r="40" spans="1:16384">
-      <c r="A40" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="33" t="str">
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="40"/>
+    </row>
+    <row r="51" spans="2:16384">
+      <c r="B51" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="40"/>
+    </row>
+    <row r="52" spans="1:16384">
+      <c r="A52" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="46" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="27"/>
-    </row>
-    <row r="41" spans="1:16384">
-      <c r="A41" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="27"/>
-    </row>
-    <row r="42" spans="1:16384">
-      <c r="A42" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="27"/>
-    </row>
-    <row r="43" spans="1:16384">
-      <c r="A43" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="27"/>
-    </row>
-    <row r="44" spans="1:16384">
-      <c r="A44" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="27"/>
-    </row>
-    <row r="45" spans="1:16384">
-      <c r="A45" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="27"/>
-    </row>
-    <row r="46" spans="1:16384">
-      <c r="A46" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="27"/>
-    </row>
-    <row r="47" spans="1:16384">
-      <c r="A47" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;!-- fin iconos --&gt;</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="27"/>
-    </row>
-    <row r="48" spans="2:16384">
-      <c r="B48" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="27"/>
-    </row>
-    <row r="49" spans="1:16384">
-      <c r="A49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="33" t="str">
-        <f t="shared" ref="B49:B53" si="6">A49</f>
-        <v>&lt;title&gt;</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="27"/>
-    </row>
-    <row r="50" spans="1:16384">
-      <c r="A50" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="33" t="str">
-        <f>C1</f>
-        <v>Cómo Borrar la CACHÉ y Archivos Basura en Windows - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="27"/>
-    </row>
-    <row r="51" spans="1:16384">
-      <c r="A51" s="27" t="s">
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="40"/>
+    </row>
+    <row r="53" spans="2:16384">
+      <c r="B53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="40"/>
+    </row>
+    <row r="54" spans="1:16384">
+      <c r="A54" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;/title&gt;</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="27"/>
-    </row>
-    <row r="52" spans="2:16384">
-      <c r="B52" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="27"/>
-    </row>
-    <row r="53" spans="1:16384">
-      <c r="A53" s="27" t="s">
+      <c r="B54" s="46" t="str">
+        <f>A54</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="40"/>
+    </row>
+    <row r="55" spans="1:16384">
+      <c r="A55" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="27"/>
-    </row>
-    <row r="54" spans="2:16384">
-      <c r="B54" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="27"/>
-    </row>
-    <row r="55" spans="1:16384">
-      <c r="A55" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="33" t="str">
+      <c r="B55" s="46" t="str">
         <f>A55</f>
-        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD55" s="27"/>
-    </row>
-    <row r="56" spans="1:16384">
-      <c r="A56" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="33" t="str">
-        <f>A56</f>
         <v>&lt;/head&gt;</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD56" s="27"/>
-    </row>
-    <row r="57" spans="16384:16384">
-      <c r="XFD57" s="27"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD55" s="40"/>
+    </row>
+    <row r="56" spans="16384:16384">
+      <c r="XFD56" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/otrosTemas@como_borrar_la_cache_y_archivos_basura_en_windows.html" tooltip="https://eduardoherreraf.github.io/otrosTemas@como_borrar_la_cache_y_archivos_basura_en_windows.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" tooltip="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3553,21 +3470,821 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:XFD56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="0.158333333333333" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11" style="40"/>
+    <col min="3" max="3" width="139.991666666667" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11" style="40"/>
+    <col min="5" max="5" width="35" style="40" customWidth="1"/>
+    <col min="6" max="16383" width="11" style="40"/>
+    <col min="16384" max="16384" width="11" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16384">
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD1" s="40"/>
+    </row>
+    <row r="2" spans="2:16384">
+      <c r="B2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD2" s="40"/>
+    </row>
+    <row r="3" spans="2:16384">
+      <c r="B3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD3" s="40"/>
+    </row>
+    <row r="4" ht="6" customHeight="1" spans="2:16384">
+      <c r="B4" s="45"/>
+      <c r="XFD4" s="40"/>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="A5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="46" t="str">
+        <f t="shared" ref="B5:B8" si="0">A5</f>
+        <v>&lt;head&gt;</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD5" s="40"/>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;!-- Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD6" s="40"/>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta charset="utf-8" /&gt;</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD7" s="40"/>
+    </row>
+    <row r="8" spans="1:16384">
+      <c r="A8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD8" s="40"/>
+    </row>
+    <row r="9" spans="1:16384">
+      <c r="A9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="46" t="str">
+        <f>CONCATENATE(E9,$C$3,F9)</f>
+        <v>&lt;meta name="description" content="Índice de Otros Temas   " /&gt;</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD9" s="40"/>
+    </row>
+    <row r="10" spans="1:16384">
+      <c r="A10" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="46" t="str">
+        <f>CONCATENATE(E10,$C$1,F10)</f>
+        <v>&lt;meta name="tittle" content="Índice de Otros Temas - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="XFD10" s="40"/>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="46" t="str">
+        <f>A11</f>
+        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD11" s="40"/>
+    </row>
+    <row r="12" spans="1:16384">
+      <c r="A12" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="46" t="str">
+        <f>A12</f>
+        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD12" s="40"/>
+    </row>
+    <row r="13" spans="1:16384">
+      <c r="A13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="46" t="str">
+        <f>A13</f>
+        <v>&lt;meta name="robots" content="index, follow" /&gt;</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD13" s="40"/>
+    </row>
+    <row r="14" spans="1:16384">
+      <c r="A14" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="46" t="str">
+        <f>CONCATENATE(E14,$C$2,$F$9)</f>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/otrosTemas.html" /&gt;</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFD14" s="40"/>
+    </row>
+    <row r="15" spans="1:16384">
+      <c r="A15" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46" t="str">
+        <f t="shared" ref="B15:B18" si="1">A15</f>
+        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD15" s="40"/>
+    </row>
+    <row r="16" spans="2:16384">
+      <c r="B16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD16" s="40"/>
+    </row>
+    <row r="17" spans="1:16384">
+      <c r="A17" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;!-- Open Graph data --&gt;</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD17" s="40"/>
+    </row>
+    <row r="18" spans="1:16384">
+      <c r="A18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;meta property="og:type" content="website" /&gt;</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD18" s="40"/>
+    </row>
+    <row r="19" spans="1:16384">
+      <c r="A19" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="46" t="str">
+        <f>CONCATENATE(E19,$C$1,F9)</f>
+        <v>&lt;meta property="og:title" content="Índice de Otros Temas - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="XFD19" s="40"/>
+    </row>
+    <row r="20" spans="1:16384">
+      <c r="A20" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="46" t="str">
+        <f>CONCATENATE(E20,$C$3,$F$9)</f>
+        <v>&lt;meta property="og:description" content="Índice de Otros Temas   " /&gt;</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFD20" s="40"/>
+    </row>
+    <row r="21" spans="1:16384">
+      <c r="A21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="46" t="str">
+        <f t="shared" ref="B21:B25" si="2">A21</f>
+        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD21" s="40"/>
+    </row>
+    <row r="22" spans="1:16384">
+      <c r="A22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD22" s="40"/>
+    </row>
+    <row r="23" spans="1:16384">
+      <c r="A23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="46" t="str">
+        <f>CONCATENATE(E23,$C$2,$F$9)</f>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/otrosTemas.html" /&gt;</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="XFD23" s="40"/>
+    </row>
+    <row r="24" spans="1:16384">
+      <c r="A24" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD24" s="40"/>
+    </row>
+    <row r="25" spans="1:16384">
+      <c r="A25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;!-- fin Open Graph data --&gt;</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD25" s="40"/>
+    </row>
+    <row r="26" spans="2:16384">
+      <c r="B26" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD26" s="40"/>
+    </row>
+    <row r="27" spans="1:16384">
+      <c r="A27" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="46" t="str">
+        <f t="shared" ref="B27:B29" si="3">A27</f>
+        <v>&lt;!-- Twitter cards --&gt;</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD27" s="40"/>
+    </row>
+    <row r="28" spans="1:16384">
+      <c r="A28" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta name="twitter:card" content="summary_large_image" /&gt;</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD28" s="40"/>
+    </row>
+    <row r="29" spans="1:16384">
+      <c r="A29" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD29" s="40"/>
+    </row>
+    <row r="30" spans="1:16384">
+      <c r="A30" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="46" t="str">
+        <f>CONCATENATE(E30,$C$1,$F$9)</f>
+        <v>&lt;meta name="twitter:url" content="Índice de Otros Temas - Ing. Eduardo Herrera Forero." /&gt;</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="XFD30" s="40"/>
+    </row>
+    <row r="31" spans="1:16384">
+      <c r="A31" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="46" t="str">
+        <f>CONCATENATE(E31,$C$2,$F$9)</f>
+        <v>&lt;meta name="twitter:title" content="https://eduardoherreraf.github.io/otrosTemas.html" /&gt;</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="XFD31" s="40"/>
+    </row>
+    <row r="32" spans="1:16384">
+      <c r="A32" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="46" t="str">
+        <f>CONCATENATE(E32,$C$3,$F$9)</f>
+        <v>&lt;meta name="twitter:description" content="Índice de Otros Temas   " /&gt;</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="XFD32" s="40"/>
+    </row>
+    <row r="33" spans="1:16384">
+      <c r="A33" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="46" t="str">
+        <f t="shared" ref="B33:B35" si="4">A33</f>
+        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD33" s="40"/>
+    </row>
+    <row r="34" spans="1:16384">
+      <c r="A34" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD34" s="40"/>
+    </row>
+    <row r="35" spans="1:16384">
+      <c r="A35" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;!-- Fin Twitter cards --&gt;</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD35" s="40"/>
+    </row>
+    <row r="36" spans="2:16384">
+      <c r="B36" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD36" s="40"/>
+    </row>
+    <row r="37" spans="1:16384">
+      <c r="A37" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="46" t="str">
+        <f t="shared" ref="B37:B46" si="5">A37</f>
+        <v>&lt;!-- iconos --&gt;</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD37" s="40"/>
+    </row>
+    <row r="38" spans="1:16384">
+      <c r="A38" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD38" s="40"/>
+    </row>
+    <row r="39" spans="1:16384">
+      <c r="A39" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD39" s="40"/>
+    </row>
+    <row r="40" spans="1:16384">
+      <c r="A40" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD40" s="40"/>
+    </row>
+    <row r="41" spans="1:16384">
+      <c r="A41" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD41" s="40"/>
+    </row>
+    <row r="42" spans="1:16384">
+      <c r="A42" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD42" s="40"/>
+    </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD43" s="40"/>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD44" s="40"/>
+    </row>
+    <row r="45" spans="1:16384">
+      <c r="A45" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD45" s="40"/>
+    </row>
+    <row r="46" spans="1:16384">
+      <c r="A46" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="46" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;!-- fin iconos --&gt;</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD46" s="40"/>
+    </row>
+    <row r="47" spans="2:16384">
+      <c r="B47" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD47" s="40"/>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="46" t="str">
+        <f t="shared" ref="B48:B52" si="6">A48</f>
+        <v>&lt;title&gt;</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD48" s="40"/>
+    </row>
+    <row r="49" spans="1:16384">
+      <c r="A49" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="46" t="str">
+        <f>C1</f>
+        <v>Índice de Otros Temas - Ing. Eduardo Herrera Forero.</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD49" s="40"/>
+    </row>
+    <row r="50" spans="1:16384">
+      <c r="A50" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;/title&gt;</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD50" s="40"/>
+    </row>
+    <row r="51" spans="2:16384">
+      <c r="B51" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD51" s="40"/>
+    </row>
+    <row r="52" spans="1:16384">
+      <c r="A52" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="46" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD52" s="40"/>
+    </row>
+    <row r="53" spans="2:16384">
+      <c r="B53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD53" s="40"/>
+    </row>
+    <row r="54" spans="1:16384">
+      <c r="A54" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="46" t="str">
+        <f>A54</f>
+        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD54" s="40"/>
+    </row>
+    <row r="55" spans="1:16384">
+      <c r="A55" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="46" t="str">
+        <f>A55</f>
+        <v>&lt;/head&gt;</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="XFD55" s="40"/>
+    </row>
+    <row r="56" spans="16384:16384">
+      <c r="XFD56" s="40"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/otrosTemas.html" tooltip="https://eduardoherreraf.github.io/otrosTemas.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56:C58"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="0.158333333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="50.75" style="34" customWidth="1"/>
-    <col min="4" max="4" width="0.158333333333333" style="34" customWidth="1"/>
-    <col min="5" max="5" width="104.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="26" customWidth="1"/>
+    <col min="4" max="4" width="0.158333333333333" style="26" customWidth="1"/>
+    <col min="5" max="5" width="104.5" style="27" customWidth="1"/>
     <col min="6" max="6" width="0.158333333333333" style="12" customWidth="1"/>
     <col min="7" max="7" width="94.625" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9" style="12"/>
@@ -3576,14 +4293,14 @@
     <row r="1" spans="3:8">
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="27" t="s">
         <v>69</v>
       </c>
+      <c r="G1" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="H1" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="3:4">
@@ -3593,62 +4310,62 @@
     <row r="3" spans="3:5">
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="36" t="s">
-        <v>71</v>
+      <c r="E3" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="36" t="s">
-        <v>72</v>
+      <c r="E4" s="28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="35" t="s">
-        <v>73</v>
+      <c r="E5" s="27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="35" t="str">
+      <c r="E6" s="27" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Cómo Borrar la CACHÉ y Archivos Basura en Windows  --&gt;</v>
+        <v>&lt;!--  Instrucción print()  --&gt;</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="35" t="s">
-        <v>74</v>
+      <c r="E7" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="35" t="s">
-        <v>75</v>
+      <c r="E8" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>77</v>
+      <c r="C9" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E9" s="27" t="str">
         <f>CONCATENATE("&lt;h1&gt;",C9,"&lt;/h1&gt;")</f>
-        <v>&lt;h1&gt;Cómo Borrar la CACHÉ y Archivos Basura en Windows&lt;/h1&gt;</v>
+        <v>&lt;h1&gt;Instrucción print()&lt;/h1&gt;</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -3660,20 +4377,20 @@
     </row>
     <row r="11" s="12" customFormat="1" spans="1:6">
       <c r="A11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="35" t="str">
+      <c r="E11" s="27" t="str">
         <f t="shared" ref="E11:E18" si="0">IF(C11&lt;&gt;"",CONCATENATE("&lt;p&gt;",C11,"&lt;/p&gt;"),"")</f>
-        <v>&lt;p&gt;Borrar la caché y los archivos basura en Windows tiene varios beneficios que contribuyen al rendimiento, estabilidad y organización del sistema. A continuación se detallan las razones y propósitos principales de realizar esta limpieza:&lt;/p&gt;</v>
+        <v>&lt;p&gt;El comando &lt;code&gt;print()&lt;/code&gt;  en Python se utiliza para mostrar información en la consola o terminal. Es una de las funciones más básicas y útiles para que los desarrolladores verifiquen el valor de variables, mensajes o resultados de alguna operación.&lt;/p&gt;</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>2</v>
@@ -3681,13 +4398,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="38"/>
+        <v>82</v>
+      </c>
+      <c r="C12" s="30"/>
       <c r="D12" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E12" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3697,13 +4414,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E13" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3713,13 +4430,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="C14" s="30"/>
       <c r="D14" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E14" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3729,16 +4446,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E15" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3748,16 +4465,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E16" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3767,16 +4484,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E17" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3786,16 +4503,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="35" t="str">
+        <v>79</v>
+      </c>
+      <c r="E18" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3812,47 +4529,47 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="35" t="str">
+      <c r="C20" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="27" t="str">
         <f>IF(C21="si",CONCATENATE("&lt;!-- ",C20," --&gt;"),"")</f>
-        <v>&lt;!-- Introducción --&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>90</v>
+      <c r="C21" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="40" t="str">
+      <c r="E21" s="32" t="str">
         <f>IF(C21="si","&lt;div","")</f>
-        <v>&lt;div</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="35" t="str">
+      <c r="C22" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="27" t="str">
         <f>IF(C21="si",CONCATENATE("id=",Comillas,C22,Comillas),"")</f>
-        <v>id="introduccion"</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -3861,9 +4578,9 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="35" t="str">
+      <c r="E23" s="27" t="str">
         <f>IF(C21="si",$F$34,"")</f>
-        <v>class="mt-5 pt-5 "&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -3872,9 +4589,9 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="35" t="str">
+      <c r="E24" s="27" t="str">
         <f>IF(C21="si",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C20,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Introducción&lt;/h2&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -3883,9 +4600,9 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="32" t="str">
         <f>IF(C21="si","&lt;/div&gt;","")</f>
-        <v>&lt;/div&gt;</v>
+        <v/>
       </c>
       <c r="G25" s="12" t="s">
         <v>2</v>
@@ -3893,18 +4610,18 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="35" t="str">
+      <c r="C26" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="27" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;!-- ",C26," --&gt;"),"")</f>
-        <v>&lt;!-- Temp --&gt;</v>
+        <v>&lt;!-- Función Básica --&gt;</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>2</v>
@@ -3916,7 +4633,7 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="32" t="str">
         <f>IF(C26&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
@@ -3926,18 +4643,18 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="35" t="str">
+      <c r="C28" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="27" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("id=",Comillas,C28,Comillas),"")</f>
-        <v>id="temp"</v>
+        <v>id="funcionBasica"</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>2</v>
@@ -3949,7 +4666,7 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="35" t="str">
+      <c r="E29" s="27" t="str">
         <f>IF(C26&lt;&gt;"",$F$34,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
@@ -3963,9 +4680,9 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="35" t="str">
+      <c r="E30" s="27" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C26,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Temp&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Función Básica&lt;/h2&gt;</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>2</v>
@@ -3977,7 +4694,7 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="40" t="str">
+      <c r="E31" s="32" t="str">
         <f>IF(C26&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
@@ -3987,18 +4704,18 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="35" t="str">
+      <c r="C32" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="27" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;!-- ",C32," --&gt;"),"")</f>
-        <v>&lt;!-- %Temp% --&gt;</v>
+        <v>&lt;!-- Sintaxis básica --&gt;</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>2</v>
@@ -4010,7 +4727,7 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="32" t="str">
         <f>IF(C32&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
@@ -4020,21 +4737,21 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="35" t="str">
+      <c r="C34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="27" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("id=",Comillas,C34,Comillas),"")</f>
-        <v>id="Temp2"</v>
+        <v>id="sintaxisBasica"</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>2</v>
@@ -4046,7 +4763,7 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="35" t="str">
+      <c r="E35" s="27" t="str">
         <f>IF(C32&lt;&gt;"",$F$34,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
@@ -4060,9 +4777,9 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="35" t="str">
+      <c r="E36" s="27" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C32,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;%Temp%&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Sintaxis básica&lt;/h2&gt;</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>2</v>
@@ -4074,7 +4791,7 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="40" t="str">
+      <c r="E37" s="32" t="str">
         <f>IF(C32&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
@@ -4084,18 +4801,18 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="35" t="str">
+      <c r="C38" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="27" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("&lt;!-- ",C38," --&gt;"),"")</f>
-        <v>&lt;!-- Prefetch --&gt;</v>
+        <v>&lt;!-- Ejemplos --&gt;</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>2</v>
@@ -4105,11 +4822,9 @@
       <c r="B39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="12">
-        <v>3</v>
-      </c>
+      <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="40" t="str">
+      <c r="E39" s="32" t="str">
         <f>IF(C38&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
@@ -4119,21 +4834,21 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="35" t="str">
+      <c r="C40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="27" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("id=",Comillas,C40,Comillas),"")</f>
-        <v>id="prefetch"</v>
+        <v>id="ejemplos"</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>2</v>
@@ -4145,7 +4860,7 @@
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="35" t="str">
+      <c r="E41" s="27" t="str">
         <f>IF(C38&lt;&gt;"",$F$34,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
@@ -4159,9 +4874,9 @@
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="35" t="str">
+      <c r="E42" s="27" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C38,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Prefetch&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Ejemplos&lt;/h2&gt;</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>2</v>
@@ -4176,7 +4891,7 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="40" t="str">
+      <c r="E43" s="32" t="str">
         <f>IF(C38&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
@@ -4186,18 +4901,18 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="35" t="str">
+      <c r="C44" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="27" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("&lt;!-- ",C44," --&gt;"),"")</f>
-        <v>&lt;!-- Cleanmger --&gt;</v>
+        <v>&lt;!-- Usos comunes de &lt;code&gt;print()&lt;/code&gt;: --&gt;</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>2</v>
@@ -4209,7 +4924,7 @@
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="40" t="str">
+      <c r="E45" s="32" t="str">
         <f>IF(C44&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
@@ -4219,21 +4934,21 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="35" t="str">
+      <c r="C46" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="27" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("id=",Comillas,C46,Comillas),"")</f>
-        <v>id="cleanmger"</v>
+        <v>id="usosComunesPrint"</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>2</v>
@@ -4245,7 +4960,7 @@
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="35" t="str">
+      <c r="E47" s="27" t="str">
         <f>IF(C44&lt;&gt;"",$F$34,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
@@ -4259,9 +4974,9 @@
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="35" t="str">
+      <c r="E48" s="27" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C44,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Cleanmger&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Usos comunes de &lt;code&gt;print()&lt;/code&gt;:&lt;/h2&gt;</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>2</v>
@@ -4276,7 +4991,7 @@
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="40" t="str">
+      <c r="E49" s="32" t="str">
         <f>IF(C44&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
@@ -4286,18 +5001,18 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="35" t="str">
+      <c r="C50" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="27" t="str">
         <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;!-- ",C50," --&gt;"),"")</f>
-        <v>&lt;!-- Borrar Puntos de Restauración --&gt;</v>
+        <v>&lt;!-- Consideraciones --&gt;</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>2</v>
@@ -4312,7 +5027,7 @@
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="40" t="str">
+      <c r="E51" s="32" t="str">
         <f>IF(C50&lt;&gt;"","&lt;div","")</f>
         <v>&lt;div</v>
       </c>
@@ -4325,21 +5040,21 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="35" t="str">
+      <c r="C52" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="27" t="str">
         <f>IF(C50&lt;&gt;"",CONCATENATE("id=",Comillas,C52,Comillas),"")</f>
-        <v>id="borrarPuntosdeRestauracion"</v>
+        <v>id="consideraciones"</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>2</v>
@@ -4350,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="E53" s="35" t="str">
+      <c r="E53" s="27" t="str">
         <f>IF(C50&lt;&gt;"",$F$34,"")</f>
         <v>class="mt-5 pt-5 "&gt;</v>
       </c>
@@ -4363,9 +5078,9 @@
         <v>2</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="E54" s="35" t="str">
+      <c r="E54" s="27" t="str">
         <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C50,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Borrar Puntos de Restauración&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Consideraciones&lt;/h2&gt;</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>2</v>
@@ -4376,7 +5091,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="12"/>
-      <c r="E55" s="40" t="str">
+      <c r="E55" s="32" t="str">
         <f>IF(C50&lt;&gt;"","&lt;/div&gt;","")</f>
         <v>&lt;/div&gt;</v>
       </c>
@@ -4386,14 +5101,14 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="35" t="str">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="27" t="str">
         <f>IF(C56&lt;&gt;"",CONCATENATE("&lt;!-- ",C56," --&gt;"),"")</f>
         <v/>
       </c>
@@ -4407,7 +5122,7 @@
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="40" t="str">
+      <c r="E57" s="32" t="str">
         <f>IF(C56&lt;&gt;"","&lt;div","")</f>
         <v/>
       </c>
@@ -4417,19 +5132,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="35" t="str">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="27" t="str">
         <f>IF(C56&lt;&gt;"",CONCATENATE("id=",Comillas,C58,Comillas),"")</f>
         <v/>
       </c>
       <c r="F58" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>2</v>
@@ -4441,7 +5156,7 @@
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="35" t="str">
+      <c r="E59" s="27" t="str">
         <f>IF(C56&lt;&gt;"",$F$34,"")</f>
         <v/>
       </c>
@@ -4455,7 +5170,7 @@
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="35" t="str">
+      <c r="E60" s="27" t="str">
         <f>IF(C56&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C56,"&lt;/h2&gt;"),"")</f>
         <v/>
       </c>
@@ -4472,7 +5187,7 @@
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="40" t="str">
+      <c r="E61" s="32" t="str">
         <f>IF(C56&lt;&gt;"","&lt;/div&gt;","")</f>
         <v/>
       </c>
@@ -4484,8 +5199,8 @@
       <c r="B62" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="41" t="s">
-        <v>112</v>
+      <c r="E62" s="34" t="s">
+        <v>113</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>2</v>
@@ -4495,8 +5210,8 @@
       <c r="B63" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="42" t="s">
-        <v>113</v>
+      <c r="E63" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>2</v>
@@ -4506,9 +5221,9 @@
       <c r="B64" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="35" t="str">
+      <c r="E64" s="27" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Cómo Borrar la CACHÉ y Archivos Basura en Windows  --&gt;</v>
+        <v>&lt;!--  Instrucción print()  --&gt;</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>2</v>
@@ -4518,11 +5233,11 @@
       <c r="B65" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="35" t="s">
-        <v>114</v>
+      <c r="E65" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -4530,25 +5245,25 @@
         <v>2</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G66" s="43"/>
+        <v>116</v>
+      </c>
+      <c r="G66" s="36"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67" s="44"/>
+        <v>117</v>
+      </c>
+      <c r="G67" s="37"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -4562,27 +5277,27 @@
         <v>2</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" s="12" t="str">
         <f>IF(C21="si","&lt;li&gt;","")</f>
-        <v>&lt;li&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="12" t="str">
         <f>IF(C21="si",CONCATENATE("&lt;a href=",Comillas,"#",C22,Comillas,"&gt;",C20,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#introduccion"&gt;Introducción&lt;/a&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -4591,7 +5306,7 @@
       </c>
       <c r="E74" s="12" t="str">
         <f>IF(C21="si","&lt;/li&gt;","")</f>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="F74" s="12" t="s">
         <v>2</v>
@@ -4612,7 +5327,7 @@
       </c>
       <c r="E76" s="12" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C28,Comillas,"&gt;",C26,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#temp"&gt;Temp&lt;/a&gt;</v>
+        <v>&lt;a href="#funcionBasica"&gt;Función Básica&lt;/a&gt;</v>
       </c>
     </row>
     <row r="77" spans="5:5">
@@ -4630,7 +5345,7 @@
     <row r="79" spans="5:5">
       <c r="E79" s="12" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C34,Comillas,"&gt;",C32,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#Temp2"&gt;%Temp%&lt;/a&gt;</v>
+        <v>&lt;a href="#sintaxisBasica"&gt;Sintaxis básica&lt;/a&gt;</v>
       </c>
     </row>
     <row r="80" spans="5:5">
@@ -4648,7 +5363,7 @@
     <row r="82" spans="5:5">
       <c r="E82" s="12" t="str">
         <f>IF($C$38&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C40,Comillas,"&gt;",C38,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#prefetch"&gt;Prefetch&lt;/a&gt;</v>
+        <v>&lt;a href="#ejemplos"&gt;Ejemplos&lt;/a&gt;</v>
       </c>
     </row>
     <row r="83" spans="5:5">
@@ -4666,7 +5381,7 @@
     <row r="85" spans="5:5">
       <c r="E85" s="12" t="str">
         <f>IF(C$44&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C46,Comillas,"&gt;",C44,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#cleanmger"&gt;Cleanmger&lt;/a&gt;</v>
+        <v>&lt;a href="#usosComunesPrint"&gt;Usos comunes de &lt;code&gt;print()&lt;/code&gt;:&lt;/a&gt;</v>
       </c>
     </row>
     <row r="86" spans="5:5">
@@ -4684,7 +5399,7 @@
     <row r="88" spans="5:5">
       <c r="E88" s="12" t="str">
         <f>IF(C$50&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C52,Comillas,"&gt;",C50,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#borrarPuntosdeRestauracion"&gt;Borrar Puntos de Restauración&lt;/a&gt;</v>
+        <v>&lt;a href="#consideraciones"&gt;Consideraciones&lt;/a&gt;</v>
       </c>
     </row>
     <row r="89" spans="5:5">
@@ -4698,10 +5413,10 @@
         <f>IF(C56&lt;&gt;"","&lt;li&gt;","")</f>
         <v/>
       </c>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" s="12" t="str">
@@ -4716,38 +5431,38 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="36" t="s">
-        <v>112</v>
+      <c r="E96" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="46" t="s">
-        <v>123</v>
+      <c r="E97" s="39" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="45"/>
+      <c r="E99" s="38"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12">
@@ -4767,1557 +5482,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="9" tint="0.8"/>
-  </sheetPr>
-  <dimension ref="A1:XFD55"/>
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="0.158333333333333" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27"/>
-    <col min="3" max="3" width="139.991666666667" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11" style="27"/>
-    <col min="5" max="5" width="35" style="27" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="27"/>
-    <col min="16384" max="16384" width="11" style="28"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="2:16384">
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="27"/>
-    </row>
-    <row r="2" spans="2:16384">
-      <c r="B2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="24" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="27"/>
-    </row>
-    <row r="3" spans="2:16384">
-      <c r="B3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="27"/>
-    </row>
-    <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="32"/>
-      <c r="XFD4" s="27"/>
-    </row>
-    <row r="5" spans="1:16384">
-      <c r="A5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="33" t="str">
-        <f t="shared" ref="B5:B8" si="0">A5</f>
-        <v>&lt;head&gt;</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="27"/>
-    </row>
-    <row r="6" spans="1:16384">
-      <c r="A6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;!-- Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="27"/>
-    </row>
-    <row r="7" spans="1:16384">
-      <c r="A7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta charset="utf-8" /&gt;</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="27"/>
-    </row>
-    <row r="8" spans="1:16384">
-      <c r="A8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="27"/>
-    </row>
-    <row r="9" spans="1:16384">
-      <c r="A9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="33" t="str">
-        <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="XFD9" s="27"/>
-    </row>
-    <row r="10" spans="1:16384">
-      <c r="A10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="33" t="str">
-        <f>A10</f>
-        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="27"/>
-    </row>
-    <row r="11" spans="1:16384">
-      <c r="A11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="33" t="str">
-        <f>A11</f>
-        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="27"/>
-    </row>
-    <row r="12" spans="1:16384">
-      <c r="A12" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="33" t="str">
-        <f>A12</f>
-        <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="27"/>
-    </row>
-    <row r="13" spans="1:16384">
-      <c r="A13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="33" t="str">
-        <f>A13</f>
-        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="27"/>
-    </row>
-    <row r="14" spans="1:16384">
-      <c r="A14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="33" t="str">
-        <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="XFD14" s="27"/>
-    </row>
-    <row r="15" spans="1:16384">
-      <c r="A15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="33" t="str">
-        <f t="shared" ref="B15:B18" si="1">A15</f>
-        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="27"/>
-    </row>
-    <row r="16" spans="2:16384">
-      <c r="B16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="27"/>
-    </row>
-    <row r="17" spans="1:16384">
-      <c r="A17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;!-- Open Graph data --&gt;</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="27"/>
-    </row>
-    <row r="18" spans="1:16384">
-      <c r="A18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta property="og:type" content="website" /&gt;</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="27"/>
-    </row>
-    <row r="19" spans="1:16384">
-      <c r="A19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="33" t="str">
-        <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="XFD19" s="27"/>
-    </row>
-    <row r="20" spans="1:16384">
-      <c r="A20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="33" t="str">
-        <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="XFD20" s="27"/>
-    </row>
-    <row r="21" spans="1:16384">
-      <c r="A21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B25" si="2">A21</f>
-        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="27"/>
-    </row>
-    <row r="22" spans="1:16384">
-      <c r="A22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="27"/>
-    </row>
-    <row r="23" spans="1:16384">
-      <c r="A23" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="33" t="str">
-        <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/photoshop.html" /&gt;</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="XFD23" s="27"/>
-    </row>
-    <row r="24" spans="1:16384">
-      <c r="A24" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="27"/>
-    </row>
-    <row r="25" spans="1:16384">
-      <c r="A25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;!-- fin Open Graph data --&gt;</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="27"/>
-    </row>
-    <row r="26" spans="2:16384">
-      <c r="B26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="27"/>
-    </row>
-    <row r="27" spans="1:16384">
-      <c r="A27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="33" t="str">
-        <f t="shared" ref="B27:B29" si="3">A27</f>
-        <v>&lt;!-- Twitter cards --&gt;</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="27"/>
-    </row>
-    <row r="28" spans="1:16384">
-      <c r="A28" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="27"/>
-    </row>
-    <row r="29" spans="1:16384">
-      <c r="A29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="27"/>
-    </row>
-    <row r="30" spans="1:16384">
-      <c r="A30" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="33" t="str">
-        <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFD30" s="27"/>
-    </row>
-    <row r="31" spans="1:16384">
-      <c r="A31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="33" t="str">
-        <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Índice de todos los artículos publicados en este sitio web sobre el programa de edición de imágenes Adobe Photoshop" /&gt;</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD31" s="27"/>
-    </row>
-    <row r="32" spans="1:16384">
-      <c r="A32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="33" t="str">
-        <f t="shared" ref="B32:B34" si="4">A32</f>
-        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="27"/>
-    </row>
-    <row r="33" spans="1:16384">
-      <c r="A33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="27"/>
-    </row>
-    <row r="34" spans="1:16384">
-      <c r="A34" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;!-- Fin Twitter cards --&gt;</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="27"/>
-    </row>
-    <row r="35" spans="2:16384">
-      <c r="B35" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="27"/>
-    </row>
-    <row r="36" spans="1:16384">
-      <c r="A36" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="33" t="str">
-        <f t="shared" ref="B36:B45" si="5">A36</f>
-        <v>&lt;!-- iconos --&gt;</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="27"/>
-    </row>
-    <row r="37" spans="1:16384">
-      <c r="A37" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="27"/>
-    </row>
-    <row r="38" spans="1:16384">
-      <c r="A38" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="27"/>
-    </row>
-    <row r="39" spans="1:16384">
-      <c r="A39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="27"/>
-    </row>
-    <row r="40" spans="1:16384">
-      <c r="A40" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="27"/>
-    </row>
-    <row r="41" spans="1:16384">
-      <c r="A41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="27"/>
-    </row>
-    <row r="42" spans="1:16384">
-      <c r="A42" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="27"/>
-    </row>
-    <row r="43" spans="1:16384">
-      <c r="A43" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="27"/>
-    </row>
-    <row r="44" spans="1:16384">
-      <c r="A44" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="27"/>
-    </row>
-    <row r="45" spans="1:16384">
-      <c r="A45" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;!-- fin iconos --&gt;</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="27"/>
-    </row>
-    <row r="46" spans="2:16384">
-      <c r="B46" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="27"/>
-    </row>
-    <row r="47" spans="1:16384">
-      <c r="A47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="33" t="str">
-        <f t="shared" ref="B47:B51" si="6">A47</f>
-        <v>&lt;title&gt;</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="27"/>
-    </row>
-    <row r="48" spans="1:16384">
-      <c r="A48" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="33" t="str">
-        <f>C1</f>
-        <v>Índice de Adobe Photoshop - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="27"/>
-    </row>
-    <row r="49" spans="1:16384">
-      <c r="A49" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;/title&gt;</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="27"/>
-    </row>
-    <row r="50" spans="2:16384">
-      <c r="B50" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="27"/>
-    </row>
-    <row r="51" spans="1:16384">
-      <c r="A51" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="27"/>
-    </row>
-    <row r="52" spans="2:16384">
-      <c r="B52" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="27"/>
-    </row>
-    <row r="53" spans="1:16384">
-      <c r="A53" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="33" t="str">
-        <f>A53</f>
-        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="27"/>
-    </row>
-    <row r="54" spans="1:16384">
-      <c r="A54" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="33" t="str">
-        <f>A54</f>
-        <v>&lt;/head&gt;</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="27"/>
-    </row>
-    <row r="55" spans="16384:16384">
-      <c r="XFD55" s="27"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/photoshop.html" tooltip="https://eduardoherreraf.github.io/photoshop.html"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="9" tint="0.8"/>
-  </sheetPr>
-  <dimension ref="A1:XFD54"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="0.158333333333333" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27"/>
-    <col min="3" max="3" width="139.991666666667" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11" style="27"/>
-    <col min="5" max="5" width="35" style="27" customWidth="1"/>
-    <col min="6" max="16383" width="11" style="27"/>
-    <col min="16384" max="16384" width="11" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16384">
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD1" s="27"/>
-    </row>
-    <row r="2" spans="2:16384">
-      <c r="B2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD2" s="27"/>
-    </row>
-    <row r="3" spans="2:16384">
-      <c r="B3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD3" s="27"/>
-    </row>
-    <row r="4" ht="6" customHeight="1" spans="2:16384">
-      <c r="B4" s="32"/>
-      <c r="XFD4" s="27"/>
-    </row>
-    <row r="5" spans="1:16384">
-      <c r="A5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="33" t="str">
-        <f t="shared" ref="B5:B8" si="0">A5</f>
-        <v>&lt;head&gt;</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD5" s="27"/>
-    </row>
-    <row r="6" spans="1:16384">
-      <c r="A6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;!-- Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD6" s="27"/>
-    </row>
-    <row r="7" spans="1:16384">
-      <c r="A7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta charset="utf-8" /&gt;</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD7" s="27"/>
-    </row>
-    <row r="8" spans="1:16384">
-      <c r="A8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD8" s="27"/>
-    </row>
-    <row r="9" spans="1:16384">
-      <c r="A9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="33" t="str">
-        <f>CONCATENATE(E9,$C$1,F9)</f>
-        <v>&lt;meta name="description" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="XFD9" s="27"/>
-    </row>
-    <row r="10" spans="1:16384">
-      <c r="A10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="33" t="str">
-        <f t="shared" ref="B10:B13" si="1">A10</f>
-        <v>&lt;meta name="author" content="Ing. Eduardo Herrera Forero" /&gt;</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD10" s="27"/>
-    </row>
-    <row r="11" spans="1:16384">
-      <c r="A11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="application-name" content="EHF" /&gt;</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD11" s="27"/>
-    </row>
-    <row r="12" spans="1:16384">
-      <c r="A12" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="robots" content="noindex, follow" /&gt;</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD12" s="27"/>
-    </row>
-    <row r="13" spans="1:16384">
-      <c r="A13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;meta name="google" content="notranslate" /&gt;</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD13" s="27"/>
-    </row>
-    <row r="14" spans="1:16384">
-      <c r="A14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="33" t="str">
-        <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="XFD14" s="27"/>
-    </row>
-    <row r="15" spans="1:16384">
-      <c r="A15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="33" t="str">
-        <f t="shared" ref="B15:B18" si="2">A15</f>
-        <v>&lt;!-- Fin Metaetiquetas --&gt;</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD15" s="27"/>
-    </row>
-    <row r="16" spans="2:16384">
-      <c r="B16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD16" s="27"/>
-    </row>
-    <row r="17" spans="1:16384">
-      <c r="A17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;!-- Open Graph data --&gt;</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD17" s="27"/>
-    </row>
-    <row r="18" spans="1:16384">
-      <c r="A18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;meta property="og:type" content="website" /&gt;</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD18" s="27"/>
-    </row>
-    <row r="19" spans="1:16384">
-      <c r="A19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="33" t="str">
-        <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="XFD19" s="27"/>
-    </row>
-    <row r="20" spans="1:16384">
-      <c r="A20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="33" t="str">
-        <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="XFD20" s="27"/>
-    </row>
-    <row r="21" spans="1:16384">
-      <c r="A21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B25" si="3">A21</f>
-        <v>&lt;meta property="og:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD21" s="27"/>
-    </row>
-    <row r="22" spans="1:16384">
-      <c r="A22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta property="og:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"/&gt;</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD22" s="27"/>
-    </row>
-    <row r="23" spans="1:16384">
-      <c r="A23" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="33" t="str">
-        <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/git.htmll" /&gt;</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="XFD23" s="27"/>
-    </row>
-    <row r="24" spans="1:16384">
-      <c r="A24" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;meta property="og:locale" content="es_CO" /&gt;</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD24" s="27"/>
-    </row>
-    <row r="25" spans="1:16384">
-      <c r="A25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;!-- fin Open Graph data --&gt;</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD25" s="27"/>
-    </row>
-    <row r="26" spans="2:16384">
-      <c r="B26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD26" s="27"/>
-    </row>
-    <row r="27" spans="1:16384">
-      <c r="A27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="33" t="str">
-        <f t="shared" ref="B27:B29" si="4">A27</f>
-        <v>&lt;!-- Twitter cards --&gt;</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD27" s="27"/>
-    </row>
-    <row r="28" spans="1:16384">
-      <c r="A28" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:card" content="summary" /&gt;</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD28" s="27"/>
-    </row>
-    <row r="29" spans="1:16384">
-      <c r="A29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;meta name="twitter:site" content="@ehfeduardo" /&gt;</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD29" s="27"/>
-    </row>
-    <row r="30" spans="1:16384">
-      <c r="A30" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="33" t="str">
-        <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="Índice de Git / Github - Ing. Eduardo Herrera Forero." /&gt;</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFD30" s="27"/>
-    </row>
-    <row r="31" spans="1:16384">
-      <c r="A31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="33" t="str">
-        <f>CONCATENATE(E31,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Este es el índice en donde se encontraran todos los artículos del Sistema de Control de Versiones  GIT / GITHUB que se han publicado en este sitio web." /&gt;</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD31" s="27"/>
-    </row>
-    <row r="32" spans="1:16384">
-      <c r="A32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="33" t="str">
-        <f t="shared" ref="B32:B34" si="5">A32</f>
-        <v>&lt;meta name="twitter:image" content="https://i.imgur.com/JKbKYrO.png" /&gt;</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD32" s="27"/>
-    </row>
-    <row r="33" spans="1:16384">
-      <c r="A33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;meta name="twitter:image:alt" content="Logo del ingeniero Eduardo Herrera Forero"&gt;</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD33" s="27"/>
-    </row>
-    <row r="34" spans="1:16384">
-      <c r="A34" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;!-- Fin Twitter cards --&gt;</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD34" s="27"/>
-    </row>
-    <row r="35" spans="2:16384">
-      <c r="B35" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD35" s="27"/>
-    </row>
-    <row r="36" spans="1:16384">
-      <c r="A36" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="33" t="str">
-        <f t="shared" ref="B36:B45" si="6">A36</f>
-        <v>&lt;!-- iconos --&gt;</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD36" s="27"/>
-    </row>
-    <row r="37" spans="1:16384">
-      <c r="A37" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="apple-touch-icon" sizes="180x180" href="apple-touch-icon.png" /&gt;</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD37" s="27"/>
-    </row>
-    <row r="38" spans="1:16384">
-      <c r="A38" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="32x32" href="favicon-32x32.png" /&gt;</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD38" s="27"/>
-    </row>
-    <row r="39" spans="1:16384">
-      <c r="A39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="192x192" href="android-chrome-192x192.png"/&gt;</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD39" s="27"/>
-    </row>
-    <row r="40" spans="1:16384">
-      <c r="A40" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="icon" type="image/png" sizes="16x16" href="favicon-16x16.png" /&gt;</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD40" s="27"/>
-    </row>
-    <row r="41" spans="1:16384">
-      <c r="A41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="manifest" href="site.webmanifest" /&gt;</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD41" s="27"/>
-    </row>
-    <row r="42" spans="1:16384">
-      <c r="A42" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;link rel="mask-icon" href="safari-pinned-tab.svg" color="#5bbad5" /&gt;</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD42" s="27"/>
-    </row>
-    <row r="43" spans="1:16384">
-      <c r="A43" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;meta name="msapplication-TileColor" content="#da532c" /&gt;</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD43" s="27"/>
-    </row>
-    <row r="44" spans="1:16384">
-      <c r="A44" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;meta name="theme-color" content="#ffffff" /&gt;</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD44" s="27"/>
-    </row>
-    <row r="45" spans="1:16384">
-      <c r="A45" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;!-- fin iconos --&gt;</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD45" s="27"/>
-    </row>
-    <row r="46" spans="2:16384">
-      <c r="B46" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD46" s="27"/>
-    </row>
-    <row r="47" spans="1:16384">
-      <c r="A47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="33" t="str">
-        <f t="shared" ref="B47:B51" si="7">A47</f>
-        <v>&lt;title&gt;</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD47" s="27"/>
-    </row>
-    <row r="48" spans="1:16384">
-      <c r="A48" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="33" t="str">
-        <f>C1</f>
-        <v>Índice de Git / Github - Ing. Eduardo Herrera Forero.</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD48" s="27"/>
-    </row>
-    <row r="49" spans="1:16384">
-      <c r="A49" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;/title&gt;</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD49" s="27"/>
-    </row>
-    <row r="50" spans="2:16384">
-      <c r="B50" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD50" s="27"/>
-    </row>
-    <row r="51" spans="1:16384">
-      <c r="A51" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;script type="module" defer src="./js/main.js"&gt;&lt;/script&gt;</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD51" s="27"/>
-    </row>
-    <row r="52" spans="2:16384">
-      <c r="B52" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD52" s="27"/>
-    </row>
-    <row r="53" spans="1:16384">
-      <c r="A53" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="33" t="str">
-        <f>A53</f>
-        <v>&lt;meta name="google-site-verification" content="2H5ZMCD1_xl7oxaiqnopfdQBnIXVIOfmW0UBSa5sQJc"/&gt;</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD53" s="27"/>
-    </row>
-    <row r="54" spans="1:16384">
-      <c r="A54" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="33" t="str">
-        <f>A54</f>
-        <v>&lt;/head&gt;</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="XFD54" s="27"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/git.htmll" tooltip="https://eduardoherreraf.github.io/git.htmll"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6325,132 +5507,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G22"/>
+      <selection activeCell="G17" sqref="G17:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="52.25" customWidth="1"/>
+    <col min="1" max="1" width="52.25" style="17" customWidth="1"/>
     <col min="2" max="5" width="5.625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0.325" customWidth="1"/>
     <col min="7" max="7" width="51.625" style="18" customWidth="1"/>
@@ -6458,12 +5523,12 @@
   <sheetData>
     <row r="1" spans="7:7">
       <c r="G1" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="2:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>B2</f>
@@ -6472,7 +5537,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B13" si="0">IF(A3&lt;&gt;"",$B$14,"")</f>
@@ -6480,7 +5545,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C13" si="1">IF(A3&lt;&gt;"",LEFT(A3,FIND(":",A3,1)-1),"")</f>
-        <v>Cuando el sistema está funcionando bien y estable</v>
+        <v>Depuración</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D13" si="2">IF(A3&lt;&gt;"","&lt;/span&gt;","")</f>
@@ -6488,7 +5553,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E13" si="3">IF(A3&lt;&gt;"",RIGHT(A3,LEN(A3)-FIND(":",A3,1)),"")</f>
-        <v> Si no ha habido problemas recientes y el sistema está estable, puede ser seguro borrar los puntos antiguos.</v>
+        <v> Verificar el valor de las variables en diferentes puntos del código.</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F13" si="4">IF(A3&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -6496,12 +5561,12 @@
       </c>
       <c r="G3" s="18" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(B3,C3,D3,":",E3,F3),IF(A2&lt;&gt;"",$B$15,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Cuando el sistema está funcionando bien y estable&lt;/span&gt;: Si no ha habido problemas recientes y el sistema está estable, puede ser seguro borrar los puntos antiguos.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Depuración&lt;/span&gt;: Verificar el valor de las variables en diferentes puntos del código.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20" t="s">
-        <v>150</v>
+      <c r="A4" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -6509,7 +5574,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Para liberar espacio en disco</v>
+        <v>Mostrar resultados</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
@@ -6517,7 +5582,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v> Si necesitas espacio y no te preocupa la posibilidad de restaurar el sistema a un estado anterior, borrar los puntos de restauración puede ser una opción válida.</v>
+        <v> Presentar los resultados de cálculos o procesos.</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="4"/>
@@ -6525,65 +5590,69 @@
       </c>
       <c r="G4" s="18" t="str">
         <f>IF(A4&lt;&gt;"",CONCATENATE(B4,C4,D4,":",E4,F4),IF(A3&lt;&gt;"",$B$15,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Para liberar espacio en disco&lt;/span&gt;: Si necesitas espacio y no te preocupa la posibilidad de restaurar el sistema a un estado anterior, borrar los puntos de restauración puede ser una opción válida.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Mostrar resultados&lt;/span&gt;: Presentar los resultados de cálculos o procesos.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Interactuar con el usuario</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/span&gt;</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v> Solicitar información o proporcionar mensajes.</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G5" s="18" t="str">
         <f t="shared" ref="G3:G7" si="5">IF(A5&lt;&gt;"",CONCATENATE(B5,C5,D5,":",E5,F5),IF(A4&lt;&gt;"",$B$15,""))</f>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Interactuar con el usuario&lt;/span&gt;: Solicitar información o proporcionar mensajes.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Crear salidas formateadas</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/span&gt;</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v> Generar informes o tablas.</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G6" s="18" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Crear salidas formateadas&lt;/span&gt;: Generar informes o tablas.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6606,11 +5675,11 @@
       </c>
       <c r="G7" s="18" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6637,7 +5706,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6664,7 +5733,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6691,7 +5760,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6718,7 +5787,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6745,7 +5814,7 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6773,7 +5842,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -6785,17 +5854,17 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" s="18" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:7">
       <c r="B17" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G17" s="18" t="str">
         <f>B17</f>
@@ -6803,8 +5872,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19" t="s">
-        <v>152</v>
+      <c r="A18" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ref="B18:B28" si="7">IF(A18&lt;&gt;"",$B$29,"")</f>
@@ -6816,12 +5885,12 @@
       </c>
       <c r="G18" s="18" t="str">
         <f t="shared" ref="G18:G29" si="9">IF(A18&lt;&gt;"",CONCATENATE(B18,A18,F18),IF(A17&lt;&gt;"",$B$15,""))</f>
-        <v>&lt;li&gt;Hacer clic en el menú de inicio y escribir "Crear un punto de restauración"&lt;/li&gt;</v>
+        <v>&lt;li&gt;Es posible imprimir objetos de diferentes tipos (números, strings, listas, etc.).&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20" t="s">
-        <v>153</v>
+      <c r="A19" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="7"/>
@@ -6833,45 +5902,41 @@
       </c>
       <c r="G19" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;li&gt;En la pestaña Protección del sistema, selecciona la unidad de tu sistema (generalmente C:) y hacer clic en Configurar.&lt;/li&gt;</v>
+        <v>&lt;li&gt;print() convierte todos los argumentos en cadenas de texto (usando str()) antes de mostrarlos.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="A20" s="19"/>
       <c r="B20" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;li&gt;</v>
+        <v/>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G20" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;li&gt;En la ventana emergente siguiente hacer clic en el botón eliminar&lt;/li&gt;</v>
+        <v>&lt;/ul&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="A21" s="19"/>
       <c r="B21" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;li&gt;</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;/li&gt;</v>
+        <v/>
       </c>
       <c r="G21" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;li&gt;Confirmar&lt;/li&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6894,11 +5959,11 @@
       </c>
       <c r="G22" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;/ul&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6925,7 +5990,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6952,7 +6017,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6979,7 +6044,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7006,7 +6071,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7033,8 +6098,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20" t="s">
-        <v>156</v>
+      <c r="A28" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="7"/>
@@ -7063,10 +6128,10 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G29" s="18" t="str">
         <f t="shared" si="9"/>
@@ -7076,27 +6141,27 @@
     <row r="30" ht="15"/>
     <row r="31" s="17" customFormat="1" ht="15" spans="1:7">
       <c r="A31" s="22" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="24" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E32" s="17"/>
       <c r="G32" s="23" t="str">
@@ -7106,22 +6171,22 @@
     </row>
     <row r="33" spans="7:7">
       <c r="G33" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>164</v>
+      <c r="A37" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" s="18" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G45" s="18" t="str">
         <f>B45</f>
@@ -7129,8 +6194,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20" t="s">
-        <v>149</v>
+      <c r="A46" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" ref="B46:B56" si="13">IF(A46&lt;&gt;"",$B$14,"")</f>
@@ -7150,8 +6215,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20" t="s">
-        <v>150</v>
+      <c r="A47" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="13"/>
@@ -7171,7 +6236,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7198,7 +6263,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
       <c r="B49" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7225,7 +6290,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="20"/>
+      <c r="A50" s="19"/>
       <c r="B50" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7252,7 +6317,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
+      <c r="A51" s="19"/>
       <c r="B51" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7279,7 +6344,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
+      <c r="A52" s="19"/>
       <c r="B52" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7306,7 +6371,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
+      <c r="A53" s="19"/>
       <c r="B53" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7333,7 +6398,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
+      <c r="A54" s="19"/>
       <c r="B54" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7360,7 +6425,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="20"/>
+      <c r="A55" s="19"/>
       <c r="B55" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7387,7 +6452,7 @@
       </c>
     </row>
     <row r="56" ht="15" spans="1:7">
-      <c r="A56" s="21"/>
+      <c r="A56" s="20"/>
       <c r="B56" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -7415,10 +6480,10 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G57" s="18" t="str">
         <f t="shared" si="16"/>
@@ -7447,12 +6512,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A209" sqref="A2:A209"/>
@@ -7468,30 +6533,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B5" s="6"/>
     </row>
@@ -7501,7 +6566,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io&lt;/loc&gt;</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7520,7 +6585,7 @@
         <v>&lt;changefreq&gt;weekly&lt;/changefreq&gt;</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7529,18 +6594,18 @@
         <v>&lt;priority&gt;1.0&lt;/priority&gt;</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B11" s="6"/>
     </row>
@@ -7550,7 +6615,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io/index.html&lt;/loc&gt;</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7569,7 +6634,7 @@
         <v>&lt;changefreq&gt;weekly&lt;/changefreq&gt;</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7578,24 +6643,24 @@
         <v>&lt;priority&gt;0.9&lt;/priority&gt;</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B16" s="10"/>
     </row>
     <row r="17" ht="15.75" spans="1:2">
       <c r="A17" s="11" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="12"/>
@@ -7627,7 +6692,7 @@
         <v>&lt;changefreq&gt;monthly&lt;/changefreq&gt;</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C21" s="12"/>
     </row>
@@ -7637,20 +6702,20 @@
         <v>&lt;priority&gt;0.7&lt;/priority&gt;</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C22" s="12"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
       <c r="A23" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="12"/>
@@ -7661,7 +6726,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io/git.html&lt;/loc&gt;</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C25" s="12"/>
     </row>
@@ -7682,7 +6747,7 @@
         <v>&lt;changefreq&gt;monthly&lt;/changefreq&gt;</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C27" s="12"/>
     </row>
@@ -7692,20 +6757,20 @@
         <v>&lt;priority&gt;0.7&lt;/priority&gt;</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C28" s="12"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
       <c r="A29" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="12"/>
@@ -7716,7 +6781,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io/javascript.html&lt;/loc&gt;</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C31" s="12"/>
     </row>
@@ -7737,7 +6802,7 @@
         <v>&lt;changefreq&gt;monthly&lt;/changefreq&gt;</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C33" s="12"/>
     </row>
@@ -7747,20 +6812,20 @@
         <v>&lt;priority&gt;0.7&lt;/priority&gt;</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C34" s="12"/>
     </row>
     <row r="35" ht="15.75" spans="1:3">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="12"/>
@@ -7771,7 +6836,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io/photoshop.html&lt;/loc&gt;</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C37" s="12"/>
     </row>
@@ -7792,7 +6857,7 @@
         <v>&lt;changefreq&gt;monthly&lt;/changefreq&gt;</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C39" s="12"/>
     </row>
@@ -7802,20 +6867,20 @@
         <v>&lt;priority&gt;0.7&lt;/priority&gt;</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C40" s="12"/>
     </row>
     <row r="41" ht="15.75" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="12"/>
@@ -7826,7 +6891,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io/otrosTemas.html&lt;/loc&gt;</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="C43" s="12"/>
     </row>
@@ -7847,7 +6912,7 @@
         <v>&lt;changefreq&gt;monthly&lt;/changefreq&gt;</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C45" s="12"/>
     </row>
@@ -7857,26 +6922,26 @@
         <v>&lt;priority&gt;0.7&lt;/priority&gt;</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C46" s="12"/>
     </row>
     <row r="47" ht="15.75" spans="1:3">
       <c r="A47" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="12"/>
     </row>
     <row r="48" ht="15.75" spans="1:2">
       <c r="A48" s="11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="12"/>
@@ -7887,7 +6952,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_parcel.html&lt;/loc&gt;</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C50" s="12"/>
     </row>
@@ -7908,7 +6973,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C52" s="12"/>
     </row>
@@ -7918,20 +6983,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C53" s="12"/>
     </row>
     <row r="54" ht="15.75" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="12"/>
@@ -7942,7 +7007,7 @@
         <v>&lt;loc&gt;https://eduardoherreraf.github.io/bootstrap@instalacion_de_bootstrap_v5_con_npm_y_vite.html&lt;/loc&gt;</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C56" s="12"/>
     </row>
@@ -7963,7 +7028,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C58" s="12"/>
     </row>
@@ -7973,27 +7038,27 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C59" s="12"/>
     </row>
     <row r="60" ht="15.75" spans="1:3">
       <c r="A60" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" ht="15.75" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B62" s="6"/>
     </row>
@@ -8007,7 +7072,7 @@
         <v>https://eduardoherreraf.github.io/git@configuracion_inicial_GIT.html</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8027,7 +7092,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C65" s="12"/>
     </row>
@@ -8037,20 +7102,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" ht="15.75" spans="1:3">
       <c r="A67" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="12"/>
@@ -8065,7 +7130,7 @@
         <v>https://eduardoherreraf.github.io/git@introduccion_de_git_para_windows.html</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8085,7 +7150,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C71" s="12"/>
     </row>
@@ -8095,20 +7160,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C72" s="12"/>
     </row>
     <row r="73" ht="15.75" spans="1:3">
       <c r="A73" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="12"/>
@@ -8123,7 +7188,7 @@
         <v>https://eduardoherreraf.github.io/git@comandos_basicos_de_consola-Terminal_CLI_para_windows.html</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8143,7 +7208,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C77" s="12"/>
     </row>
@@ -8153,20 +7218,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C78" s="12"/>
     </row>
     <row r="79" ht="15.75" spans="1:3">
       <c r="A79" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="12"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="12"/>
@@ -8181,7 +7246,7 @@
         <v>https://eduardoherreraf.github.io/git@como_eliminar_el_ultimo_commit_de_git.html</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8201,7 +7266,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C83" s="12"/>
     </row>
@@ -8211,27 +7276,27 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C84" s="12"/>
     </row>
     <row r="85" ht="15.75" spans="1:3">
       <c r="A85" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="12"/>
     </row>
     <row r="86" ht="15.75" spans="1:3">
       <c r="A86" s="11" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="12"/>
@@ -8246,7 +7311,7 @@
         <v>https://eduardoherreraf.github.io/js@como_ejecutar_un_codigo_javascript.html</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8266,7 +7331,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C90" s="12"/>
     </row>
@@ -8276,20 +7341,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C91" s="12"/>
     </row>
     <row r="92" ht="15.75" spans="1:3">
       <c r="A92" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="12"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="12"/>
@@ -8304,7 +7369,7 @@
         <v>https://eduardoherreraf.github.io/js@configurar_el_entorno_de_trabajo_Javascript.html</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8324,7 +7389,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C96" s="12"/>
     </row>
@@ -8334,27 +7399,27 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C97" s="12"/>
     </row>
     <row r="98" ht="15.75" spans="1:3">
       <c r="A98" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" ht="15.75" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="12"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="12"/>
@@ -8369,7 +7434,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@metadata_y_exportacion.html</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8389,7 +7454,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C103" s="12"/>
     </row>
@@ -8399,20 +7464,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C104" s="12"/>
     </row>
     <row r="105" ht="15.75" spans="1:3">
       <c r="A105" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="12"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="12"/>
@@ -8427,7 +7492,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@filtros_licuar.html</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8447,7 +7512,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C109" s="12"/>
     </row>
@@ -8457,20 +7522,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C110" s="12"/>
     </row>
     <row r="111" ht="15.75" spans="1:3">
       <c r="A111" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="12"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="12"/>
@@ -8485,7 +7550,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@filtros_neurales.html</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8505,7 +7570,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C115" s="12"/>
     </row>
@@ -8515,20 +7580,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C116" s="12"/>
     </row>
     <row r="117" ht="15.75" spans="1:3">
       <c r="A117" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="12"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="12"/>
@@ -8543,7 +7608,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@filtros.html</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -8563,7 +7628,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C121" s="12"/>
     </row>
@@ -8573,20 +7638,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C122" s="12"/>
     </row>
     <row r="123" ht="15.75" spans="1:3">
       <c r="A123" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="12"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="12"/>
@@ -8601,7 +7666,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@formas_y_capas.html</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -8621,7 +7686,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C127" s="12"/>
     </row>
@@ -8631,20 +7696,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C128" s="12"/>
     </row>
     <row r="129" ht="15.75" spans="1:3">
       <c r="A129" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="12"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="12"/>
@@ -8659,7 +7724,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@textos.html</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -8679,7 +7744,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C133" s="12"/>
     </row>
@@ -8689,20 +7754,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C134" s="12"/>
     </row>
     <row r="135" ht="15.75" spans="1:3">
       <c r="A135" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="12"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="12"/>
@@ -8717,7 +7782,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@color_y_degradados.html</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -8737,7 +7802,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C139" s="12"/>
     </row>
@@ -8747,20 +7812,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C140" s="12"/>
     </row>
     <row r="141" ht="15.75" spans="1:3">
       <c r="A141" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="12"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="12"/>
@@ -8775,7 +7840,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@uso_de_pinceles.html</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -8795,7 +7860,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C145" s="12"/>
     </row>
@@ -8805,20 +7870,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C146" s="12"/>
     </row>
     <row r="147" ht="15.75" spans="1:3">
       <c r="A147" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="12"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="12"/>
@@ -8833,7 +7898,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@agregar_y_quitar_objetos.html</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -8853,7 +7918,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C151" s="12"/>
     </row>
@@ -8863,20 +7928,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C152" s="12"/>
     </row>
     <row r="153" ht="15.75" spans="1:3">
       <c r="A153" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="12"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="12"/>
@@ -8891,7 +7956,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@herramientas_de_seleccion.html</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -8911,7 +7976,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C157" s="12"/>
     </row>
@@ -8921,20 +7986,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C158" s="12"/>
     </row>
     <row r="159" ht="15.75" spans="1:3">
       <c r="A159" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="12"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="12"/>
@@ -8949,7 +8014,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@ajuste_tono_brillo_y_saturacion.html</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -8969,7 +8034,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C163" s="12"/>
     </row>
@@ -8979,20 +8044,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C164" s="12"/>
     </row>
     <row r="165" ht="15.75" spans="1:3">
       <c r="A165" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="12"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="12"/>
@@ -9007,7 +8072,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@trabajo_con_capas.html</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -9027,7 +8092,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C169" s="12"/>
     </row>
@@ -9037,20 +8102,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C170" s="12"/>
     </row>
     <row r="171" ht="15.75" spans="1:3">
       <c r="A171" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="12"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="12"/>
@@ -9065,7 +8130,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@ajuste_lienzo_resolucion.html</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -9085,7 +8150,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C175" s="12"/>
     </row>
@@ -9095,20 +8160,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C176" s="12"/>
     </row>
     <row r="177" ht="15.75" spans="1:3">
       <c r="A177" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="12"/>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="12"/>
@@ -9123,7 +8188,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@compartir_y_editar_archivos.html</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -9143,7 +8208,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C181" s="12"/>
     </row>
@@ -9153,20 +8218,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C182" s="12"/>
     </row>
     <row r="183" ht="15.75" spans="1:3">
       <c r="A183" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="12"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="12"/>
@@ -9181,7 +8246,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@interfaz_y_area_de_trabajo.html</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -9201,7 +8266,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C187" s="12"/>
     </row>
@@ -9211,20 +8276,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C188" s="12"/>
     </row>
     <row r="189" ht="15.75" spans="1:3">
       <c r="A189" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="12"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="12"/>
@@ -9239,7 +8304,7 @@
         <v>https://eduardoherreraf.github.io/photoshop@comenzando_un_proyecto.html</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -9259,7 +8324,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C193" s="12"/>
     </row>
@@ -9269,27 +8334,27 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C194" s="12"/>
     </row>
     <row r="195" ht="15.75" spans="1:3">
       <c r="A195" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="12"/>
     </row>
     <row r="196" ht="15.75" spans="1:3">
       <c r="A196" s="11" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="12"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="12"/>
@@ -9304,7 +8369,7 @@
         <v>https://eduardoherreraf.github.io/otrosTemas@como_aprender_cualquier_habilidad_facilmente_con_chatgpt.html</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -9324,7 +8389,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C200" s="12"/>
     </row>
@@ -9334,20 +8399,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C201" s="12"/>
     </row>
     <row r="202" ht="15.75" spans="1:3">
       <c r="A202" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="12"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="12"/>
@@ -9362,7 +8427,7 @@
         <v>https://eduardoherreraf.github.io/otrosTemas@como_aprender_cualquier_habilidad_facilmente_con_chatgpt.html</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -9382,7 +8447,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C206" s="12"/>
     </row>
@@ -9392,20 +8457,20 @@
         <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C207" s="12"/>
     </row>
     <row r="208" ht="15.75" spans="1:3">
       <c r="A208" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="12"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C209" s="12"/>
     </row>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="261">
   <si>
     <t>Título</t>
   </si>
@@ -219,13 +219,13 @@
     <t>&lt;/head&gt;</t>
   </si>
   <si>
-    <t>Literales - Ing. Eduardo Herrera Forero.</t>
-  </si>
-  <si>
-    <t>https://eduardoherreraf.github.io/cursoPython3@02_función_print.html</t>
-  </si>
-  <si>
-    <t>Aprende sobre los literales en Python: valores fijos en el código como números, cadenas y booleanos. Descubre su sintaxis y uso en programación Python.</t>
+    <t>Operadores Python - Ing. Eduardo Herrera Forero.</t>
+  </si>
+  <si>
+    <t>https://eduardoherreraf.github.io/cursoPython3@04_operadores.html</t>
+  </si>
+  <si>
+    <t>Guía completa de operadores en Python: aritméticos, de comparación, lógicos, de asignación, de identidad y de pertenencia. Aprende a realizar operaciones y comparaciones eficientes en tus programas Python.</t>
   </si>
   <si>
     <t>&lt;meta name="tittle" content="</t>
@@ -264,7 +264,7 @@
     <t>titulo 1</t>
   </si>
   <si>
-    <t>Literales</t>
+    <t>Operadores</t>
   </si>
   <si>
     <t/>
@@ -273,7 +273,7 @@
     <t>Parrafo 1</t>
   </si>
   <si>
-    <t>En Python 3, los literales son representaciones directas de valores que se escriben en el código fuente. Estos valores pueden ser números, cadenas de texto, booleanos, listas, etc.</t>
+    <t>Los operadores en Python son símbolos especiales que realizan operaciones específicas en uno o más valores (operandos). Son esenciales para realizar cálculos, comparaciones y manipulaciones de datos en los programas.</t>
   </si>
   <si>
     <t>Parrafo 2</t>
@@ -315,25 +315,25 @@
     <t>Area de trabajo 2</t>
   </si>
   <si>
-    <t>Tipos de Literales en Python</t>
+    <t>Operadores Aritméticos</t>
   </si>
   <si>
     <t>areaDeTrabajo2</t>
   </si>
   <si>
-    <t>tiposLiteralesPython</t>
+    <t>operadoresAritmeticos</t>
   </si>
   <si>
     <t>Area de trabajo 3</t>
   </si>
   <si>
-    <t>Características de los Literales</t>
+    <t>Operadores de Comparación</t>
   </si>
   <si>
     <t>areaDeTrabajo3</t>
   </si>
   <si>
-    <t>característicasLiterales</t>
+    <t>operadoresComparacion</t>
   </si>
   <si>
     <t>class="mt-5 pt-5 "&gt;</t>
@@ -342,21 +342,45 @@
     <t>Area de trabajo 4</t>
   </si>
   <si>
-    <t>¿Por Qué Son Importantes los Literales?</t>
+    <t>Operadores Lógicos</t>
   </si>
   <si>
     <t>areaDeTrabajo4</t>
   </si>
   <si>
-    <t>PorQueSonImportantesLiterales</t>
+    <t>operadoresLogicos</t>
+  </si>
+  <si>
+    <t>Operadores de Asignación</t>
+  </si>
+  <si>
+    <t>operadoresAsignacion</t>
   </si>
   <si>
     <t>Area de trabajo 5</t>
   </si>
   <si>
+    <t>Operadores de Identidad</t>
+  </si>
+  <si>
     <t>areaDeTrabajo5</t>
   </si>
   <si>
+    <t>operadoresIdentidad</t>
+  </si>
+  <si>
+    <t>Operadores de Pertenencia</t>
+  </si>
+  <si>
+    <t>operadoresPertenencia</t>
+  </si>
+  <si>
+    <t>Prioridad de los Operadores</t>
+  </si>
+  <si>
+    <t>prioridadOperadores</t>
+  </si>
+  <si>
     <t>&lt;/div&gt;</t>
   </si>
   <si>
@@ -411,10 +435,19 @@
     <t>&lt;ul&gt;</t>
   </si>
   <si>
-    <t>Listas (mutables):</t>
-  </si>
-  <si>
-    <t>Tuplas (inmutables):</t>
+    <t>&amp; (AND a nivel de bits): Realiza una operación AND bit a bit.</t>
+  </si>
+  <si>
+    <t>| (OR a nivel de bits): Realiza una operación OR bit a bit.</t>
+  </si>
+  <si>
+    <t>^ (XOR a nivel de bits): Realiza una operación XOR bit a bit.</t>
+  </si>
+  <si>
+    <t>&lt;&lt; (Desplazamiento a la izquierda): Desplaza los bits hacia la izquierda, añadiendo ceros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt; (Desplazamiento a la derecha): Desplaza los bits hacia la derecha. </t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;span class="fw-bold"&gt;</t>
@@ -615,13 +648,20 @@
     <t>Título 1</t>
   </si>
   <si>
-    <t>Facilitan la Representación Directa de Datos</t>
+    <t>Operadores de Paréntesis ()</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -672,6 +712,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>s"</t>
     </r>
     <r>
@@ -685,7 +731,7 @@
     </r>
   </si>
   <si>
-    <t>facilitanRepresentacionDirectaDatos</t>
+    <t>operadoresParentesis</t>
   </si>
   <si>
     <t>&lt;p&gt;</t>
@@ -694,7 +740,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>Los literales permiten escribir valores de manera directa y explícita en el código, lo que hace que sea más claro y legible. En lugar de tener que definir variables o utilizar funciones para obtener un valor, se pueden usar literales directamente para representar datos como números, cadenas o booleanos.</t>
+    <t>Los paréntesis tienen la mayor precedencia y se utilizan para forzar un orden específico de evaluación en las expresiones.</t>
   </si>
   <si>
     <t>&lt;/p&gt;</t>
@@ -703,100 +749,148 @@
     <t>Título 2</t>
   </si>
   <si>
-    <t>Mejoran la Legibilidad del Código</t>
-  </si>
-  <si>
-    <t>mejoranLegibilidadCodigo</t>
-  </si>
-  <si>
-    <t>El uso de literales mejora la legibilidad del código, ya que los valores que se manejan son inmediatamente comprensibles para los programadores que lean el código. Un número, una cadena de texto o un valor booleano se identifican fácilmente como tales cuando están escritos como literales.</t>
+    <t>Exponenciación **</t>
+  </si>
+  <si>
+    <t>exponenciacion</t>
+  </si>
+  <si>
+    <t>Este operador eleva un número a la potencia de otro. Tiene asociatividad de derecha a izquierda, lo que significa que se evalúa de derecha a izquierda.</t>
   </si>
   <si>
     <t>Título 3</t>
   </si>
   <si>
-    <t>Base de la Inicialización de Variables</t>
-  </si>
-  <si>
-    <t>baseInicializacionVariables</t>
-  </si>
-  <si>
-    <t>Los literales permiten inicializar variables de manera directa y sencilla, lo que es fundamental para el funcionamiento de cualquier programa. Cada vez que se define una variable, usualmente se asigna un valor literal.</t>
+    <t>Operadores Unarios +, -, ~</t>
+  </si>
+  <si>
+    <t>operadoresunarios</t>
+  </si>
+  <si>
+    <t>Estos son operadores que se aplican a un solo operando: + para el valor positivo, - para el negativo, y ~ para la negación bit a bit.</t>
   </si>
   <si>
     <t>Título 4</t>
   </si>
   <si>
-    <t>Eficiencia en la Ejecución</t>
-  </si>
-  <si>
-    <t>eficienciaEjecucion</t>
-  </si>
-  <si>
-    <t>Como los literales son valores constantes directamente interpretados por el intérprete de Python, su uso es eficiente en términos de rendimiento. No es necesario realizar cálculos o evaluaciones para obtener su valor, lo que reduce el tiempo de ejecución en comparación con otras formas de obtener datos.</t>
+    <t>Multiplicación *, División /, División Entera //, Módulo %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiplicaciónDivisionDivisionEnteraModulo </t>
+  </si>
+  <si>
+    <t>Todos estos operadores tienen la misma precedencia y se evalúan de izquierda a derecha.</t>
   </si>
   <si>
     <t>Título 5</t>
   </si>
   <si>
-    <t>Inmutabilidad y Seguridad</t>
-  </si>
-  <si>
-    <t>inmutabilidadSeguridad</t>
-  </si>
-  <si>
-    <t>Muchos literales, como los números, las cadenas de texto y las tuplas, son inmutables. Esto significa que no pueden ser alterados una vez que han sido creados, lo cual proporciona seguridad, ya que se puede estar seguro de que estos valores no cambiarán accidentalmente durante la ejecución del programa. Esto es especialmente importante en aplicaciones donde se manejan datos sensibles o se requieren valores constantes.</t>
+    <t>Suma + y Resta -</t>
+  </si>
+  <si>
+    <t>sumaResta</t>
+  </si>
+  <si>
+    <t>La suma y la resta también tienen la misma precedencia y se evalúan de izquierda a derecha.</t>
   </si>
   <si>
     <t>Título 6</t>
   </si>
   <si>
-    <t>Claridad en la Lógica del Programa</t>
-  </si>
-  <si>
-    <t>claridadLogicaPrograma</t>
-  </si>
-  <si>
-    <t>Los literales permiten expresar la lógica del programa de manera más clara. Cuando se usan directamente en expresiones o estructuras de control, es fácil entender qué está evaluando el programa. Por ejemplo, al usar literales booleanos, se puede ver de inmediato cómo se comportarán las condiciones.</t>
+    <t>Operadores de Desplazamiento &lt;&lt;, &gt;&gt;</t>
+  </si>
+  <si>
+    <t>operadoresDesplazamiento</t>
+  </si>
+  <si>
+    <t>Estos operadores realizan desplazamientos de bits hacia la izquierda o derecha, respectivamente.</t>
   </si>
   <si>
     <t>Título 7</t>
   </si>
   <si>
-    <t>Manejo Directo de Datos Complejos</t>
-  </si>
-  <si>
-    <t>manejoDirectoDatosComplejos</t>
-  </si>
-  <si>
-    <t>Los literales permiten representar estructuras de datos complejas de manera sencilla. Literales como las listas, diccionarios o tuplas pueden contener otros literales y valores, lo que permite inicializar colecciones de datos sin necesidad de procedimientos adicionales.</t>
+    <t>Operadores de Comparación &lt;, &lt;=, &gt;, &gt;=</t>
+  </si>
+  <si>
+    <t>Comparan dos valores y devuelven un valor booleano. Tienen la misma precedencia y se evalúan de izquierda a derecha.</t>
   </si>
   <si>
     <t>Título 8</t>
   </si>
   <si>
-    <t>Versatilidad en Representación de Tipos de Datos</t>
-  </si>
-  <si>
-    <t>VersatilidadRepresentaciónTiposDatos</t>
-  </si>
-  <si>
-    <t>Los literales en Python son versátiles y permiten representar diferentes tipos de datos: numéricos, cadenas de texto, booleanos, colecciones, etc. Esto brinda flexibilidad al programador al escribir código que debe trabajar con distintos tipos de información.</t>
+    <t>Operadores de Igualdad ==, !=</t>
+  </si>
+  <si>
+    <t>operadoresIgualdad</t>
+  </si>
+  <si>
+    <t>Comprueban si dos valores son iguales o distintos. Tienen menor precedencia que los operadores de comparación.</t>
   </si>
   <si>
     <t>Título 9</t>
   </si>
   <si>
+    <t>Operadores a Nivel de Bits &amp; (AND bit a bit)</t>
+  </si>
+  <si>
+    <t>operadoresNivelBitsAnd</t>
+  </si>
+  <si>
+    <t>Este operador realiza una operación AND a nivel de bits.</t>
+  </si>
+  <si>
     <t>Título 10</t>
   </si>
   <si>
+    <t>Operadores a Nivel de Bits ^ (XOR) y | (OR bit a bit)</t>
+  </si>
+  <si>
+    <t>operadoresNivelXorOr</t>
+  </si>
+  <si>
+    <t>Estos operadores realizan operaciones XOR (OR exclusivo) y OR a nivel de bits.</t>
+  </si>
+  <si>
     <t>Título 11</t>
   </si>
   <si>
+    <t>Operadores Lógicos not, and, or</t>
+  </si>
+  <si>
+    <t>operadoresLogicosNotAndOr</t>
+  </si>
+  <si>
+    <t>Estos operadores se usan para combinar condiciones lógicas. not tiene mayor precedencia que and y or.</t>
+  </si>
+  <si>
     <t>Título 12</t>
   </si>
   <si>
+    <t>Operadores de Asignación =, +=, -=, *=, /=, etc.</t>
+  </si>
+  <si>
+    <t>OperadoresAsignacion</t>
+  </si>
+  <si>
+    <t>Estos operadores asignan un valor a una variable. Tienen baja precedencia, por lo que las operaciones del lado derecho de una asignación se evalúan primero.</t>
+  </si>
+  <si>
     <t>Título 13</t>
+  </si>
+  <si>
+    <t>Operadores de Identidad is, is not</t>
+  </si>
+  <si>
+    <t>Verifican si dos variables se refieren al mismo objeto.</t>
+  </si>
+  <si>
+    <t>Título 14</t>
+  </si>
+  <si>
+    <t>Operadores de Pertenencia in, not in</t>
+  </si>
+  <si>
+    <t>Comprueban si un elemento está presente en una secuencia.</t>
   </si>
 </sst>
 </file>
@@ -884,6 +978,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF6A9955"/>
       <name val="Verdana"/>
@@ -892,12 +992,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFCCCCCC"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -1054,7 +1148,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5E6A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,7 +1670,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,16 +1694,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1612,89 +1712,89 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1767,14 +1867,15 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
@@ -1835,27 +1936,7 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2920,7 +3001,7 @@
   <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2954,7 +3035,7 @@
       <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="39" t="s">
@@ -2962,11 +3043,11 @@
       </c>
       <c r="XFD2" s="39"/>
     </row>
-    <row r="3" spans="2:16384">
+    <row r="3" ht="28.5" spans="2:16384">
       <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="39" t="s">
@@ -3040,7 +3121,7 @@
       </c>
       <c r="B9" s="44" t="str">
         <f>CONCATENATE(E9,$C$3,F9)</f>
-        <v>&lt;meta name="description" content="Aprende sobre los literales en Python: valores fijos en el código como números, cadenas y booleanos. Descubre su sintaxis y uso en programación Python." /&gt;</v>
+        <v>&lt;meta name="description" content="Guía completa de operadores en Python: aritméticos, de comparación, lógicos, de asignación, de identidad y de pertenencia. Aprende a realizar operaciones y comparaciones eficientes en tus programas Python." /&gt;</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="44" t="s">
@@ -3060,7 +3141,7 @@
       </c>
       <c r="B10" s="44" t="str">
         <f>CONCATENATE(E10,$C$1,F10)</f>
-        <v>&lt;meta name="tittle" content="Literales - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta name="tittle" content="Operadores Python - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44" t="s">
@@ -3122,7 +3203,7 @@
       </c>
       <c r="B14" s="44" t="str">
         <f>CONCATENATE(E14,$C$2,$F$9)</f>
-        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" /&gt;</v>
+        <v>&lt;link rel="canonical" href="https://eduardoherreraf.github.io/cursoPython3@04_operadores.html" /&gt;</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44" t="s">
@@ -3191,7 +3272,7 @@
       </c>
       <c r="B19" s="44" t="str">
         <f>CONCATENATE(E19,$C$1,F9)</f>
-        <v>&lt;meta property="og:title" content="Literales - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta property="og:title" content="Operadores Python - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44" t="s">
@@ -3208,7 +3289,7 @@
       </c>
       <c r="B20" s="44" t="str">
         <f>CONCATENATE(E20,$C$3,$F$9)</f>
-        <v>&lt;meta property="og:description" content="Aprende sobre los literales en Python: valores fijos en el código como números, cadenas y booleanos. Descubre su sintaxis y uso en programación Python." /&gt;</v>
+        <v>&lt;meta property="og:description" content="Guía completa de operadores en Python: aritméticos, de comparación, lógicos, de asignación, de identidad y de pertenencia. Aprende a realizar operaciones y comparaciones eficientes en tus programas Python." /&gt;</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44" t="s">
@@ -3253,7 +3334,7 @@
       </c>
       <c r="B23" s="44" t="str">
         <f>CONCATENATE(E23,$C$2,$F$9)</f>
-        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" /&gt;</v>
+        <v>&lt;meta property="og:url" content="https://eduardoherreraf.github.io/cursoPython3@04_operadores.html" /&gt;</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44" t="s">
@@ -3350,7 +3431,7 @@
       </c>
       <c r="B30" s="44" t="str">
         <f>CONCATENATE(E30,$C$1,$F$9)</f>
-        <v>&lt;meta name="twitter:url" content="Literales - Ing. Eduardo Herrera Forero." /&gt;</v>
+        <v>&lt;meta name="twitter:url" content="Operadores Python - Ing. Eduardo Herrera Forero." /&gt;</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="44" t="s">
@@ -3367,7 +3448,7 @@
       </c>
       <c r="B31" s="44" t="str">
         <f>CONCATENATE(E31,$C$2,$F$9)</f>
-        <v>&lt;meta name="twitter:title" content="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" /&gt;</v>
+        <v>&lt;meta name="twitter:title" content="https://eduardoherreraf.github.io/cursoPython3@04_operadores.html" /&gt;</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44" t="s">
@@ -3384,7 +3465,7 @@
       </c>
       <c r="B32" s="44" t="str">
         <f>CONCATENATE(E32,$C$3,$F$9)</f>
-        <v>&lt;meta name="twitter:description" content="Aprende sobre los literales en Python: valores fijos en el código como números, cadenas y booleanos. Descubre su sintaxis y uso en programación Python." /&gt;</v>
+        <v>&lt;meta name="twitter:description" content="Guía completa de operadores en Python: aritméticos, de comparación, lógicos, de asignación, de identidad y de pertenencia. Aprende a realizar operaciones y comparaciones eficientes en tus programas Python." /&gt;</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44" t="s">
@@ -3617,7 +3698,7 @@
       </c>
       <c r="B49" s="44" t="str">
         <f>C1</f>
-        <v>Literales - Ing. Eduardo Herrera Forero.</v>
+        <v>Operadores Python - Ing. Eduardo Herrera Forero.</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="44" t="s">
@@ -3706,7 +3787,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html" tooltip="https://eduardoherreraf.github.io/cursoPython3@02_función_print.html"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://eduardoherreraf.github.io/cursoPython3@04_operadores.html" tooltip="https://eduardoherreraf.github.io/cursoPython3@04_operadores.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3717,12 +3798,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E97"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3780,7 +3861,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="46" t="str">
         <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Literales  --&gt;</v>
+        <v>&lt;!--  Operadores  --&gt;</v>
       </c>
     </row>
     <row r="7" spans="3:5">
@@ -3807,12 +3888,12 @@
       <c r="C9" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="61" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="46" t="str">
         <f>CONCATENATE("&lt;header&gt;&lt;h1&gt;",C9,"&lt;/h1&gt;&lt;/header&gt;")</f>
-        <v>&lt;header&gt;&lt;h1&gt;Literales&lt;/h1&gt;&lt;/header&gt;</v>
+        <v>&lt;header&gt;&lt;h1&gt;Operadores&lt;/h1&gt;&lt;/header&gt;</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -3832,12 +3913,12 @@
       <c r="C11" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="46" t="str">
         <f t="shared" ref="E11:E18" si="0">IF(C11&lt;&gt;"",CONCATENATE("&lt;p&gt;",C11,"&lt;/p&gt;"),"")</f>
-        <v>&lt;p&gt;En Python 3, los literales son representaciones directas de valores que se escriben en el código fuente. Estos valores pueden ser números, cadenas de texto, booleanos, listas, etc.&lt;/p&gt;</v>
+        <v>&lt;p&gt;Los operadores en Python son símbolos especiales que realizan operaciones específicas en uno o más valores (operandos). Son esenciales para realizar cálculos, comparaciones y manipulaciones de datos en los programas.&lt;/p&gt;</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>2</v>
@@ -3848,7 +3929,7 @@
         <v>79</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="46" t="str">
@@ -3864,7 +3945,7 @@
         <v>80</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="46" t="str">
@@ -3880,7 +3961,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="46" t="str">
@@ -3899,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="46" t="str">
@@ -3918,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="49"/>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="46" t="str">
@@ -3937,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="49"/>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="46" t="str">
@@ -3956,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="46" t="str">
@@ -4068,7 +4149,7 @@
       <c r="D26" s="49"/>
       <c r="E26" s="46" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;!-- ",C26," --&gt;"),"")</f>
-        <v>&lt;!-- Tipos de Literales en Python --&gt;</v>
+        <v>&lt;!-- Operadores Aritméticos --&gt;</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>2</v>
@@ -4101,7 +4182,7 @@
       <c r="D28" s="49"/>
       <c r="E28" s="46" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("id=",Comillas,C28,Comillas),"")</f>
-        <v>id="tiposLiteralesPython"</v>
+        <v>id="operadoresAritmeticos"</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>2</v>
@@ -4129,7 +4210,7 @@
       <c r="D30" s="25"/>
       <c r="E30" s="46" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C26,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Tipos de Literales en Python&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Operadores Aritméticos&lt;/h2&gt;</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>2</v>
@@ -4162,7 +4243,7 @@
       <c r="D32" s="49"/>
       <c r="E32" s="46" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;!-- ",C32," --&gt;"),"")</f>
-        <v>&lt;!-- Características de los Literales --&gt;</v>
+        <v>&lt;!-- Operadores de Comparación --&gt;</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>2</v>
@@ -4195,7 +4276,7 @@
       <c r="D34" s="49"/>
       <c r="E34" s="46" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("id=",Comillas,C34,Comillas),"")</f>
-        <v>id="característicasLiterales"</v>
+        <v>id="operadoresComparacion"</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>99</v>
@@ -4226,7 +4307,7 @@
       <c r="D36" s="25"/>
       <c r="E36" s="46" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C32,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;Características de los Literales&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Operadores de Comparación&lt;/h2&gt;</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>2</v>
@@ -4259,7 +4340,7 @@
       <c r="D38" s="49"/>
       <c r="E38" s="46" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("&lt;!-- ",C38," --&gt;"),"")</f>
-        <v>&lt;!-- ¿Por Qué Son Importantes los Literales? --&gt;</v>
+        <v>&lt;!-- Operadores Lógicos --&gt;</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>2</v>
@@ -4292,7 +4373,7 @@
       <c r="D40" s="49"/>
       <c r="E40" s="46" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("id=",Comillas,C40,Comillas),"")</f>
-        <v>id="PorQueSonImportantesLiterales"</v>
+        <v>id="operadoresLogicos"</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>99</v>
@@ -4323,7 +4404,7 @@
       <c r="D42" s="25"/>
       <c r="E42" s="46" t="str">
         <f>IF(C38&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C38,"&lt;/h2&gt;"),"")</f>
-        <v>&lt;h2 class="mt-1"&gt;¿Por Qué Son Importantes los Literales?&lt;/h2&gt;</v>
+        <v>&lt;h2 class="mt-1"&gt;Operadores Lógicos&lt;/h2&gt;</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>2</v>
@@ -4353,11 +4434,13 @@
       <c r="B44" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="49" t="s">
+        <v>104</v>
+      </c>
       <c r="D44" s="49"/>
       <c r="E44" s="46" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("&lt;!-- ",C44," --&gt;"),"")</f>
-        <v/>
+        <v>&lt;!-- Operadores de Asignación --&gt;</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>2</v>
@@ -4371,7 +4454,7 @@
       <c r="D45" s="25"/>
       <c r="E45" s="51" t="str">
         <f>IF(C44&lt;&gt;"","&lt;div","")</f>
-        <v/>
+        <v>&lt;div</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>2</v>
@@ -4384,11 +4467,13 @@
       <c r="B46" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="49"/>
+      <c r="C46" s="49" t="s">
+        <v>105</v>
+      </c>
       <c r="D46" s="49"/>
       <c r="E46" s="46" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("id=",Comillas,C46,Comillas),"")</f>
-        <v/>
+        <v>id="operadoresAsignacion"</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>99</v>
@@ -4405,7 +4490,7 @@
       <c r="D47" s="25"/>
       <c r="E47" s="46" t="str">
         <f>IF(C44&lt;&gt;"",$F$34,"")</f>
-        <v/>
+        <v>class="mt-5 pt-5 "&gt;</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>2</v>
@@ -4419,7 +4504,7 @@
       <c r="D48" s="25"/>
       <c r="E48" s="46" t="str">
         <f>IF(C44&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C44,"&lt;/h2&gt;"),"")</f>
-        <v/>
+        <v>&lt;h2 class="mt-1"&gt;Operadores de Asignación&lt;/h2&gt;</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>2</v>
@@ -4436,7 +4521,7 @@
       <c r="D49" s="25"/>
       <c r="E49" s="51" t="str">
         <f>IF(C44&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
+        <v>&lt;/div&gt;</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>2</v>
@@ -4444,16 +4529,18 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="49" t="s">
+        <v>107</v>
+      </c>
       <c r="D50" s="49"/>
       <c r="E50" s="46" t="str">
         <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;!-- ",C50," --&gt;"),"")</f>
-        <v/>
+        <v>&lt;!-- Operadores de Identidad --&gt;</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>2</v>
@@ -4470,7 +4557,7 @@
       <c r="D51" s="25"/>
       <c r="E51" s="51" t="str">
         <f>IF(C50&lt;&gt;"","&lt;div","")</f>
-        <v/>
+        <v>&lt;div</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>2</v>
@@ -4481,16 +4568,18 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="49"/>
+      <c r="C52" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="D52" s="49"/>
       <c r="E52" s="46" t="str">
         <f>IF(C50&lt;&gt;"",CONCATENATE("id=",Comillas,C52,Comillas),"")</f>
-        <v/>
+        <v>id="operadoresIdentidad"</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>99</v>
@@ -4506,7 +4595,7 @@
       <c r="C53" s="25"/>
       <c r="E53" s="46" t="str">
         <f>IF(C50&lt;&gt;"",$F$34,"")</f>
-        <v/>
+        <v>class="mt-5 pt-5 "&gt;</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>2</v>
@@ -4519,7 +4608,7 @@
       <c r="C54" s="25"/>
       <c r="E54" s="46" t="str">
         <f>IF(C50&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C50,"&lt;/h2&gt;"),"")</f>
-        <v/>
+        <v>&lt;h2 class="mt-1"&gt;Operadores de Identidad&lt;/h2&gt;</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>2</v>
@@ -4532,7 +4621,7 @@
       <c r="C55" s="25"/>
       <c r="E55" s="51" t="str">
         <f>IF(C50&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
+        <v>&lt;/div&gt;</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>2</v>
@@ -4545,11 +4634,13 @@
       <c r="B56" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="49"/>
+      <c r="C56" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="D56" s="49"/>
       <c r="E56" s="46" t="str">
         <f>IF(C56&lt;&gt;"",CONCATENATE("&lt;!-- ",C56," --&gt;"),"")</f>
-        <v/>
+        <v>&lt;!-- Operadores de Pertenencia --&gt;</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>2</v>
@@ -4563,7 +4654,7 @@
       <c r="D57" s="25"/>
       <c r="E57" s="51" t="str">
         <f>IF(C56&lt;&gt;"","&lt;div","")</f>
-        <v/>
+        <v>&lt;div</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>2</v>
@@ -4576,11 +4667,13 @@
       <c r="B58" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="49"/>
+      <c r="C58" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="D58" s="49"/>
       <c r="E58" s="46" t="str">
         <f>IF(C56&lt;&gt;"",CONCATENATE("id=",Comillas,C58,Comillas),"")</f>
-        <v/>
+        <v>id="operadoresPertenencia"</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>99</v>
@@ -4597,7 +4690,7 @@
       <c r="D59" s="25"/>
       <c r="E59" s="46" t="str">
         <f>IF(C56&lt;&gt;"",$F$34,"")</f>
-        <v/>
+        <v>class="mt-5 pt-5 "&gt;</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>2</v>
@@ -4611,7 +4704,7 @@
       <c r="D60" s="25"/>
       <c r="E60" s="46" t="str">
         <f>IF(C56&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C56,"&lt;/h2&gt;"),"")</f>
-        <v/>
+        <v>&lt;h2 class="mt-1"&gt;Operadores de Pertenencia&lt;/h2&gt;</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>2</v>
@@ -4628,18 +4721,26 @@
       <c r="D61" s="25"/>
       <c r="E61" s="51" t="str">
         <f>IF(C56&lt;&gt;"","&lt;/div&gt;","")</f>
-        <v/>
+        <v>&lt;/div&gt;</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="1:7">
+      <c r="A62" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="B62" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="52" t="s">
-        <v>106</v>
+      <c r="C62" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="49"/>
+      <c r="E62" s="46" t="str">
+        <f>IF(C62&lt;&gt;"",CONCATENATE("&lt;!-- ",C62," --&gt;"),"")</f>
+        <v>&lt;!-- Prioridad de los Operadores --&gt;</v>
       </c>
       <c r="G62" s="25" t="s">
         <v>2</v>
@@ -4649,272 +4750,385 @@
       <c r="B63" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="53" t="s">
-        <v>107</v>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="51" t="str">
+        <f>IF(C62&lt;&gt;"","&lt;div","")</f>
+        <v>&lt;div</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="1:7">
+      <c r="A64" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="B64" s="25" t="s">
         <v>2</v>
       </c>
+      <c r="C64" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="49"/>
       <c r="E64" s="46" t="str">
-        <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
-        <v>&lt;!--  Literales  --&gt;</v>
+        <f>IF(C62&lt;&gt;"",CONCATENATE("id=",Comillas,C64,Comillas),"")</f>
+        <v>id="prioridadOperadores"</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="G64" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:7">
       <c r="B65" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>99</v>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="46" t="str">
+        <f>IF(C62&lt;&gt;"",$F$34,"")</f>
+        <v>class="mt-5 pt-5 "&gt;</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G66" s="54"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="46" t="str">
+        <f>IF(C62&lt;&gt;"",CONCATENATE("&lt;h2 class=",Comillas,"mt-1",Comillas,"&gt;",C62,"&lt;/h2&gt;"),"")</f>
+        <v>&lt;h2 class="mt-1"&gt;Prioridad de los Operadores&lt;/h2&gt;</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="55"/>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="51" t="str">
+        <f>IF(C62&lt;&gt;"","&lt;/div&gt;","")</f>
+        <v>&lt;/div&gt;</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="E68" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="25"/>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="E69" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="25" t="str">
-        <f>IF(C21="si","&lt;li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="25" t="str">
-        <f>IF(C21="si",CONCATENATE("&lt;a href=",Comillas,"#",C22,Comillas,"&gt;",C20,"&lt;/a&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="E70" s="46" t="str">
+        <f>CONCATENATE("&lt;!--  ",$C$9,"  --&gt;")</f>
+        <v>&lt;!--  Operadores  --&gt;</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72" s="55"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="56"/>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="25" t="str">
-        <f>IF(C21="si","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>2</v>
+      <c r="E74" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="25" t="str">
+      <c r="E75" s="25"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="25" t="str">
+        <f>IF(C21="si","&lt;li&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="25" t="str">
+        <f>IF(C21="si",CONCATENATE("&lt;a href=",Comillas,"#",C22,Comillas,"&gt;",C20,"&lt;/a&gt;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="25" t="str">
+        <f>IF(C21="si","&lt;/li&gt;","")</f>
+        <v/>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="25" t="str">
         <f>IF(C$26&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="25" t="str">
+    <row r="82" spans="2:5">
+      <c r="B82" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="25" t="str">
         <f>IF(C26&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C28,Comillas,"&gt;",C26,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#tiposLiteralesPython"&gt;Tipos de Literales en Python&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="25" t="str">
+        <v>&lt;a href="#operadoresAritmeticos"&gt;Operadores Aritméticos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="25" t="str">
         <f>IF($C$26&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="25" t="str">
+    <row r="84" spans="5:5">
+      <c r="E84" s="25" t="str">
         <f>IF(C32&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="79" spans="5:5">
-      <c r="E79" s="25" t="str">
+    <row r="85" spans="5:5">
+      <c r="E85" s="25" t="str">
         <f>IF(C32&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C34,Comillas,"&gt;",C32,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#característicasLiterales"&gt;Características de los Literales&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="25" t="str">
+        <v>&lt;a href="#operadoresComparacion"&gt;Operadores de Comparación&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="25" t="str">
         <f>IF(C32&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="25" t="str">
+    <row r="87" spans="5:5">
+      <c r="E87" s="25" t="str">
         <f>IF($C$38&lt;&gt;"","&lt;li&gt;","")</f>
         <v>&lt;li&gt;</v>
       </c>
     </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="25" t="str">
+    <row r="88" spans="5:5">
+      <c r="E88" s="25" t="str">
         <f>IF($C$38&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C40,Comillas,"&gt;",C38,"&lt;/a&gt;"),"")</f>
-        <v>&lt;a href="#PorQueSonImportantesLiterales"&gt;¿Por Qué Son Importantes los Literales?&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="25" t="str">
+        <v>&lt;a href="#operadoresLogicos"&gt;Operadores Lógicos&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="25" t="str">
         <f>IF($C$38&lt;&gt;"","&lt;/li&gt;","")</f>
         <v>&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="25" t="str">
+    <row r="90" spans="5:5">
+      <c r="E90" s="25" t="str">
         <f>IF(C$44&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="5:5">
-      <c r="E85" s="25" t="str">
-        <f>IF(C$44&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C46,Comillas,"&gt;",C44,"&lt;/a&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="25" t="str">
-        <f>IF($C$44&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="25" t="str">
-        <f>IF(C50&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="25" t="str">
-        <f>IF(C$50&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C52,Comillas,"&gt;",C50,"&lt;/a&gt;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="25" t="str">
-        <f>IF(C50&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="5:11">
-      <c r="E90" s="25" t="str">
-        <f>IF(C56&lt;&gt;"","&lt;li&gt;","")</f>
-        <v/>
-      </c>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
+        <v>&lt;li&gt;</v>
+      </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" s="25" t="str">
-        <f>IF(C$56&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C58,Comillas,"&gt;",C56,"&lt;/a&gt;"),"")</f>
-        <v/>
+        <f>IF(C$44&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C46,Comillas,"&gt;",C44,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#operadoresAsignacion"&gt;Operadores de Asignación&lt;/a&gt;</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" s="25" t="str">
-        <f>IF(C56&lt;&gt;"","&lt;/li&gt;","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="56"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="25" t="s">
+        <f>IF($C$44&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="25" t="str">
+        <f>IF(C50&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="25" t="str">
+        <f>IF(C$50&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C52,Comillas,"&gt;",C50,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#operadoresIdentidad"&gt;Operadores de Identidad&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="25" t="str">
+        <f>IF(C50&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11">
+      <c r="E96" s="25" t="str">
+        <f>IF(C62&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="25" t="str">
+        <f>IF(C$62&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C64,Comillas,"&gt;",C56,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#prioridadOperadores"&gt;Operadores de Pertenencia&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="25" t="str">
+        <f>IF(C62&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="25" t="str">
+        <f>IF(C62&lt;&gt;"","&lt;li&gt;","")</f>
+        <v>&lt;li&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="25" t="str">
+        <f>IF(C$64&lt;&gt;"",CONCATENATE("&lt;a href=",Comillas,"#",C64,Comillas,"&gt;",C62,"&lt;/a&gt;"),"")</f>
+        <v>&lt;a href="#prioridadOperadores"&gt;Prioridad de los Operadores&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="25" t="str">
+        <f>IF(C64&lt;&gt;"","&lt;/li&gt;","")</f>
+        <v>&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-    </row>
-    <row r="94" spans="5:5">
-      <c r="E94" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5">
-      <c r="E95" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="56"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="57"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="C62:C67">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C$1:C$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C1:C61;C68:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4950,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>2</v>
@@ -4962,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>2</v>
@@ -4974,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>2</v>
@@ -5734,7 +5948,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="38" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5749,7 +5963,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5762,12 +5976,12 @@
   <sheetData>
     <row r="1" spans="7:7">
       <c r="G1" s="31" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G2" s="31" t="str">
         <f>B2</f>
@@ -5776,7 +5990,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B13" si="0">IF(A3&lt;&gt;"",$B$14,"")</f>
@@ -5784,7 +5998,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C13" si="1">IF(A3&lt;&gt;"",LEFT(A3,FIND(":",A3,1)-1),"")</f>
-        <v>Listas (mutables)</v>
+        <v>&amp; (AND a nivel de bits)</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D13" si="2">IF(A3&lt;&gt;"","&lt;/span&gt;","")</f>
@@ -5792,7 +6006,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E13" si="3">IF(A3&lt;&gt;"",RIGHT(A3,LEN(A3)-FIND(":",A3,1)),"")</f>
-        <v/>
+        <v> Realiza una operación AND bit a bit.</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F13" si="4">IF(A3&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -5800,12 +6014,12 @@
       </c>
       <c r="G3" s="31" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(B3,C3,D3,":",E3,F3),IF(A2&lt;&gt;"",$B$15,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Listas (mutables)&lt;/span&gt;:&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;&amp; (AND a nivel de bits)&lt;/span&gt;: Realiza una operación AND bit a bit.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -5813,7 +6027,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>Tuplas (inmutables)</v>
+        <v>| (OR a nivel de bits)</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
@@ -5821,7 +6035,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v> Realiza una operación OR bit a bit.</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="4"/>
@@ -5829,88 +6043,94 @@
       </c>
       <c r="G4" s="31" t="str">
         <f>IF(A4&lt;&gt;"",CONCATENATE(B4,C4,D4,":",E4,F4),IF(A3&lt;&gt;"",$B$15,""))</f>
-        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;Tuplas (inmutables)&lt;/span&gt;:&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;| (OR a nivel de bits)&lt;/span&gt;: Realiza una operación OR bit a bit.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32"/>
+      <c r="A5" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>^ (XOR a nivel de bits)</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/span&gt;</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v> Realiza una operación XOR bit a bit.</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G5" s="31" t="str">
         <f t="shared" ref="G3:G7" si="5">IF(A5&lt;&gt;"",CONCATENATE(B5,C5,D5,":",E5,F5),IF(A4&lt;&gt;"",$B$15,""))</f>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;^ (XOR a nivel de bits)&lt;/span&gt;: Realiza una operación XOR bit a bit.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32"/>
+      <c r="A6" s="32" t="s">
+        <v>135</v>
+      </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>&lt;&lt; (Desplazamiento a la izquierda)</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/span&gt;</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v> Desplaza los bits hacia la izquierda, añadiendo ceros.</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="G6" s="31" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;&lt;&lt; (Desplazamiento a la izquierda)&lt;/span&gt;: Desplaza los bits hacia la izquierda, añadiendo ceros.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32"/>
+      <c r="A7" s="32" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>&lt;li&gt;&lt;span class="fw-bold"&gt;</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>&gt;&gt; (Desplazamiento a la derecha)</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/span&gt;</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v> Desplaza los bits hacia la derecha. </v>
       </c>
       <c r="F7"